--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1191,6 +1191,9 @@
   <si>
     <t>['87', '88']</t>
   </si>
+  <si>
+    <t>['44', '47', '79']</t>
+  </si>
 </sst>
 </file>
 
@@ -1551,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2918,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>1.67</v>
@@ -4981,7 +4984,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5596,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20">
         <v>0.53</v>
@@ -7865,7 +7868,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -9304,7 +9307,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
         <v>1.93</v>
@@ -11367,7 +11370,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR48">
         <v>0.91</v>
@@ -13012,7 +13015,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -17753,7 +17756,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ79">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -17956,7 +17959,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80">
         <v>0.9399999999999999</v>
@@ -20840,7 +20843,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -21667,7 +21670,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ98">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR98">
         <v>0.89</v>
@@ -24345,7 +24348,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
         <v>2.02</v>
@@ -25166,7 +25169,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ115">
         <v>0.75</v>
@@ -28256,7 +28259,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>1.38</v>
@@ -29083,7 +29086,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ134">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
@@ -30316,7 +30319,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140">
         <v>0.73</v>
@@ -31555,7 +31558,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ146">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -34233,7 +34236,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ159">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR159">
         <v>1.05</v>
@@ -36290,7 +36293,7 @@
         <v>2.44</v>
       </c>
       <c r="AP169">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ169">
         <v>2.13</v>
@@ -37529,7 +37532,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ175">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR175">
         <v>1.26</v>
@@ -38762,7 +38765,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ181">
         <v>0.93</v>
@@ -42061,7 +42064,7 @@
         <v>2</v>
       </c>
       <c r="AQ197">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR197">
         <v>1.85</v>
@@ -42882,7 +42885,7 @@
         <v>0.45</v>
       </c>
       <c r="AP201">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ201">
         <v>0.63</v>
@@ -45563,7 +45566,7 @@
         <v>3</v>
       </c>
       <c r="AQ214">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -46384,7 +46387,7 @@
         <v>1.42</v>
       </c>
       <c r="AP218">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ218">
         <v>1.4</v>
@@ -46593,7 +46596,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ219">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR219">
         <v>1.4</v>
@@ -50298,7 +50301,7 @@
         <v>2.17</v>
       </c>
       <c r="AP237">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ237">
         <v>2.25</v>
@@ -50713,7 +50716,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ239">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR239">
         <v>1.25</v>
@@ -53803,7 +53806,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ254">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR254">
         <v>1.43</v>
@@ -54418,7 +54421,7 @@
         <v>0.57</v>
       </c>
       <c r="AP257">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ257">
         <v>0.63</v>
@@ -58556,7 +58559,7 @@
         <v>4</v>
       </c>
       <c r="AV277">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW277">
         <v>3</v>
@@ -58568,16 +58571,16 @@
         <v>7</v>
       </c>
       <c r="AZ277">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA277">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB277">
         <v>5</v>
       </c>
       <c r="BC277">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD277">
         <v>0</v>
@@ -58759,31 +58762,31 @@
         <v>2.24</v>
       </c>
       <c r="AU278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV278">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX278">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY278">
+        <v>5</v>
+      </c>
+      <c r="AZ278">
+        <v>11</v>
+      </c>
+      <c r="BA278">
         <v>3</v>
       </c>
-      <c r="AZ278">
+      <c r="BB278">
         <v>6</v>
       </c>
-      <c r="BA278">
-        <v>2</v>
-      </c>
-      <c r="BB278">
-        <v>2</v>
-      </c>
       <c r="BC278">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD278">
         <v>0</v>
@@ -58968,66 +58971,272 @@
         <v>4</v>
       </c>
       <c r="AV279">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW279">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX279">
         <v>3</v>
       </c>
       <c r="AY279">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ279">
+        <v>7</v>
+      </c>
+      <c r="BA279">
+        <v>2</v>
+      </c>
+      <c r="BB279">
         <v>6</v>
       </c>
-      <c r="BA279">
-        <v>1</v>
-      </c>
-      <c r="BB279">
-        <v>2</v>
-      </c>
       <c r="BC279">
+        <v>8</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>0</v>
+      </c>
+      <c r="BG279">
+        <v>0</v>
+      </c>
+      <c r="BH279">
+        <v>0</v>
+      </c>
+      <c r="BI279">
+        <v>0</v>
+      </c>
+      <c r="BJ279">
+        <v>0</v>
+      </c>
+      <c r="BK279">
+        <v>0</v>
+      </c>
+      <c r="BL279">
+        <v>0</v>
+      </c>
+      <c r="BM279">
+        <v>0</v>
+      </c>
+      <c r="BN279">
+        <v>0</v>
+      </c>
+      <c r="BO279">
+        <v>0</v>
+      </c>
+      <c r="BP279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7025214</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45411.67708333334</v>
+      </c>
+      <c r="F280">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>75</v>
+      </c>
+      <c r="H280" t="s">
+        <v>72</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
         <v>3</v>
       </c>
-      <c r="BD279">
-        <v>0</v>
-      </c>
-      <c r="BE279">
-        <v>0</v>
-      </c>
-      <c r="BF279">
-        <v>0</v>
-      </c>
-      <c r="BG279">
-        <v>0</v>
-      </c>
-      <c r="BH279">
-        <v>0</v>
-      </c>
-      <c r="BI279">
-        <v>0</v>
-      </c>
-      <c r="BJ279">
-        <v>0</v>
-      </c>
-      <c r="BK279">
-        <v>0</v>
-      </c>
-      <c r="BL279">
-        <v>0</v>
-      </c>
-      <c r="BM279">
-        <v>0</v>
-      </c>
-      <c r="BN279">
-        <v>0</v>
-      </c>
-      <c r="BO279">
-        <v>0</v>
-      </c>
-      <c r="BP279">
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>90</v>
+      </c>
+      <c r="P280" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>0</v>
+      </c>
+      <c r="S280">
+        <v>0</v>
+      </c>
+      <c r="T280">
+        <v>0</v>
+      </c>
+      <c r="U280">
+        <v>0</v>
+      </c>
+      <c r="V280">
+        <v>0</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>2.02</v>
+      </c>
+      <c r="AA280">
+        <v>3.44</v>
+      </c>
+      <c r="AB280">
+        <v>3.1</v>
+      </c>
+      <c r="AC280">
+        <v>0</v>
+      </c>
+      <c r="AD280">
+        <v>0</v>
+      </c>
+      <c r="AE280">
+        <v>0</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>1.88</v>
+      </c>
+      <c r="AH280">
+        <v>1.88</v>
+      </c>
+      <c r="AI280">
+        <v>0</v>
+      </c>
+      <c r="AJ280">
+        <v>0</v>
+      </c>
+      <c r="AK280">
+        <v>0</v>
+      </c>
+      <c r="AL280">
+        <v>0</v>
+      </c>
+      <c r="AM280">
+        <v>0</v>
+      </c>
+      <c r="AN280">
+        <v>1.2</v>
+      </c>
+      <c r="AO280">
+        <v>0.8</v>
+      </c>
+      <c r="AP280">
+        <v>1.13</v>
+      </c>
+      <c r="AQ280">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR280">
+        <v>1.06</v>
+      </c>
+      <c r="AS280">
+        <v>1.02</v>
+      </c>
+      <c r="AT280">
+        <v>2.08</v>
+      </c>
+      <c r="AU280">
+        <v>2</v>
+      </c>
+      <c r="AV280">
+        <v>4</v>
+      </c>
+      <c r="AW280">
+        <v>6</v>
+      </c>
+      <c r="AX280">
+        <v>3</v>
+      </c>
+      <c r="AY280">
+        <v>8</v>
+      </c>
+      <c r="AZ280">
+        <v>7</v>
+      </c>
+      <c r="BA280">
+        <v>3</v>
+      </c>
+      <c r="BB280">
+        <v>2</v>
+      </c>
+      <c r="BC280">
+        <v>5</v>
+      </c>
+      <c r="BD280">
+        <v>0</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280">
+        <v>0</v>
+      </c>
+      <c r="BG280">
+        <v>0</v>
+      </c>
+      <c r="BH280">
+        <v>0</v>
+      </c>
+      <c r="BI280">
+        <v>0</v>
+      </c>
+      <c r="BJ280">
+        <v>0</v>
+      </c>
+      <c r="BK280">
+        <v>0</v>
+      </c>
+      <c r="BL280">
+        <v>0</v>
+      </c>
+      <c r="BM280">
+        <v>0</v>
+      </c>
+      <c r="BN280">
+        <v>0</v>
+      </c>
+      <c r="BO280">
+        <v>0</v>
+      </c>
+      <c r="BP280">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -59174,31 +59174,31 @@
         <v>2.08</v>
       </c>
       <c r="AU280">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV280">
         <v>4</v>
       </c>
       <c r="AW280">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AX280">
         <v>3</v>
       </c>
       <c r="AY280">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AZ280">
         <v>7</v>
       </c>
       <c r="BA280">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB280">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC280">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BD280">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="397">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,15 @@
     <t>['7', '40']</t>
   </si>
   <si>
+    <t>['37', '56']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['13', '70', '90+2']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1194,6 +1203,9 @@
   <si>
     <t>['44', '47', '79']</t>
   </si>
+  <si>
+    <t>['27', '45+1', '73']</t>
+  </si>
 </sst>
 </file>
 
@@ -1554,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1825,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2100,7 +2112,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2225,7 +2237,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2431,7 +2443,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2512,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2715,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2843,7 +2855,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2924,7 +2936,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3049,7 +3061,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3255,7 +3267,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3333,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ9">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3461,7 +3473,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3539,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ10">
         <v>2.13</v>
@@ -3667,7 +3679,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3954,7 +3966,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4079,7 +4091,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4157,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -4285,7 +4297,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4903,7 +4915,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5109,7 +5121,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5521,7 +5533,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5727,7 +5739,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5808,7 +5820,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ21">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>0.73</v>
@@ -6139,7 +6151,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6345,7 +6357,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6423,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ24">
         <v>1.4</v>
@@ -6632,7 +6644,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ25">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR25">
         <v>1.36</v>
@@ -6963,7 +6975,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7041,10 +7053,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>2.48</v>
@@ -7250,7 +7262,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR28">
         <v>1.77</v>
@@ -8074,7 +8086,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR32">
         <v>2.86</v>
@@ -8199,7 +8211,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8405,7 +8417,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8483,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8817,7 +8829,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9023,7 +9035,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9101,7 +9113,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -9229,7 +9241,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9310,7 +9322,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9513,7 +9525,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
         <v>0.9399999999999999</v>
@@ -9847,7 +9859,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10259,7 +10271,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10465,7 +10477,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10546,7 +10558,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ44">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR44">
         <v>1.13</v>
@@ -10955,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ46">
         <v>0.63</v>
@@ -11367,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
         <v>0.9399999999999999</v>
@@ -11495,7 +11507,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11576,7 +11588,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11782,7 +11794,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11988,7 +12000,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -12113,7 +12125,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12191,7 +12203,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ52">
         <v>0.73</v>
@@ -12319,7 +12331,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12525,7 +12537,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12937,7 +12949,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13224,7 +13236,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ57">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13349,7 +13361,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13430,7 +13442,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ58">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.52</v>
@@ -13555,7 +13567,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13633,7 +13645,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ59">
         <v>0.9399999999999999</v>
@@ -13761,7 +13773,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -14173,7 +14185,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14379,7 +14391,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14457,7 +14469,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14791,7 +14803,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14869,7 +14881,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65">
         <v>0.75</v>
@@ -14997,7 +15009,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15075,10 +15087,10 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -15284,7 +15296,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ67">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15409,7 +15421,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15821,7 +15833,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -15902,7 +15914,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -16314,7 +16326,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -16645,7 +16657,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -17469,7 +17481,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17675,7 +17687,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17753,7 +17765,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79">
         <v>0.9399999999999999</v>
@@ -18087,7 +18099,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18168,7 +18180,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ81">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -18293,7 +18305,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18371,7 +18383,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ82">
         <v>2.25</v>
@@ -18499,7 +18511,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18705,7 +18717,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18783,7 +18795,7 @@
         <v>2.4</v>
       </c>
       <c r="AP84">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ84">
         <v>2.13</v>
@@ -18911,7 +18923,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -18992,7 +19004,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -19198,7 +19210,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR86">
         <v>1.83</v>
@@ -19401,10 +19413,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR87">
         <v>1.19</v>
@@ -19610,7 +19622,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ88">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19813,7 +19825,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
         <v>0.75</v>
@@ -19941,7 +19953,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -21177,7 +21189,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21258,7 +21270,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ96">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR96">
         <v>1.41</v>
@@ -21589,7 +21601,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21667,7 +21679,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ98">
         <v>0.9399999999999999</v>
@@ -22285,10 +22297,10 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ101">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
         <v>1.24</v>
@@ -22413,7 +22425,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22494,7 +22506,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ102">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR102">
         <v>1.32</v>
@@ -22697,7 +22709,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103">
         <v>0.73</v>
@@ -22825,7 +22837,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -22906,7 +22918,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ104">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.23</v>
@@ -23112,7 +23124,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ105">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR105">
         <v>1.16</v>
@@ -23237,7 +23249,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23521,7 +23533,7 @@
         <v>2.5</v>
       </c>
       <c r="AP107">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ107">
         <v>2.13</v>
@@ -23649,7 +23661,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23727,7 +23739,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ108">
         <v>1.38</v>
@@ -23936,7 +23948,7 @@
         <v>3</v>
       </c>
       <c r="AQ109">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -24061,7 +24073,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24679,7 +24691,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24885,7 +24897,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25297,7 +25309,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25709,7 +25721,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26199,10 +26211,10 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ120">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR120">
         <v>1.15</v>
@@ -26408,7 +26420,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ121">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -26533,7 +26545,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26611,10 +26623,10 @@
         <v>1.67</v>
       </c>
       <c r="AP122">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ122">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR122">
         <v>1.01</v>
@@ -26739,7 +26751,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26817,10 +26829,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ123">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR123">
         <v>1.11</v>
@@ -26945,7 +26957,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27023,7 +27035,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ124">
         <v>1.4</v>
@@ -27151,7 +27163,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27357,7 +27369,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27644,7 +27656,7 @@
         <v>3</v>
       </c>
       <c r="AQ127">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR127">
         <v>1.65</v>
@@ -28181,7 +28193,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -29211,7 +29223,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29417,7 +29429,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29907,10 +29919,10 @@
         <v>2.25</v>
       </c>
       <c r="AP138">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ138">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR138">
         <v>1.03</v>
@@ -30116,7 +30128,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ139">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR139">
         <v>1.23</v>
@@ -30322,7 +30334,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ140">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR140">
         <v>0.99</v>
@@ -30447,7 +30459,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30653,7 +30665,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30734,7 +30746,7 @@
         <v>2</v>
       </c>
       <c r="AQ142">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR142">
         <v>1.87</v>
@@ -30937,10 +30949,10 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ143">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR143">
         <v>1.17</v>
@@ -31065,7 +31077,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31271,7 +31283,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31349,7 +31361,7 @@
         <v>1.38</v>
       </c>
       <c r="AP145">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ145">
         <v>1.4</v>
@@ -31683,7 +31695,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31889,7 +31901,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31967,7 +31979,7 @@
         <v>1.86</v>
       </c>
       <c r="AP148">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ148">
         <v>2.25</v>
@@ -32095,7 +32107,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32713,7 +32725,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -33331,7 +33343,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33537,7 +33549,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33949,7 +33961,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34155,7 +34167,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34567,7 +34579,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34648,7 +34660,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ161">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34851,7 +34863,7 @@
         <v>0.38</v>
       </c>
       <c r="AP162">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ162">
         <v>0.63</v>
@@ -35185,7 +35197,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35263,10 +35275,10 @@
         <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ164">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR164">
         <v>0.98</v>
@@ -35469,7 +35481,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ165">
         <v>0.9399999999999999</v>
@@ -35597,7 +35609,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35678,7 +35690,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ166">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR166">
         <v>1.25</v>
@@ -35884,7 +35896,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ167">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -36090,7 +36102,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ168">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR168">
         <v>1.11</v>
@@ -36215,7 +36227,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36705,7 +36717,7 @@
         <v>0.44</v>
       </c>
       <c r="AP171">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ171">
         <v>0.53</v>
@@ -37039,7 +37051,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37529,7 +37541,7 @@
         <v>1.11</v>
       </c>
       <c r="AP175">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ175">
         <v>0.9399999999999999</v>
@@ -37657,7 +37669,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -37738,7 +37750,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ176">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR176">
         <v>1.46</v>
@@ -37944,7 +37956,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ177">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR177">
         <v>2.27</v>
@@ -38768,7 +38780,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ181">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR181">
         <v>1.01</v>
@@ -38893,7 +38905,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39177,7 +39189,7 @@
         <v>0.5</v>
       </c>
       <c r="AP183">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183">
         <v>0.63</v>
@@ -39305,7 +39317,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39383,7 +39395,7 @@
         <v>0.5</v>
       </c>
       <c r="AP184">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ184">
         <v>0.53</v>
@@ -39589,7 +39601,7 @@
         <v>1.4</v>
       </c>
       <c r="AP185">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ185">
         <v>1.4</v>
@@ -39923,7 +39935,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40129,7 +40141,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40210,7 +40222,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ188">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR188">
         <v>1.35</v>
@@ -40416,7 +40428,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ189">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR189">
         <v>1.09</v>
@@ -40825,7 +40837,7 @@
         <v>1.1</v>
       </c>
       <c r="AP191">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ191">
         <v>0.75</v>
@@ -40953,7 +40965,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41034,7 +41046,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ192">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR192">
         <v>1.15</v>
@@ -41652,7 +41664,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ195">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR195">
         <v>2.17</v>
@@ -41777,7 +41789,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -41858,7 +41870,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ196">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR196">
         <v>1.28</v>
@@ -42189,7 +42201,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42267,7 +42279,7 @@
         <v>2.11</v>
       </c>
       <c r="AP198">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ198">
         <v>2.25</v>
@@ -42395,7 +42407,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -43013,7 +43025,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43219,7 +43231,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43506,7 +43518,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ204">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR204">
         <v>2.06</v>
@@ -43712,7 +43724,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ205">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR205">
         <v>1.16</v>
@@ -43837,7 +43849,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43915,7 +43927,7 @@
         <v>2.2</v>
       </c>
       <c r="AP206">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ206">
         <v>2.25</v>
@@ -44043,7 +44055,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44121,7 +44133,7 @@
         <v>2</v>
       </c>
       <c r="AP207">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ207">
         <v>2</v>
@@ -44249,7 +44261,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44327,7 +44339,7 @@
         <v>1.27</v>
       </c>
       <c r="AP208">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ208">
         <v>1.38</v>
@@ -44533,7 +44545,7 @@
         <v>0.45</v>
       </c>
       <c r="AP209">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ209">
         <v>0.63</v>
@@ -44661,7 +44673,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -44742,7 +44754,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ210">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR210">
         <v>1.26</v>
@@ -45154,7 +45166,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ212">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR212">
         <v>1.11</v>
@@ -45360,7 +45372,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ213">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -45485,7 +45497,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -46103,7 +46115,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46184,7 +46196,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ217">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR217">
         <v>1.18</v>
@@ -46799,7 +46811,7 @@
         <v>2.08</v>
       </c>
       <c r="AP220">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ220">
         <v>2</v>
@@ -47005,7 +47017,7 @@
         <v>1.75</v>
       </c>
       <c r="AP221">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ221">
         <v>1.5</v>
@@ -47339,7 +47351,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47545,7 +47557,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -48038,7 +48050,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ226">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR226">
         <v>1.26</v>
@@ -48369,7 +48381,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48656,7 +48668,7 @@
         <v>2</v>
       </c>
       <c r="AQ229">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR229">
         <v>1.86</v>
@@ -48862,7 +48874,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ230">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR230">
         <v>1.86</v>
@@ -49065,7 +49077,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ231">
         <v>1.38</v>
@@ -49193,7 +49205,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49271,10 +49283,10 @@
         <v>1.58</v>
       </c>
       <c r="AP232">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ232">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR232">
         <v>1.18</v>
@@ -49605,7 +49617,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49811,7 +49823,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50223,7 +50235,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -50919,7 +50931,7 @@
         <v>0.54</v>
       </c>
       <c r="AP240">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ240">
         <v>0.63</v>
@@ -51128,7 +51140,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ241">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR241">
         <v>1.23</v>
@@ -51253,7 +51265,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51459,7 +51471,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51871,7 +51883,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -51952,7 +51964,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ245">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR245">
         <v>1.34</v>
@@ -52155,10 +52167,10 @@
         <v>0.54</v>
       </c>
       <c r="AP246">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ246">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR246">
         <v>1.1</v>
@@ -52283,7 +52295,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52489,7 +52501,7 @@
         <v>249</v>
       </c>
       <c r="P248" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -52695,7 +52707,7 @@
         <v>250</v>
       </c>
       <c r="P249" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -52773,10 +52785,10 @@
         <v>0.77</v>
       </c>
       <c r="AP249">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ249">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR249">
         <v>1.15</v>
@@ -52901,7 +52913,7 @@
         <v>251</v>
       </c>
       <c r="P250" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -52979,7 +52991,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ250">
         <v>0.73</v>
@@ -53107,7 +53119,7 @@
         <v>147</v>
       </c>
       <c r="P251" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -53188,7 +53200,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ251">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR251">
         <v>1.93</v>
@@ -53519,7 +53531,7 @@
         <v>90</v>
       </c>
       <c r="P253" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -53931,7 +53943,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -54343,7 +54355,7 @@
         <v>254</v>
       </c>
       <c r="P257" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -54549,7 +54561,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -54755,7 +54767,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -55167,7 +55179,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -55373,7 +55385,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55579,7 +55591,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -55657,7 +55669,7 @@
         <v>1.43</v>
       </c>
       <c r="AP263">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ263">
         <v>1.38</v>
@@ -55863,10 +55875,10 @@
         <v>0.5</v>
       </c>
       <c r="AP264">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ264">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR264">
         <v>1.11</v>
@@ -55991,7 +56003,7 @@
         <v>213</v>
       </c>
       <c r="P265" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -56069,7 +56081,7 @@
         <v>0.71</v>
       </c>
       <c r="AP265">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ265">
         <v>0.73</v>
@@ -56197,7 +56209,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -56278,7 +56290,7 @@
         <v>2</v>
       </c>
       <c r="AQ266">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR266">
         <v>1.85</v>
@@ -56403,7 +56415,7 @@
         <v>260</v>
       </c>
       <c r="P267" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q267">
         <v>0</v>
@@ -56481,7 +56493,7 @@
         <v>0.5</v>
       </c>
       <c r="AP267">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ267">
         <v>0.53</v>
@@ -56609,7 +56621,7 @@
         <v>261</v>
       </c>
       <c r="P268" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q268">
         <v>0</v>
@@ -56690,7 +56702,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ268">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR268">
         <v>1.31</v>
@@ -56815,7 +56827,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q269">
         <v>0</v>
@@ -56896,7 +56908,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ269">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR269">
         <v>1.13</v>
@@ -57102,7 +57114,7 @@
         <v>3</v>
       </c>
       <c r="AQ270">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR270">
         <v>1.54</v>
@@ -57227,7 +57239,7 @@
         <v>242</v>
       </c>
       <c r="P271" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q271">
         <v>0</v>
@@ -57433,7 +57445,7 @@
         <v>264</v>
       </c>
       <c r="P272" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q272">
         <v>0</v>
@@ -57639,7 +57651,7 @@
         <v>265</v>
       </c>
       <c r="P273" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57845,7 +57857,7 @@
         <v>262</v>
       </c>
       <c r="P274" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q274">
         <v>0</v>
@@ -58463,7 +58475,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q277">
         <v>0</v>
@@ -58875,7 +58887,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q279">
         <v>0</v>
@@ -59081,7 +59093,7 @@
         <v>90</v>
       </c>
       <c r="P280" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -59237,6 +59249,1036 @@
         <v>0</v>
       </c>
       <c r="BP280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7025223</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45415.67708333334</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>77</v>
+      </c>
+      <c r="H281" t="s">
+        <v>86</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
+        <v>242</v>
+      </c>
+      <c r="P281" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>0</v>
+      </c>
+      <c r="S281">
+        <v>0</v>
+      </c>
+      <c r="T281">
+        <v>0</v>
+      </c>
+      <c r="U281">
+        <v>0</v>
+      </c>
+      <c r="V281">
+        <v>0</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>2.08</v>
+      </c>
+      <c r="AA281">
+        <v>3.1</v>
+      </c>
+      <c r="AB281">
+        <v>3.3</v>
+      </c>
+      <c r="AC281">
+        <v>0</v>
+      </c>
+      <c r="AD281">
+        <v>0</v>
+      </c>
+      <c r="AE281">
+        <v>0</v>
+      </c>
+      <c r="AF281">
+        <v>0</v>
+      </c>
+      <c r="AG281">
+        <v>2.1</v>
+      </c>
+      <c r="AH281">
+        <v>1.65</v>
+      </c>
+      <c r="AI281">
+        <v>0</v>
+      </c>
+      <c r="AJ281">
+        <v>0</v>
+      </c>
+      <c r="AK281">
+        <v>0</v>
+      </c>
+      <c r="AL281">
+        <v>0</v>
+      </c>
+      <c r="AM281">
+        <v>0</v>
+      </c>
+      <c r="AN281">
+        <v>1.47</v>
+      </c>
+      <c r="AO281">
+        <v>0.73</v>
+      </c>
+      <c r="AP281">
+        <v>1.56</v>
+      </c>
+      <c r="AQ281">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR281">
+        <v>1.14</v>
+      </c>
+      <c r="AS281">
+        <v>1.04</v>
+      </c>
+      <c r="AT281">
+        <v>2.18</v>
+      </c>
+      <c r="AU281">
+        <v>5</v>
+      </c>
+      <c r="AV281">
+        <v>3</v>
+      </c>
+      <c r="AW281">
+        <v>5</v>
+      </c>
+      <c r="AX281">
+        <v>4</v>
+      </c>
+      <c r="AY281">
+        <v>10</v>
+      </c>
+      <c r="AZ281">
+        <v>7</v>
+      </c>
+      <c r="BA281">
+        <v>4</v>
+      </c>
+      <c r="BB281">
+        <v>5</v>
+      </c>
+      <c r="BC281">
+        <v>9</v>
+      </c>
+      <c r="BD281">
+        <v>0</v>
+      </c>
+      <c r="BE281">
+        <v>0</v>
+      </c>
+      <c r="BF281">
+        <v>0</v>
+      </c>
+      <c r="BG281">
+        <v>0</v>
+      </c>
+      <c r="BH281">
+        <v>0</v>
+      </c>
+      <c r="BI281">
+        <v>0</v>
+      </c>
+      <c r="BJ281">
+        <v>0</v>
+      </c>
+      <c r="BK281">
+        <v>0</v>
+      </c>
+      <c r="BL281">
+        <v>0</v>
+      </c>
+      <c r="BM281">
+        <v>0</v>
+      </c>
+      <c r="BN281">
+        <v>0</v>
+      </c>
+      <c r="BO281">
+        <v>0</v>
+      </c>
+      <c r="BP281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7025227</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45416.47916666666</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>74</v>
+      </c>
+      <c r="H282" t="s">
+        <v>80</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>268</v>
+      </c>
+      <c r="P282" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <v>0</v>
+      </c>
+      <c r="S282">
+        <v>0</v>
+      </c>
+      <c r="T282">
+        <v>0</v>
+      </c>
+      <c r="U282">
+        <v>0</v>
+      </c>
+      <c r="V282">
+        <v>0</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>0</v>
+      </c>
+      <c r="Z282">
+        <v>2.8</v>
+      </c>
+      <c r="AA282">
+        <v>3.1</v>
+      </c>
+      <c r="AB282">
+        <v>2.6</v>
+      </c>
+      <c r="AC282">
+        <v>0</v>
+      </c>
+      <c r="AD282">
+        <v>0</v>
+      </c>
+      <c r="AE282">
+        <v>0</v>
+      </c>
+      <c r="AF282">
+        <v>0</v>
+      </c>
+      <c r="AG282">
+        <v>2.15</v>
+      </c>
+      <c r="AH282">
+        <v>1.61</v>
+      </c>
+      <c r="AI282">
+        <v>0</v>
+      </c>
+      <c r="AJ282">
+        <v>0</v>
+      </c>
+      <c r="AK282">
+        <v>0</v>
+      </c>
+      <c r="AL282">
+        <v>0</v>
+      </c>
+      <c r="AM282">
+        <v>0</v>
+      </c>
+      <c r="AN282">
+        <v>1.47</v>
+      </c>
+      <c r="AO282">
+        <v>1.67</v>
+      </c>
+      <c r="AP282">
+        <v>1.56</v>
+      </c>
+      <c r="AQ282">
+        <v>1.56</v>
+      </c>
+      <c r="AR282">
+        <v>1.09</v>
+      </c>
+      <c r="AS282">
+        <v>1.21</v>
+      </c>
+      <c r="AT282">
+        <v>2.3</v>
+      </c>
+      <c r="AU282">
+        <v>2</v>
+      </c>
+      <c r="AV282">
+        <v>2</v>
+      </c>
+      <c r="AW282">
+        <v>2</v>
+      </c>
+      <c r="AX282">
+        <v>1</v>
+      </c>
+      <c r="AY282">
+        <v>4</v>
+      </c>
+      <c r="AZ282">
+        <v>3</v>
+      </c>
+      <c r="BA282">
+        <v>4</v>
+      </c>
+      <c r="BB282">
+        <v>0</v>
+      </c>
+      <c r="BC282">
+        <v>4</v>
+      </c>
+      <c r="BD282">
+        <v>0</v>
+      </c>
+      <c r="BE282">
+        <v>0</v>
+      </c>
+      <c r="BF282">
+        <v>0</v>
+      </c>
+      <c r="BG282">
+        <v>0</v>
+      </c>
+      <c r="BH282">
+        <v>0</v>
+      </c>
+      <c r="BI282">
+        <v>0</v>
+      </c>
+      <c r="BJ282">
+        <v>0</v>
+      </c>
+      <c r="BK282">
+        <v>0</v>
+      </c>
+      <c r="BL282">
+        <v>0</v>
+      </c>
+      <c r="BM282">
+        <v>0</v>
+      </c>
+      <c r="BN282">
+        <v>0</v>
+      </c>
+      <c r="BO282">
+        <v>0</v>
+      </c>
+      <c r="BP282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7025222</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45416.47916666666</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>78</v>
+      </c>
+      <c r="H283" t="s">
+        <v>71</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>2</v>
+      </c>
+      <c r="O283" t="s">
+        <v>269</v>
+      </c>
+      <c r="P283" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>0</v>
+      </c>
+      <c r="S283">
+        <v>0</v>
+      </c>
+      <c r="T283">
+        <v>0</v>
+      </c>
+      <c r="U283">
+        <v>0</v>
+      </c>
+      <c r="V283">
+        <v>0</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>2.62</v>
+      </c>
+      <c r="AA283">
+        <v>3.2</v>
+      </c>
+      <c r="AB283">
+        <v>2.7</v>
+      </c>
+      <c r="AC283">
+        <v>0</v>
+      </c>
+      <c r="AD283">
+        <v>0</v>
+      </c>
+      <c r="AE283">
+        <v>0</v>
+      </c>
+      <c r="AF283">
+        <v>0</v>
+      </c>
+      <c r="AG283">
+        <v>1.91</v>
+      </c>
+      <c r="AH283">
+        <v>1.8</v>
+      </c>
+      <c r="AI283">
+        <v>0</v>
+      </c>
+      <c r="AJ283">
+        <v>0</v>
+      </c>
+      <c r="AK283">
+        <v>0</v>
+      </c>
+      <c r="AL283">
+        <v>0</v>
+      </c>
+      <c r="AM283">
+        <v>0</v>
+      </c>
+      <c r="AN283">
+        <v>1.2</v>
+      </c>
+      <c r="AO283">
+        <v>0.67</v>
+      </c>
+      <c r="AP283">
+        <v>1.19</v>
+      </c>
+      <c r="AQ283">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR283">
+        <v>1.05</v>
+      </c>
+      <c r="AS283">
+        <v>1.08</v>
+      </c>
+      <c r="AT283">
+        <v>2.13</v>
+      </c>
+      <c r="AU283">
+        <v>2</v>
+      </c>
+      <c r="AV283">
+        <v>3</v>
+      </c>
+      <c r="AW283">
+        <v>1</v>
+      </c>
+      <c r="AX283">
+        <v>0</v>
+      </c>
+      <c r="AY283">
+        <v>3</v>
+      </c>
+      <c r="AZ283">
+        <v>3</v>
+      </c>
+      <c r="BA283">
+        <v>0</v>
+      </c>
+      <c r="BB283">
+        <v>2</v>
+      </c>
+      <c r="BC283">
+        <v>2</v>
+      </c>
+      <c r="BD283">
+        <v>0</v>
+      </c>
+      <c r="BE283">
+        <v>0</v>
+      </c>
+      <c r="BF283">
+        <v>0</v>
+      </c>
+      <c r="BG283">
+        <v>0</v>
+      </c>
+      <c r="BH283">
+        <v>0</v>
+      </c>
+      <c r="BI283">
+        <v>0</v>
+      </c>
+      <c r="BJ283">
+        <v>0</v>
+      </c>
+      <c r="BK283">
+        <v>0</v>
+      </c>
+      <c r="BL283">
+        <v>0</v>
+      </c>
+      <c r="BM283">
+        <v>0</v>
+      </c>
+      <c r="BN283">
+        <v>0</v>
+      </c>
+      <c r="BO283">
+        <v>0</v>
+      </c>
+      <c r="BP283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7025226</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45416.58333333334</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>73</v>
+      </c>
+      <c r="H284" t="s">
+        <v>82</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>3</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>3</v>
+      </c>
+      <c r="O284" t="s">
+        <v>270</v>
+      </c>
+      <c r="P284" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>0</v>
+      </c>
+      <c r="S284">
+        <v>0</v>
+      </c>
+      <c r="T284">
+        <v>0</v>
+      </c>
+      <c r="U284">
+        <v>0</v>
+      </c>
+      <c r="V284">
+        <v>0</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>1.05</v>
+      </c>
+      <c r="AA284">
+        <v>11.5</v>
+      </c>
+      <c r="AB284">
+        <v>17</v>
+      </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
+      <c r="AE284">
+        <v>0</v>
+      </c>
+      <c r="AF284">
+        <v>0</v>
+      </c>
+      <c r="AG284">
+        <v>1.22</v>
+      </c>
+      <c r="AH284">
+        <v>3.67</v>
+      </c>
+      <c r="AI284">
+        <v>0</v>
+      </c>
+      <c r="AJ284">
+        <v>0</v>
+      </c>
+      <c r="AK284">
+        <v>0</v>
+      </c>
+      <c r="AL284">
+        <v>0</v>
+      </c>
+      <c r="AM284">
+        <v>0</v>
+      </c>
+      <c r="AN284">
+        <v>3</v>
+      </c>
+      <c r="AO284">
+        <v>0.93</v>
+      </c>
+      <c r="AP284">
+        <v>3</v>
+      </c>
+      <c r="AQ284">
+        <v>0.88</v>
+      </c>
+      <c r="AR284">
+        <v>1.51</v>
+      </c>
+      <c r="AS284">
+        <v>1.06</v>
+      </c>
+      <c r="AT284">
+        <v>2.57</v>
+      </c>
+      <c r="AU284">
+        <v>8</v>
+      </c>
+      <c r="AV284">
+        <v>0</v>
+      </c>
+      <c r="AW284">
+        <v>3</v>
+      </c>
+      <c r="AX284">
+        <v>0</v>
+      </c>
+      <c r="AY284">
+        <v>11</v>
+      </c>
+      <c r="AZ284">
+        <v>0</v>
+      </c>
+      <c r="BA284">
+        <v>14</v>
+      </c>
+      <c r="BB284">
+        <v>1</v>
+      </c>
+      <c r="BC284">
+        <v>15</v>
+      </c>
+      <c r="BD284">
+        <v>0</v>
+      </c>
+      <c r="BE284">
+        <v>0</v>
+      </c>
+      <c r="BF284">
+        <v>0</v>
+      </c>
+      <c r="BG284">
+        <v>0</v>
+      </c>
+      <c r="BH284">
+        <v>0</v>
+      </c>
+      <c r="BI284">
+        <v>0</v>
+      </c>
+      <c r="BJ284">
+        <v>0</v>
+      </c>
+      <c r="BK284">
+        <v>0</v>
+      </c>
+      <c r="BL284">
+        <v>0</v>
+      </c>
+      <c r="BM284">
+        <v>0</v>
+      </c>
+      <c r="BN284">
+        <v>0</v>
+      </c>
+      <c r="BO284">
+        <v>0</v>
+      </c>
+      <c r="BP284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7025225</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45416.6875</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>81</v>
+      </c>
+      <c r="H285" t="s">
+        <v>85</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>2</v>
+      </c>
+      <c r="K285">
+        <v>2</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>3</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285" t="s">
+        <v>90</v>
+      </c>
+      <c r="P285" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>0</v>
+      </c>
+      <c r="S285">
+        <v>0</v>
+      </c>
+      <c r="T285">
+        <v>0</v>
+      </c>
+      <c r="U285">
+        <v>0</v>
+      </c>
+      <c r="V285">
+        <v>0</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>8.5</v>
+      </c>
+      <c r="AA285">
+        <v>5.4</v>
+      </c>
+      <c r="AB285">
+        <v>1.26</v>
+      </c>
+      <c r="AC285">
+        <v>0</v>
+      </c>
+      <c r="AD285">
+        <v>0</v>
+      </c>
+      <c r="AE285">
+        <v>0</v>
+      </c>
+      <c r="AF285">
+        <v>0</v>
+      </c>
+      <c r="AG285">
+        <v>1.56</v>
+      </c>
+      <c r="AH285">
+        <v>2.33</v>
+      </c>
+      <c r="AI285">
+        <v>0</v>
+      </c>
+      <c r="AJ285">
+        <v>0</v>
+      </c>
+      <c r="AK285">
+        <v>0</v>
+      </c>
+      <c r="AL285">
+        <v>0</v>
+      </c>
+      <c r="AM285">
+        <v>0</v>
+      </c>
+      <c r="AN285">
+        <v>0.87</v>
+      </c>
+      <c r="AO285">
+        <v>1.93</v>
+      </c>
+      <c r="AP285">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ285">
+        <v>2</v>
+      </c>
+      <c r="AR285">
+        <v>1.13</v>
+      </c>
+      <c r="AS285">
+        <v>1.3</v>
+      </c>
+      <c r="AT285">
+        <v>2.43</v>
+      </c>
+      <c r="AU285">
+        <v>0</v>
+      </c>
+      <c r="AV285">
+        <v>0</v>
+      </c>
+      <c r="AW285">
+        <v>0</v>
+      </c>
+      <c r="AX285">
+        <v>6</v>
+      </c>
+      <c r="AY285">
+        <v>0</v>
+      </c>
+      <c r="AZ285">
+        <v>6</v>
+      </c>
+      <c r="BA285">
+        <v>2</v>
+      </c>
+      <c r="BB285">
+        <v>2</v>
+      </c>
+      <c r="BC285">
+        <v>4</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -59601,28 +59601,28 @@
         <v>2</v>
       </c>
       <c r="AV282">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ282">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB282">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC282">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BD282">
         <v>0</v>
@@ -59804,31 +59804,31 @@
         <v>2.13</v>
       </c>
       <c r="AU283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV283">
+        <v>5</v>
+      </c>
+      <c r="AW283">
         <v>3</v>
       </c>
-      <c r="AW283">
-        <v>1</v>
-      </c>
       <c r="AX283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY283">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ283">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC283">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BD283">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="401">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,12 @@
     <t>['13', '70', '90+2']</t>
   </si>
   <si>
+    <t>['36', '45', '65']</t>
+  </si>
+  <si>
+    <t>['12', '60', '64', '88']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1206,6 +1212,12 @@
   <si>
     <t>['27', '45+1', '73']</t>
   </si>
+  <si>
+    <t>['45+2', '52']</t>
+  </si>
+  <si>
+    <t>['35', '51', '72']</t>
+  </si>
 </sst>
 </file>
 
@@ -1566,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1825,7 +1837,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1903,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ2">
         <v>0.9399999999999999</v>
@@ -2237,7 +2249,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2315,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2443,7 +2455,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2855,7 +2867,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3061,7 +3073,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3139,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3267,7 +3279,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3473,7 +3485,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3554,7 +3566,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ10">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3679,7 +3691,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4091,7 +4103,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4297,7 +4309,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4584,7 +4596,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ15">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4915,7 +4927,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5121,7 +5133,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5405,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5533,7 +5545,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5614,7 +5626,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5739,7 +5751,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5817,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -6023,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
         <v>0.63</v>
@@ -6151,7 +6163,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6232,7 +6244,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ23">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>0.57</v>
@@ -6357,7 +6369,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6438,7 +6450,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR24">
         <v>0.57</v>
@@ -6975,7 +6987,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7674,7 +7686,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7877,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>0.9399999999999999</v>
@@ -8211,7 +8223,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8417,7 +8429,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8829,7 +8841,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8907,7 +8919,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ36">
         <v>2.25</v>
@@ -9035,7 +9047,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9241,7 +9253,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9731,7 +9743,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9859,7 +9871,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -9940,7 +9952,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ41">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -10143,10 +10155,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10271,7 +10283,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10352,7 +10364,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ43">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>0.9399999999999999</v>
@@ -10477,7 +10489,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -11173,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>1.38</v>
@@ -11507,7 +11519,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -12125,7 +12137,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12206,7 +12218,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ52">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.44</v>
@@ -12331,7 +12343,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12412,7 +12424,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -12537,7 +12549,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12615,7 +12627,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ54">
         <v>0.75</v>
@@ -12949,7 +12961,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13361,7 +13373,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13567,7 +13579,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13773,7 +13785,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13851,7 +13863,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
         <v>2.25</v>
@@ -14057,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>0.63</v>
@@ -14185,7 +14197,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14266,7 +14278,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ62">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>1.27</v>
@@ -14391,7 +14403,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14678,7 +14690,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR64">
         <v>0.96</v>
@@ -14803,7 +14815,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -15009,7 +15021,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15293,7 +15305,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
         <v>0.6899999999999999</v>
@@ -15421,7 +15433,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15499,7 +15511,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ68">
         <v>0.63</v>
@@ -15708,7 +15720,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR69">
         <v>1.28</v>
@@ -15833,7 +15845,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -15911,7 +15923,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>1.56</v>
@@ -16120,7 +16132,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ71">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -16657,7 +16669,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -16735,7 +16747,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16944,7 +16956,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ75">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -17150,7 +17162,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR76">
         <v>2.21</v>
@@ -17481,7 +17493,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17687,7 +17699,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -18099,7 +18111,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18305,7 +18317,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18511,7 +18523,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18592,7 +18604,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ83">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>2.11</v>
@@ -18717,7 +18729,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18798,7 +18810,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ84">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.39</v>
@@ -18923,7 +18935,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19001,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>0.6899999999999999</v>
@@ -19207,7 +19219,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ86">
         <v>0.88</v>
@@ -19953,7 +19965,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20034,7 +20046,7 @@
         <v>3</v>
       </c>
       <c r="AQ90">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR90">
         <v>1.66</v>
@@ -20237,7 +20249,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>1.38</v>
@@ -20446,7 +20458,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ92">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -21189,7 +21201,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21601,7 +21613,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21885,7 +21897,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>2</v>
@@ -22425,7 +22437,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22503,7 +22515,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
         <v>1.56</v>
@@ -22712,7 +22724,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR103">
         <v>1.12</v>
@@ -22837,7 +22849,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -22915,7 +22927,7 @@
         <v>2.5</v>
       </c>
       <c r="AP104">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
         <v>2</v>
@@ -23249,7 +23261,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23327,10 +23339,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ106">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR106">
         <v>1.85</v>
@@ -23536,7 +23548,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR107">
         <v>1.15</v>
@@ -23661,7 +23673,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -24073,7 +24085,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24691,7 +24703,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24897,7 +24909,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -24978,7 +24990,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ114">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR114">
         <v>2.14</v>
@@ -25309,7 +25321,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25387,7 +25399,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>0.63</v>
@@ -25721,7 +25733,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26005,10 +26017,10 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR119">
         <v>1.26</v>
@@ -26417,7 +26429,7 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
         <v>0.6899999999999999</v>
@@ -26545,7 +26557,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26751,7 +26763,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26957,7 +26969,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27038,7 +27050,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ124">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -27163,7 +27175,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27241,10 +27253,10 @@
         <v>0.43</v>
       </c>
       <c r="AP125">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.27</v>
@@ -27369,7 +27381,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27447,10 +27459,10 @@
         <v>2.29</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ126">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR126">
         <v>1.81</v>
@@ -28193,7 +28205,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -29223,7 +29235,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29429,7 +29441,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29716,7 +29728,7 @@
         <v>3</v>
       </c>
       <c r="AQ137">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR137">
         <v>1.61</v>
@@ -30125,7 +30137,7 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ139">
         <v>0.6899999999999999</v>
@@ -30459,7 +30471,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30537,10 +30549,10 @@
         <v>2.38</v>
       </c>
       <c r="AP141">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ141">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR141">
         <v>1.37</v>
@@ -30665,7 +30677,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30743,7 +30755,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ142">
         <v>1.56</v>
@@ -31077,7 +31089,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31155,7 +31167,7 @@
         <v>0.38</v>
       </c>
       <c r="AP144">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144">
         <v>0.63</v>
@@ -31283,7 +31295,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31364,7 +31376,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ145">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR145">
         <v>1.11</v>
@@ -31695,7 +31707,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31901,7 +31913,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -32107,7 +32119,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32394,7 +32406,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ150">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR150">
         <v>1.14</v>
@@ -32725,7 +32737,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -33343,7 +33355,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33421,7 +33433,7 @@
         <v>2.11</v>
       </c>
       <c r="AP155">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
         <v>2</v>
@@ -33549,7 +33561,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33961,7 +33973,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34167,7 +34179,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34579,7 +34591,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -35072,7 +35084,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ163">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR163">
         <v>1.36</v>
@@ -35197,7 +35209,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35609,7 +35621,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35687,7 +35699,7 @@
         <v>2.11</v>
       </c>
       <c r="AP166">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ166">
         <v>2</v>
@@ -35893,7 +35905,7 @@
         <v>0.88</v>
       </c>
       <c r="AP167">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
         <v>0.6899999999999999</v>
@@ -36227,7 +36239,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36308,7 +36320,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ169">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR169">
         <v>0.99</v>
@@ -36514,7 +36526,7 @@
         <v>3</v>
       </c>
       <c r="AQ170">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR170">
         <v>1.61</v>
@@ -36720,7 +36732,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ171">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
         <v>1.16</v>
@@ -36923,7 +36935,7 @@
         <v>0.44</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ172">
         <v>0.63</v>
@@ -37051,7 +37063,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37669,7 +37681,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -38162,7 +38174,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ178">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR178">
         <v>1.28</v>
@@ -38365,7 +38377,7 @@
         <v>1.8</v>
       </c>
       <c r="AP179">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ179">
         <v>1.5</v>
@@ -38905,7 +38917,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -38983,7 +38995,7 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ182">
         <v>0.9399999999999999</v>
@@ -39317,7 +39329,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39398,7 +39410,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ184">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR184">
         <v>1.07</v>
@@ -39604,7 +39616,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ185">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR185">
         <v>1.14</v>
@@ -39935,7 +39947,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40016,7 +40028,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ187">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR187">
         <v>1.36</v>
@@ -40141,7 +40153,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40219,7 +40231,7 @@
         <v>2.2</v>
       </c>
       <c r="AP188">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188">
         <v>2</v>
@@ -40631,7 +40643,7 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190">
         <v>0.63</v>
@@ -40965,7 +40977,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41252,7 +41264,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ193">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR193">
         <v>1.92</v>
@@ -41789,7 +41801,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -42073,7 +42085,7 @@
         <v>1.1</v>
       </c>
       <c r="AP197">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ197">
         <v>0.9399999999999999</v>
@@ -42201,7 +42213,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42407,7 +42419,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42485,7 +42497,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ199">
         <v>0.9399999999999999</v>
@@ -42691,7 +42703,7 @@
         <v>1.64</v>
       </c>
       <c r="AP200">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ200">
         <v>1.5</v>
@@ -43025,7 +43037,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43106,7 +43118,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ202">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR202">
         <v>1.35</v>
@@ -43231,7 +43243,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43312,7 +43324,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ203">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR203">
         <v>1.42</v>
@@ -43849,7 +43861,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -44055,7 +44067,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44261,7 +44273,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44673,7 +44685,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -44957,10 +44969,10 @@
         <v>0.73</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ211">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR211">
         <v>1.86</v>
@@ -45497,7 +45509,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45784,7 +45796,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ215">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR215">
         <v>1.91</v>
@@ -45987,7 +45999,7 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ216">
         <v>0.75</v>
@@ -46115,7 +46127,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46402,7 +46414,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ218">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR218">
         <v>1.05</v>
@@ -47351,7 +47363,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47429,7 +47441,7 @@
         <v>2.09</v>
       </c>
       <c r="AP223">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ223">
         <v>2.25</v>
@@ -47557,7 +47569,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -47638,7 +47650,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ224">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR224">
         <v>2.07</v>
@@ -48253,10 +48265,10 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ227">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR227">
         <v>1.35</v>
@@ -48381,7 +48393,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48459,7 +48471,7 @@
         <v>0.5</v>
       </c>
       <c r="AP228">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ228">
         <v>0.63</v>
@@ -48665,7 +48677,7 @@
         <v>0.58</v>
       </c>
       <c r="AP229">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ229">
         <v>0.6899999999999999</v>
@@ -49205,7 +49217,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49492,7 +49504,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ233">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR233">
         <v>1.12</v>
@@ -49617,7 +49629,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49823,7 +49835,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50235,7 +50247,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -50725,7 +50737,7 @@
         <v>0.85</v>
       </c>
       <c r="AP239">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ239">
         <v>0.9399999999999999</v>
@@ -51265,7 +51277,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51346,7 +51358,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ242">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR242">
         <v>1.39</v>
@@ -51471,7 +51483,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51755,7 +51767,7 @@
         <v>0.92</v>
       </c>
       <c r="AP244">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ244">
         <v>0.75</v>
@@ -51883,7 +51895,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -51961,7 +51973,7 @@
         <v>0.85</v>
       </c>
       <c r="AP245">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ245">
         <v>0.6899999999999999</v>
@@ -52295,7 +52307,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52373,7 +52385,7 @@
         <v>1.31</v>
       </c>
       <c r="AP247">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ247">
         <v>1.38</v>
@@ -52501,7 +52513,7 @@
         <v>249</v>
       </c>
       <c r="P248" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -52582,7 +52594,7 @@
         <v>3</v>
       </c>
       <c r="AQ248">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR248">
         <v>1.53</v>
@@ -52707,7 +52719,7 @@
         <v>250</v>
       </c>
       <c r="P249" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -52913,7 +52925,7 @@
         <v>251</v>
       </c>
       <c r="P250" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -52994,7 +53006,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ250">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR250">
         <v>1.13</v>
@@ -53119,7 +53131,7 @@
         <v>147</v>
       </c>
       <c r="P251" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -53406,7 +53418,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ252">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR252">
         <v>1.12</v>
@@ -53531,7 +53543,7 @@
         <v>90</v>
       </c>
       <c r="P253" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -53943,7 +53955,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -54355,7 +54367,7 @@
         <v>254</v>
       </c>
       <c r="P257" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -54561,7 +54573,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -54642,7 +54654,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ258">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR258">
         <v>1.15</v>
@@ -54767,7 +54779,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -54845,7 +54857,7 @@
         <v>0.86</v>
       </c>
       <c r="AP259">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ259">
         <v>0.75</v>
@@ -55179,7 +55191,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -55385,7 +55397,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55463,7 +55475,7 @@
         <v>2.29</v>
       </c>
       <c r="AP262">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ262">
         <v>2.25</v>
@@ -55591,7 +55603,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -56003,7 +56015,7 @@
         <v>213</v>
       </c>
       <c r="P265" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -56084,7 +56096,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ265">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR265">
         <v>1</v>
@@ -56209,7 +56221,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -56287,7 +56299,7 @@
         <v>0.79</v>
       </c>
       <c r="AP266">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ266">
         <v>0.6899999999999999</v>
@@ -56415,7 +56427,7 @@
         <v>260</v>
       </c>
       <c r="P267" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q267">
         <v>0</v>
@@ -56496,7 +56508,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ267">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR267">
         <v>1.13</v>
@@ -56621,7 +56633,7 @@
         <v>261</v>
       </c>
       <c r="P268" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q268">
         <v>0</v>
@@ -56699,7 +56711,7 @@
         <v>0.93</v>
       </c>
       <c r="AP268">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ268">
         <v>0.88</v>
@@ -56827,7 +56839,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q269">
         <v>0</v>
@@ -57239,7 +57251,7 @@
         <v>242</v>
       </c>
       <c r="P271" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q271">
         <v>0</v>
@@ -57317,10 +57329,10 @@
         <v>2.07</v>
       </c>
       <c r="AP271">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ271">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR271">
         <v>1.27</v>
@@ -57445,7 +57457,7 @@
         <v>264</v>
       </c>
       <c r="P272" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q272">
         <v>0</v>
@@ -57651,7 +57663,7 @@
         <v>265</v>
       </c>
       <c r="P273" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57857,7 +57869,7 @@
         <v>262</v>
       </c>
       <c r="P274" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q274">
         <v>0</v>
@@ -58475,7 +58487,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q277">
         <v>0</v>
@@ -58887,7 +58899,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q279">
         <v>0</v>
@@ -59093,7 +59105,7 @@
         <v>90</v>
       </c>
       <c r="P280" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -59616,13 +59628,13 @@
         <v>9</v>
       </c>
       <c r="BA282">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB282">
         <v>6</v>
       </c>
       <c r="BC282">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD282">
         <v>0</v>
@@ -60010,7 +60022,7 @@
         <v>2.57</v>
       </c>
       <c r="AU284">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV284">
         <v>0</v>
@@ -60019,22 +60031,22 @@
         <v>3</v>
       </c>
       <c r="AX284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY284">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA284">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB284">
         <v>1</v>
       </c>
       <c r="BC284">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD284">
         <v>0</v>
@@ -60123,7 +60135,7 @@
         <v>90</v>
       </c>
       <c r="P285" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q285">
         <v>0</v>
@@ -60222,63 +60234,887 @@
         <v>0</v>
       </c>
       <c r="AW285">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX285">
+        <v>7</v>
+      </c>
+      <c r="AY285">
+        <v>4</v>
+      </c>
+      <c r="AZ285">
+        <v>7</v>
+      </c>
+      <c r="BA285">
+        <v>2</v>
+      </c>
+      <c r="BB285">
+        <v>8</v>
+      </c>
+      <c r="BC285">
+        <v>10</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7025229</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45417.47916666666</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>72</v>
+      </c>
+      <c r="H286" t="s">
+        <v>84</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>3</v>
+      </c>
+      <c r="L286">
+        <v>3</v>
+      </c>
+      <c r="M286">
+        <v>2</v>
+      </c>
+      <c r="N286">
+        <v>5</v>
+      </c>
+      <c r="O286" t="s">
+        <v>271</v>
+      </c>
+      <c r="P286" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>0</v>
+      </c>
+      <c r="S286">
+        <v>0</v>
+      </c>
+      <c r="T286">
+        <v>0</v>
+      </c>
+      <c r="U286">
+        <v>0</v>
+      </c>
+      <c r="V286">
+        <v>0</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+      <c r="Z286">
+        <v>2.55</v>
+      </c>
+      <c r="AA286">
+        <v>3</v>
+      </c>
+      <c r="AB286">
+        <v>2.86</v>
+      </c>
+      <c r="AC286">
+        <v>0</v>
+      </c>
+      <c r="AD286">
+        <v>0</v>
+      </c>
+      <c r="AE286">
+        <v>0</v>
+      </c>
+      <c r="AF286">
+        <v>0</v>
+      </c>
+      <c r="AG286">
+        <v>1.8</v>
+      </c>
+      <c r="AH286">
+        <v>1.9</v>
+      </c>
+      <c r="AI286">
+        <v>0</v>
+      </c>
+      <c r="AJ286">
+        <v>0</v>
+      </c>
+      <c r="AK286">
+        <v>0</v>
+      </c>
+      <c r="AL286">
+        <v>0</v>
+      </c>
+      <c r="AM286">
+        <v>0</v>
+      </c>
+      <c r="AN286">
+        <v>1.27</v>
+      </c>
+      <c r="AO286">
+        <v>0.53</v>
+      </c>
+      <c r="AP286">
+        <v>1.38</v>
+      </c>
+      <c r="AQ286">
+        <v>0.5</v>
+      </c>
+      <c r="AR286">
+        <v>1.27</v>
+      </c>
+      <c r="AS286">
+        <v>1.21</v>
+      </c>
+      <c r="AT286">
+        <v>2.48</v>
+      </c>
+      <c r="AU286">
+        <v>3</v>
+      </c>
+      <c r="AV286">
+        <v>2</v>
+      </c>
+      <c r="AW286">
+        <v>5</v>
+      </c>
+      <c r="AX286">
+        <v>4</v>
+      </c>
+      <c r="AY286">
+        <v>8</v>
+      </c>
+      <c r="AZ286">
         <v>6</v>
       </c>
-      <c r="AY285">
-        <v>0</v>
-      </c>
-      <c r="AZ285">
+      <c r="BA286">
+        <v>3</v>
+      </c>
+      <c r="BB286">
+        <v>3</v>
+      </c>
+      <c r="BC286">
         <v>6</v>
       </c>
-      <c r="BA285">
-        <v>2</v>
-      </c>
-      <c r="BB285">
-        <v>2</v>
-      </c>
-      <c r="BC285">
+      <c r="BD286">
+        <v>0</v>
+      </c>
+      <c r="BE286">
+        <v>0</v>
+      </c>
+      <c r="BF286">
+        <v>0</v>
+      </c>
+      <c r="BG286">
+        <v>0</v>
+      </c>
+      <c r="BH286">
+        <v>0</v>
+      </c>
+      <c r="BI286">
+        <v>0</v>
+      </c>
+      <c r="BJ286">
+        <v>0</v>
+      </c>
+      <c r="BK286">
+        <v>0</v>
+      </c>
+      <c r="BL286">
+        <v>0</v>
+      </c>
+      <c r="BM286">
+        <v>0</v>
+      </c>
+      <c r="BN286">
+        <v>0</v>
+      </c>
+      <c r="BO286">
+        <v>0</v>
+      </c>
+      <c r="BP286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7025221</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45417.58333333334</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>76</v>
+      </c>
+      <c r="H287" t="s">
+        <v>75</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+      <c r="O287" t="s">
+        <v>90</v>
+      </c>
+      <c r="P287" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>0</v>
+      </c>
+      <c r="S287">
+        <v>0</v>
+      </c>
+      <c r="T287">
+        <v>0</v>
+      </c>
+      <c r="U287">
+        <v>0</v>
+      </c>
+      <c r="V287">
+        <v>0</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
+      <c r="Z287">
+        <v>2</v>
+      </c>
+      <c r="AA287">
+        <v>3.5</v>
+      </c>
+      <c r="AB287">
+        <v>3.4</v>
+      </c>
+      <c r="AC287">
+        <v>0</v>
+      </c>
+      <c r="AD287">
+        <v>0</v>
+      </c>
+      <c r="AE287">
+        <v>0</v>
+      </c>
+      <c r="AF287">
+        <v>0</v>
+      </c>
+      <c r="AG287">
+        <v>1.9</v>
+      </c>
+      <c r="AH287">
+        <v>1.94</v>
+      </c>
+      <c r="AI287">
+        <v>0</v>
+      </c>
+      <c r="AJ287">
+        <v>0</v>
+      </c>
+      <c r="AK287">
+        <v>0</v>
+      </c>
+      <c r="AL287">
+        <v>0</v>
+      </c>
+      <c r="AM287">
+        <v>0</v>
+      </c>
+      <c r="AN287">
+        <v>1.53</v>
+      </c>
+      <c r="AO287">
+        <v>0.73</v>
+      </c>
+      <c r="AP287">
+        <v>1.5</v>
+      </c>
+      <c r="AQ287">
+        <v>0.75</v>
+      </c>
+      <c r="AR287">
+        <v>1.35</v>
+      </c>
+      <c r="AS287">
+        <v>1.02</v>
+      </c>
+      <c r="AT287">
+        <v>2.37</v>
+      </c>
+      <c r="AU287">
+        <v>2</v>
+      </c>
+      <c r="AV287">
+        <v>2</v>
+      </c>
+      <c r="AW287">
+        <v>12</v>
+      </c>
+      <c r="AX287">
         <v>4</v>
       </c>
-      <c r="BD285">
-        <v>0</v>
-      </c>
-      <c r="BE285">
-        <v>0</v>
-      </c>
-      <c r="BF285">
-        <v>0</v>
-      </c>
-      <c r="BG285">
-        <v>0</v>
-      </c>
-      <c r="BH285">
-        <v>0</v>
-      </c>
-      <c r="BI285">
-        <v>0</v>
-      </c>
-      <c r="BJ285">
-        <v>0</v>
-      </c>
-      <c r="BK285">
-        <v>0</v>
-      </c>
-      <c r="BL285">
-        <v>0</v>
-      </c>
-      <c r="BM285">
-        <v>0</v>
-      </c>
-      <c r="BN285">
-        <v>0</v>
-      </c>
-      <c r="BO285">
-        <v>0</v>
-      </c>
-      <c r="BP285">
+      <c r="AY287">
+        <v>14</v>
+      </c>
+      <c r="AZ287">
+        <v>6</v>
+      </c>
+      <c r="BA287">
+        <v>6</v>
+      </c>
+      <c r="BB287">
+        <v>3</v>
+      </c>
+      <c r="BC287">
+        <v>9</v>
+      </c>
+      <c r="BD287">
+        <v>0</v>
+      </c>
+      <c r="BE287">
+        <v>0</v>
+      </c>
+      <c r="BF287">
+        <v>0</v>
+      </c>
+      <c r="BG287">
+        <v>0</v>
+      </c>
+      <c r="BH287">
+        <v>0</v>
+      </c>
+      <c r="BI287">
+        <v>0</v>
+      </c>
+      <c r="BJ287">
+        <v>0</v>
+      </c>
+      <c r="BK287">
+        <v>0</v>
+      </c>
+      <c r="BL287">
+        <v>0</v>
+      </c>
+      <c r="BM287">
+        <v>0</v>
+      </c>
+      <c r="BN287">
+        <v>0</v>
+      </c>
+      <c r="BO287">
+        <v>0</v>
+      </c>
+      <c r="BP287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7025224</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45417.58333333334</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>70</v>
+      </c>
+      <c r="H288" t="s">
+        <v>79</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>4</v>
+      </c>
+      <c r="M288">
+        <v>3</v>
+      </c>
+      <c r="N288">
+        <v>7</v>
+      </c>
+      <c r="O288" t="s">
+        <v>272</v>
+      </c>
+      <c r="P288" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>0</v>
+      </c>
+      <c r="S288">
+        <v>0</v>
+      </c>
+      <c r="T288">
+        <v>0</v>
+      </c>
+      <c r="U288">
+        <v>0</v>
+      </c>
+      <c r="V288">
+        <v>0</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>1.28</v>
+      </c>
+      <c r="AA288">
+        <v>5.5</v>
+      </c>
+      <c r="AB288">
+        <v>8.6</v>
+      </c>
+      <c r="AC288">
+        <v>0</v>
+      </c>
+      <c r="AD288">
+        <v>0</v>
+      </c>
+      <c r="AE288">
+        <v>0</v>
+      </c>
+      <c r="AF288">
+        <v>0</v>
+      </c>
+      <c r="AG288">
+        <v>1.53</v>
+      </c>
+      <c r="AH288">
+        <v>2.35</v>
+      </c>
+      <c r="AI288">
+        <v>0</v>
+      </c>
+      <c r="AJ288">
+        <v>0</v>
+      </c>
+      <c r="AK288">
+        <v>0</v>
+      </c>
+      <c r="AL288">
+        <v>0</v>
+      </c>
+      <c r="AM288">
+        <v>0</v>
+      </c>
+      <c r="AN288">
+        <v>2</v>
+      </c>
+      <c r="AO288">
+        <v>1.4</v>
+      </c>
+      <c r="AP288">
+        <v>2.06</v>
+      </c>
+      <c r="AQ288">
+        <v>1.31</v>
+      </c>
+      <c r="AR288">
+        <v>1.86</v>
+      </c>
+      <c r="AS288">
+        <v>1.01</v>
+      </c>
+      <c r="AT288">
+        <v>2.87</v>
+      </c>
+      <c r="AU288">
+        <v>4</v>
+      </c>
+      <c r="AV288">
+        <v>6</v>
+      </c>
+      <c r="AW288">
+        <v>6</v>
+      </c>
+      <c r="AX288">
+        <v>8</v>
+      </c>
+      <c r="AY288">
+        <v>10</v>
+      </c>
+      <c r="AZ288">
+        <v>14</v>
+      </c>
+      <c r="BA288">
+        <v>7</v>
+      </c>
+      <c r="BB288">
+        <v>7</v>
+      </c>
+      <c r="BC288">
+        <v>14</v>
+      </c>
+      <c r="BD288">
+        <v>0</v>
+      </c>
+      <c r="BE288">
+        <v>0</v>
+      </c>
+      <c r="BF288">
+        <v>0</v>
+      </c>
+      <c r="BG288">
+        <v>0</v>
+      </c>
+      <c r="BH288">
+        <v>0</v>
+      </c>
+      <c r="BI288">
+        <v>0</v>
+      </c>
+      <c r="BJ288">
+        <v>0</v>
+      </c>
+      <c r="BK288">
+        <v>0</v>
+      </c>
+      <c r="BL288">
+        <v>0</v>
+      </c>
+      <c r="BM288">
+        <v>0</v>
+      </c>
+      <c r="BN288">
+        <v>0</v>
+      </c>
+      <c r="BO288">
+        <v>0</v>
+      </c>
+      <c r="BP288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7025228</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45417.6875</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>87</v>
+      </c>
+      <c r="H289" t="s">
+        <v>83</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>2</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>237</v>
+      </c>
+      <c r="P289" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <v>0</v>
+      </c>
+      <c r="S289">
+        <v>0</v>
+      </c>
+      <c r="T289">
+        <v>0</v>
+      </c>
+      <c r="U289">
+        <v>0</v>
+      </c>
+      <c r="V289">
+        <v>0</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
+      <c r="Z289">
+        <v>6.8</v>
+      </c>
+      <c r="AA289">
+        <v>4.8</v>
+      </c>
+      <c r="AB289">
+        <v>1.38</v>
+      </c>
+      <c r="AC289">
+        <v>0</v>
+      </c>
+      <c r="AD289">
+        <v>0</v>
+      </c>
+      <c r="AE289">
+        <v>0</v>
+      </c>
+      <c r="AF289">
+        <v>0</v>
+      </c>
+      <c r="AG289">
+        <v>1.52</v>
+      </c>
+      <c r="AH289">
+        <v>2.35</v>
+      </c>
+      <c r="AI289">
+        <v>0</v>
+      </c>
+      <c r="AJ289">
+        <v>0</v>
+      </c>
+      <c r="AK289">
+        <v>0</v>
+      </c>
+      <c r="AL289">
+        <v>0</v>
+      </c>
+      <c r="AM289">
+        <v>0</v>
+      </c>
+      <c r="AN289">
+        <v>1.4</v>
+      </c>
+      <c r="AO289">
+        <v>2.13</v>
+      </c>
+      <c r="AP289">
+        <v>1.5</v>
+      </c>
+      <c r="AQ289">
+        <v>2</v>
+      </c>
+      <c r="AR289">
+        <v>1.3</v>
+      </c>
+      <c r="AS289">
+        <v>1.43</v>
+      </c>
+      <c r="AT289">
+        <v>2.73</v>
+      </c>
+      <c r="AU289">
+        <v>3</v>
+      </c>
+      <c r="AV289">
+        <v>9</v>
+      </c>
+      <c r="AW289">
+        <v>2</v>
+      </c>
+      <c r="AX289">
+        <v>3</v>
+      </c>
+      <c r="AY289">
+        <v>5</v>
+      </c>
+      <c r="AZ289">
+        <v>12</v>
+      </c>
+      <c r="BA289">
+        <v>3</v>
+      </c>
+      <c r="BB289">
+        <v>5</v>
+      </c>
+      <c r="BC289">
+        <v>8</v>
+      </c>
+      <c r="BD289">
+        <v>0</v>
+      </c>
+      <c r="BE289">
+        <v>0</v>
+      </c>
+      <c r="BF289">
+        <v>0</v>
+      </c>
+      <c r="BG289">
+        <v>0</v>
+      </c>
+      <c r="BH289">
+        <v>0</v>
+      </c>
+      <c r="BI289">
+        <v>0</v>
+      </c>
+      <c r="BJ289">
+        <v>0</v>
+      </c>
+      <c r="BK289">
+        <v>0</v>
+      </c>
+      <c r="BL289">
+        <v>0</v>
+      </c>
+      <c r="BM289">
+        <v>0</v>
+      </c>
+      <c r="BN289">
+        <v>0</v>
+      </c>
+      <c r="BO289">
+        <v>0</v>
+      </c>
+      <c r="BP289">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -61055,28 +61055,28 @@
         <v>3</v>
       </c>
       <c r="AV289">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW289">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX289">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY289">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ289">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA289">
         <v>3</v>
       </c>
       <c r="BB289">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC289">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD289">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="402">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1218,6 +1218,9 @@
   <si>
     <t>['35', '51', '72']</t>
   </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1578,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1918,7 +1921,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ2">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -4181,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -6862,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR26">
         <v>1.8</v>
@@ -8507,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -9540,7 +9543,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR39">
         <v>1.44</v>
@@ -12215,7 +12218,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -13660,7 +13663,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR59">
         <v>0.84</v>
@@ -15099,7 +15102,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ66">
         <v>0.6899999999999999</v>
@@ -17986,7 +17989,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ80">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18807,7 +18810,7 @@
         <v>2.4</v>
       </c>
       <c r="AP84">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -21076,7 +21079,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ95">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR95">
         <v>1.49</v>
@@ -22309,7 +22312,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ101">
         <v>0.6899999999999999</v>
@@ -24578,7 +24581,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ112">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR112">
         <v>1.34</v>
@@ -27047,7 +27050,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ124">
         <v>1.31</v>
@@ -28492,7 +28495,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ131">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR131">
         <v>2.42</v>
@@ -31788,7 +31791,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ147">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR147">
         <v>1.08</v>
@@ -31991,7 +31994,7 @@
         <v>1.86</v>
       </c>
       <c r="AP148">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ148">
         <v>2.25</v>
@@ -34875,7 +34878,7 @@
         <v>0.38</v>
       </c>
       <c r="AP162">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ162">
         <v>0.63</v>
@@ -35496,7 +35499,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ165">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR165">
         <v>1.17</v>
@@ -37553,7 +37556,7 @@
         <v>1.11</v>
       </c>
       <c r="AP175">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ175">
         <v>0.9399999999999999</v>
@@ -38998,7 +39001,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ182">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR182">
         <v>1.22</v>
@@ -40849,7 +40852,7 @@
         <v>1.1</v>
       </c>
       <c r="AP191">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ191">
         <v>0.75</v>
@@ -42500,7 +42503,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ199">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR199">
         <v>1.29</v>
@@ -44351,7 +44354,7 @@
         <v>1.27</v>
       </c>
       <c r="AP208">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ208">
         <v>1.38</v>
@@ -47238,7 +47241,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ222">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR222">
         <v>1.45</v>
@@ -49295,7 +49298,7 @@
         <v>1.58</v>
       </c>
       <c r="AP232">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ232">
         <v>1.56</v>
@@ -49916,7 +49919,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ235">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR235">
         <v>1.15</v>
@@ -52797,7 +52800,7 @@
         <v>0.77</v>
       </c>
       <c r="AP249">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ249">
         <v>0.88</v>
@@ -54036,7 +54039,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ255">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR255">
         <v>1.91</v>
@@ -56505,7 +56508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP267">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ267">
         <v>0.5</v>
@@ -58774,7 +58777,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ278">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR278">
         <v>1.13</v>
@@ -60213,7 +60216,7 @@
         <v>1.93</v>
       </c>
       <c r="AP285">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ285">
         <v>2</v>
@@ -61115,6 +61118,212 @@
         <v>0</v>
       </c>
       <c r="BP289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7025230</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45422.67708333334</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>81</v>
+      </c>
+      <c r="H290" t="s">
+        <v>87</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+      <c r="N290">
+        <v>1</v>
+      </c>
+      <c r="O290" t="s">
+        <v>90</v>
+      </c>
+      <c r="P290" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>0</v>
+      </c>
+      <c r="S290">
+        <v>0</v>
+      </c>
+      <c r="T290">
+        <v>0</v>
+      </c>
+      <c r="U290">
+        <v>0</v>
+      </c>
+      <c r="V290">
+        <v>0</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>2.63</v>
+      </c>
+      <c r="AA290">
+        <v>3.3</v>
+      </c>
+      <c r="AB290">
+        <v>2.6</v>
+      </c>
+      <c r="AC290">
+        <v>0</v>
+      </c>
+      <c r="AD290">
+        <v>0</v>
+      </c>
+      <c r="AE290">
+        <v>0</v>
+      </c>
+      <c r="AF290">
+        <v>0</v>
+      </c>
+      <c r="AG290">
+        <v>2</v>
+      </c>
+      <c r="AH290">
+        <v>1.85</v>
+      </c>
+      <c r="AI290">
+        <v>0</v>
+      </c>
+      <c r="AJ290">
+        <v>0</v>
+      </c>
+      <c r="AK290">
+        <v>0</v>
+      </c>
+      <c r="AL290">
+        <v>0</v>
+      </c>
+      <c r="AM290">
+        <v>0</v>
+      </c>
+      <c r="AN290">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO290">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP290">
+        <v>0.76</v>
+      </c>
+      <c r="AQ290">
+        <v>1.06</v>
+      </c>
+      <c r="AR290">
+        <v>1.09</v>
+      </c>
+      <c r="AS290">
+        <v>1.13</v>
+      </c>
+      <c r="AT290">
+        <v>2.22</v>
+      </c>
+      <c r="AU290">
+        <v>4</v>
+      </c>
+      <c r="AV290">
+        <v>6</v>
+      </c>
+      <c r="AW290">
+        <v>7</v>
+      </c>
+      <c r="AX290">
+        <v>4</v>
+      </c>
+      <c r="AY290">
+        <v>11</v>
+      </c>
+      <c r="AZ290">
+        <v>10</v>
+      </c>
+      <c r="BA290">
+        <v>3</v>
+      </c>
+      <c r="BB290">
+        <v>3</v>
+      </c>
+      <c r="BC290">
+        <v>6</v>
+      </c>
+      <c r="BD290">
+        <v>0</v>
+      </c>
+      <c r="BE290">
+        <v>0</v>
+      </c>
+      <c r="BF290">
+        <v>0</v>
+      </c>
+      <c r="BG290">
+        <v>0</v>
+      </c>
+      <c r="BH290">
+        <v>0</v>
+      </c>
+      <c r="BI290">
+        <v>0</v>
+      </c>
+      <c r="BJ290">
+        <v>0</v>
+      </c>
+      <c r="BK290">
+        <v>0</v>
+      </c>
+      <c r="BL290">
+        <v>0</v>
+      </c>
+      <c r="BM290">
+        <v>0</v>
+      </c>
+      <c r="BN290">
+        <v>0</v>
+      </c>
+      <c r="BO290">
+        <v>0</v>
+      </c>
+      <c r="BP290">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,15 @@
     <t>['12', '60', '64', '88']</t>
   </si>
   <si>
+    <t>['63', '90+7']</t>
+  </si>
+  <si>
+    <t>['8', '54', '69', '83']</t>
+  </si>
+  <si>
+    <t>['10', '80']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1221,6 +1230,12 @@
   <si>
     <t>['45+2']</t>
   </si>
+  <si>
+    <t>['21', '83']</t>
+  </si>
+  <si>
+    <t>['24', '75', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1581,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1840,7 +1855,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2252,7 +2267,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2458,7 +2473,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2870,7 +2885,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3076,7 +3091,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3282,7 +3297,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3488,7 +3503,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3694,7 +3709,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3775,7 +3790,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3978,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ12">
         <v>0.6899999999999999</v>
@@ -4106,7 +4121,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4187,7 +4202,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4312,7 +4327,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4599,7 +4614,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4802,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ16">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4930,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5136,7 +5151,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5214,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ18">
         <v>1.38</v>
@@ -5548,7 +5563,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5754,7 +5769,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6166,7 +6181,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6372,7 +6387,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6656,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ25">
         <v>0.6899999999999999</v>
@@ -6990,7 +7005,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7274,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ28">
         <v>0.6899999999999999</v>
@@ -7483,7 +7498,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ29">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR29">
         <v>1.16</v>
@@ -7689,7 +7704,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -8226,7 +8241,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8304,7 +8319,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -8432,7 +8447,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8844,7 +8859,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8925,7 +8940,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ36">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR36">
         <v>0.8</v>
@@ -9050,7 +9065,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9131,7 +9146,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR37">
         <v>0.68</v>
@@ -9256,7 +9271,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9749,7 +9764,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR40">
         <v>1.61</v>
@@ -9874,7 +9889,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -9952,7 +9967,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -10286,7 +10301,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10492,7 +10507,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10570,7 +10585,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ44">
         <v>0.88</v>
@@ -11522,7 +11537,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11600,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ49">
         <v>0.6899999999999999</v>
@@ -12140,7 +12155,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12221,7 +12236,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
         <v>1.44</v>
@@ -12346,7 +12361,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12552,7 +12567,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12839,7 +12854,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR55">
         <v>1.81</v>
@@ -12964,7 +12979,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13045,7 +13060,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR56">
         <v>1.31</v>
@@ -13376,7 +13391,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13454,7 +13469,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13582,7 +13597,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13788,7 +13803,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13869,7 +13884,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -14200,7 +14215,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14278,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -14406,7 +14421,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14818,7 +14833,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -15024,7 +15039,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15436,7 +15451,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15517,7 +15532,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ68">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR68">
         <v>1.47</v>
@@ -15720,7 +15735,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
         <v>2</v>
@@ -15848,7 +15863,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -16135,7 +16150,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ71">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR71">
         <v>1.26</v>
@@ -16672,7 +16687,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -17368,7 +17383,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ77">
         <v>0.63</v>
@@ -17496,7 +17511,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17577,7 +17592,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR78">
         <v>1.14</v>
@@ -17702,7 +17717,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -18114,7 +18129,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18192,7 +18207,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ81">
         <v>2</v>
@@ -18320,7 +18335,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18401,7 +18416,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ82">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR82">
         <v>0.88</v>
@@ -18526,7 +18541,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18732,7 +18747,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18938,7 +18953,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19968,7 +19983,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20049,7 +20064,7 @@
         <v>3</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR90">
         <v>1.66</v>
@@ -20458,7 +20473,7 @@
         <v>1.6</v>
       </c>
       <c r="AP92">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ92">
         <v>1.31</v>
@@ -21076,7 +21091,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ95">
         <v>1.06</v>
@@ -21204,7 +21219,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21282,7 +21297,7 @@
         <v>2.4</v>
       </c>
       <c r="AP96">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ96">
         <v>2</v>
@@ -21491,7 +21506,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ97">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21616,7 +21631,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21903,7 +21918,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -22109,7 +22124,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ100">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR100">
         <v>2.2</v>
@@ -22440,7 +22455,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22727,7 +22742,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR103">
         <v>1.12</v>
@@ -22852,7 +22867,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -23264,7 +23279,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23676,7 +23691,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -24088,7 +24103,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24166,10 +24181,10 @@
         <v>2.17</v>
       </c>
       <c r="AP110">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR110">
         <v>1.48</v>
@@ -24706,7 +24721,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24784,10 +24799,10 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ113">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR113">
         <v>1.5</v>
@@ -24912,7 +24927,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25324,7 +25339,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25405,7 +25420,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR116">
         <v>1.42</v>
@@ -25608,7 +25623,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ117">
         <v>0.63</v>
@@ -25736,7 +25751,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26023,7 +26038,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR119">
         <v>1.26</v>
@@ -26560,7 +26575,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26766,7 +26781,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26972,7 +26987,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27178,7 +27193,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27384,7 +27399,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27874,10 +27889,10 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ128">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR128">
         <v>1.39</v>
@@ -28080,7 +28095,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -28208,7 +28223,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -29110,7 +29125,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
         <v>0.9399999999999999</v>
@@ -29238,7 +29253,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29319,7 +29334,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR135">
         <v>1.15</v>
@@ -29444,7 +29459,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29525,7 +29540,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ136">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -30474,7 +30489,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30680,7 +30695,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -31092,7 +31107,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31298,7 +31313,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31710,7 +31725,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31916,7 +31931,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -31997,7 +32012,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ148">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR148">
         <v>1.28</v>
@@ -32122,7 +32137,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32200,7 +32215,7 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
         <v>1.5</v>
@@ -32409,7 +32424,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ150">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR150">
         <v>1.14</v>
@@ -32615,7 +32630,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ151">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR151">
         <v>2.34</v>
@@ -32740,7 +32755,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -32818,7 +32833,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ152">
         <v>0.75</v>
@@ -33027,7 +33042,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ153">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR153">
         <v>2.02</v>
@@ -33230,7 +33245,7 @@
         <v>1.14</v>
       </c>
       <c r="AP154">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ154">
         <v>1.38</v>
@@ -33358,7 +33373,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33439,7 +33454,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR155">
         <v>1.31</v>
@@ -33564,7 +33579,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33642,10 +33657,10 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ156">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR156">
         <v>1.56</v>
@@ -33976,7 +33991,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34054,7 +34069,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158">
         <v>1.38</v>
@@ -34182,7 +34197,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34594,7 +34609,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34881,7 +34896,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ162">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR162">
         <v>1.2</v>
@@ -35084,10 +35099,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ163">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR163">
         <v>1.36</v>
@@ -35212,7 +35227,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35624,7 +35639,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -36242,7 +36257,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -37066,7 +37081,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37353,7 +37368,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ174">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR174">
         <v>1.81</v>
@@ -37684,7 +37699,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -37762,7 +37777,7 @@
         <v>1.33</v>
       </c>
       <c r="AP176">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ176">
         <v>1.56</v>
@@ -38174,10 +38189,10 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR178">
         <v>1.28</v>
@@ -38920,7 +38935,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39332,7 +39347,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39825,7 +39840,7 @@
         <v>3</v>
       </c>
       <c r="AQ186">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR186">
         <v>1.59</v>
@@ -39950,7 +39965,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40028,7 +40043,7 @@
         <v>2.5</v>
       </c>
       <c r="AP187">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ187">
         <v>2</v>
@@ -40156,7 +40171,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40649,7 +40664,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ190">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR190">
         <v>1.36</v>
@@ -40980,7 +40995,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41267,7 +41282,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ193">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR193">
         <v>1.92</v>
@@ -41804,7 +41819,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -41882,7 +41897,7 @@
         <v>0.3</v>
       </c>
       <c r="AP196">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196">
         <v>0.6899999999999999</v>
@@ -42216,7 +42231,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42297,7 +42312,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ198">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR198">
         <v>1.19</v>
@@ -42422,7 +42437,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -43040,7 +43055,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43118,7 +43133,7 @@
         <v>1.27</v>
       </c>
       <c r="AP202">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ202">
         <v>1.31</v>
@@ -43246,7 +43261,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43324,7 +43339,7 @@
         <v>0.45</v>
       </c>
       <c r="AP203">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ203">
         <v>0.5</v>
@@ -43864,7 +43879,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43945,7 +43960,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ206">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR206">
         <v>1.15</v>
@@ -44070,7 +44085,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44151,7 +44166,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ207">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR207">
         <v>1.03</v>
@@ -44276,7 +44291,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44563,7 +44578,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ209">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR209">
         <v>1.11</v>
@@ -44688,7 +44703,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -44766,7 +44781,7 @@
         <v>1.45</v>
       </c>
       <c r="AP210">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ210">
         <v>1.56</v>
@@ -44975,7 +44990,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ211">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR211">
         <v>1.86</v>
@@ -45512,7 +45527,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -46130,7 +46145,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46620,7 +46635,7 @@
         <v>0.92</v>
       </c>
       <c r="AP219">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ219">
         <v>0.9399999999999999</v>
@@ -46829,7 +46844,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ220">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR220">
         <v>1.1</v>
@@ -47238,7 +47253,7 @@
         <v>0.92</v>
       </c>
       <c r="AP222">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ222">
         <v>1.06</v>
@@ -47366,7 +47381,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47447,7 +47462,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ223">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR223">
         <v>1.25</v>
@@ -47572,7 +47587,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -48062,7 +48077,7 @@
         <v>0.83</v>
       </c>
       <c r="AP226">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ226">
         <v>0.88</v>
@@ -48271,7 +48286,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ227">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR227">
         <v>1.35</v>
@@ -48396,7 +48411,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48477,7 +48492,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ228">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR228">
         <v>1.25</v>
@@ -49220,7 +49235,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49632,7 +49647,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49838,7 +49853,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50250,7 +50265,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -50331,7 +50346,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ237">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR237">
         <v>1.06</v>
@@ -50534,7 +50549,7 @@
         <v>1.62</v>
       </c>
       <c r="AP238">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ238">
         <v>1.5</v>
@@ -50949,7 +50964,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ240">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR240">
         <v>1.02</v>
@@ -51152,7 +51167,7 @@
         <v>2</v>
       </c>
       <c r="AP241">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ241">
         <v>2</v>
@@ -51280,7 +51295,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51358,7 +51373,7 @@
         <v>1.31</v>
       </c>
       <c r="AP242">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ242">
         <v>1.31</v>
@@ -51486,7 +51501,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51567,7 +51582,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ243">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR243">
         <v>1.14</v>
@@ -51898,7 +51913,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -52310,7 +52325,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52516,7 +52531,7 @@
         <v>249</v>
       </c>
       <c r="P248" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -52722,7 +52737,7 @@
         <v>250</v>
       </c>
       <c r="P249" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -52928,7 +52943,7 @@
         <v>251</v>
       </c>
       <c r="P250" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -53009,7 +53024,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ250">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR250">
         <v>1.13</v>
@@ -53134,7 +53149,7 @@
         <v>147</v>
       </c>
       <c r="P251" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -53546,7 +53561,7 @@
         <v>90</v>
       </c>
       <c r="P253" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -53627,7 +53642,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ253">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR253">
         <v>1.15</v>
@@ -53830,7 +53845,7 @@
         <v>0.79</v>
       </c>
       <c r="AP254">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ254">
         <v>0.9399999999999999</v>
@@ -53958,7 +53973,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -54242,10 +54257,10 @@
         <v>2.07</v>
       </c>
       <c r="AP256">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ256">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR256">
         <v>1.18</v>
@@ -54370,7 +54385,7 @@
         <v>254</v>
       </c>
       <c r="P257" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -54451,7 +54466,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ257">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR257">
         <v>1.04</v>
@@ -54576,7 +54591,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -54782,7 +54797,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -55194,7 +55209,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -55272,7 +55287,7 @@
         <v>0.5</v>
       </c>
       <c r="AP261">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ261">
         <v>0.63</v>
@@ -55400,7 +55415,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55481,7 +55496,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ262">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR262">
         <v>1.36</v>
@@ -55606,7 +55621,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -56018,7 +56033,7 @@
         <v>213</v>
       </c>
       <c r="P265" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -56099,7 +56114,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ265">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR265">
         <v>1</v>
@@ -56224,7 +56239,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -56430,7 +56445,7 @@
         <v>260</v>
       </c>
       <c r="P267" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q267">
         <v>0</v>
@@ -56636,7 +56651,7 @@
         <v>261</v>
       </c>
       <c r="P268" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q268">
         <v>0</v>
@@ -56842,7 +56857,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q269">
         <v>0</v>
@@ -57254,7 +57269,7 @@
         <v>242</v>
       </c>
       <c r="P271" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q271">
         <v>0</v>
@@ -57460,7 +57475,7 @@
         <v>264</v>
       </c>
       <c r="P272" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q272">
         <v>0</v>
@@ -57666,7 +57681,7 @@
         <v>265</v>
       </c>
       <c r="P273" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57872,7 +57887,7 @@
         <v>262</v>
       </c>
       <c r="P274" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q274">
         <v>0</v>
@@ -57950,10 +57965,10 @@
         <v>0.6</v>
       </c>
       <c r="AP274">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AQ274">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR274">
         <v>1.41</v>
@@ -58159,7 +58174,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ275">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR275">
         <v>1.94</v>
@@ -58362,7 +58377,7 @@
         <v>0.8</v>
       </c>
       <c r="AP276">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ276">
         <v>0.75</v>
@@ -58490,7 +58505,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q277">
         <v>0</v>
@@ -58774,7 +58789,7 @@
         <v>1</v>
       </c>
       <c r="AP278">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ278">
         <v>1.06</v>
@@ -58902,7 +58917,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q279">
         <v>0</v>
@@ -58983,7 +58998,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ279">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR279">
         <v>1.92</v>
@@ -59108,7 +59123,7 @@
         <v>90</v>
       </c>
       <c r="P280" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -60138,7 +60153,7 @@
         <v>90</v>
       </c>
       <c r="P285" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q285">
         <v>0</v>
@@ -60344,7 +60359,7 @@
         <v>271</v>
       </c>
       <c r="P286" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q286">
         <v>0</v>
@@ -60631,7 +60646,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ287">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR287">
         <v>1.35</v>
@@ -60756,7 +60771,7 @@
         <v>272</v>
       </c>
       <c r="P288" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q288">
         <v>0</v>
@@ -61168,7 +61183,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q290">
         <v>0</v>
@@ -61324,6 +61339,830 @@
         <v>0</v>
       </c>
       <c r="BP290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7025232</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45423.47916666666</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>82</v>
+      </c>
+      <c r="H291" t="s">
+        <v>74</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>2</v>
+      </c>
+      <c r="N291">
+        <v>4</v>
+      </c>
+      <c r="O291" t="s">
+        <v>273</v>
+      </c>
+      <c r="P291" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q291">
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <v>0</v>
+      </c>
+      <c r="S291">
+        <v>0</v>
+      </c>
+      <c r="T291">
+        <v>0</v>
+      </c>
+      <c r="U291">
+        <v>0</v>
+      </c>
+      <c r="V291">
+        <v>0</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>0</v>
+      </c>
+      <c r="Z291">
+        <v>2.2</v>
+      </c>
+      <c r="AA291">
+        <v>3.4</v>
+      </c>
+      <c r="AB291">
+        <v>3.2</v>
+      </c>
+      <c r="AC291">
+        <v>0</v>
+      </c>
+      <c r="AD291">
+        <v>0</v>
+      </c>
+      <c r="AE291">
+        <v>0</v>
+      </c>
+      <c r="AF291">
+        <v>0</v>
+      </c>
+      <c r="AG291">
+        <v>2</v>
+      </c>
+      <c r="AH291">
+        <v>1.75</v>
+      </c>
+      <c r="AI291">
+        <v>0</v>
+      </c>
+      <c r="AJ291">
+        <v>0</v>
+      </c>
+      <c r="AK291">
+        <v>0</v>
+      </c>
+      <c r="AL291">
+        <v>0</v>
+      </c>
+      <c r="AM291">
+        <v>0</v>
+      </c>
+      <c r="AN291">
+        <v>0.88</v>
+      </c>
+      <c r="AO291">
+        <v>0.63</v>
+      </c>
+      <c r="AP291">
+        <v>0.88</v>
+      </c>
+      <c r="AQ291">
+        <v>0.65</v>
+      </c>
+      <c r="AR291">
+        <v>1.12</v>
+      </c>
+      <c r="AS291">
+        <v>1.04</v>
+      </c>
+      <c r="AT291">
+        <v>2.16</v>
+      </c>
+      <c r="AU291">
+        <v>7</v>
+      </c>
+      <c r="AV291">
+        <v>4</v>
+      </c>
+      <c r="AW291">
+        <v>7</v>
+      </c>
+      <c r="AX291">
+        <v>3</v>
+      </c>
+      <c r="AY291">
+        <v>14</v>
+      </c>
+      <c r="AZ291">
+        <v>7</v>
+      </c>
+      <c r="BA291">
+        <v>12</v>
+      </c>
+      <c r="BB291">
+        <v>4</v>
+      </c>
+      <c r="BC291">
+        <v>16</v>
+      </c>
+      <c r="BD291">
+        <v>0</v>
+      </c>
+      <c r="BE291">
+        <v>0</v>
+      </c>
+      <c r="BF291">
+        <v>0</v>
+      </c>
+      <c r="BG291">
+        <v>0</v>
+      </c>
+      <c r="BH291">
+        <v>0</v>
+      </c>
+      <c r="BI291">
+        <v>0</v>
+      </c>
+      <c r="BJ291">
+        <v>0</v>
+      </c>
+      <c r="BK291">
+        <v>0</v>
+      </c>
+      <c r="BL291">
+        <v>0</v>
+      </c>
+      <c r="BM291">
+        <v>0</v>
+      </c>
+      <c r="BN291">
+        <v>0</v>
+      </c>
+      <c r="BO291">
+        <v>0</v>
+      </c>
+      <c r="BP291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7025235</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45423.47916666666</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>86</v>
+      </c>
+      <c r="H292" t="s">
+        <v>75</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>4</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>4</v>
+      </c>
+      <c r="O292" t="s">
+        <v>274</v>
+      </c>
+      <c r="P292" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="R292">
+        <v>0</v>
+      </c>
+      <c r="S292">
+        <v>0</v>
+      </c>
+      <c r="T292">
+        <v>0</v>
+      </c>
+      <c r="U292">
+        <v>0</v>
+      </c>
+      <c r="V292">
+        <v>0</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>0</v>
+      </c>
+      <c r="Z292">
+        <v>3.4</v>
+      </c>
+      <c r="AA292">
+        <v>3.5</v>
+      </c>
+      <c r="AB292">
+        <v>2.1</v>
+      </c>
+      <c r="AC292">
+        <v>0</v>
+      </c>
+      <c r="AD292">
+        <v>0</v>
+      </c>
+      <c r="AE292">
+        <v>0</v>
+      </c>
+      <c r="AF292">
+        <v>0</v>
+      </c>
+      <c r="AG292">
+        <v>1.87</v>
+      </c>
+      <c r="AH292">
+        <v>1.85</v>
+      </c>
+      <c r="AI292">
+        <v>0</v>
+      </c>
+      <c r="AJ292">
+        <v>0</v>
+      </c>
+      <c r="AK292">
+        <v>0</v>
+      </c>
+      <c r="AL292">
+        <v>0</v>
+      </c>
+      <c r="AM292">
+        <v>0</v>
+      </c>
+      <c r="AN292">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO292">
+        <v>0.75</v>
+      </c>
+      <c r="AP292">
+        <v>0.82</v>
+      </c>
+      <c r="AQ292">
+        <v>0.71</v>
+      </c>
+      <c r="AR292">
+        <v>1.41</v>
+      </c>
+      <c r="AS292">
+        <v>1</v>
+      </c>
+      <c r="AT292">
+        <v>2.41</v>
+      </c>
+      <c r="AU292">
+        <v>2</v>
+      </c>
+      <c r="AV292">
+        <v>2</v>
+      </c>
+      <c r="AW292">
+        <v>5</v>
+      </c>
+      <c r="AX292">
+        <v>1</v>
+      </c>
+      <c r="AY292">
+        <v>7</v>
+      </c>
+      <c r="AZ292">
+        <v>3</v>
+      </c>
+      <c r="BA292">
+        <v>2</v>
+      </c>
+      <c r="BB292">
+        <v>2</v>
+      </c>
+      <c r="BC292">
+        <v>4</v>
+      </c>
+      <c r="BD292">
+        <v>0</v>
+      </c>
+      <c r="BE292">
+        <v>0</v>
+      </c>
+      <c r="BF292">
+        <v>0</v>
+      </c>
+      <c r="BG292">
+        <v>0</v>
+      </c>
+      <c r="BH292">
+        <v>0</v>
+      </c>
+      <c r="BI292">
+        <v>0</v>
+      </c>
+      <c r="BJ292">
+        <v>0</v>
+      </c>
+      <c r="BK292">
+        <v>0</v>
+      </c>
+      <c r="BL292">
+        <v>0</v>
+      </c>
+      <c r="BM292">
+        <v>0</v>
+      </c>
+      <c r="BN292">
+        <v>0</v>
+      </c>
+      <c r="BO292">
+        <v>0</v>
+      </c>
+      <c r="BP292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7025231</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45423.58333333334</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>84</v>
+      </c>
+      <c r="H293" t="s">
+        <v>73</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293" t="s">
+        <v>90</v>
+      </c>
+      <c r="P293" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q293">
+        <v>0</v>
+      </c>
+      <c r="R293">
+        <v>0</v>
+      </c>
+      <c r="S293">
+        <v>0</v>
+      </c>
+      <c r="T293">
+        <v>0</v>
+      </c>
+      <c r="U293">
+        <v>0</v>
+      </c>
+      <c r="V293">
+        <v>0</v>
+      </c>
+      <c r="W293">
+        <v>0</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <v>0</v>
+      </c>
+      <c r="Z293">
+        <v>8.15</v>
+      </c>
+      <c r="AA293">
+        <v>5.8</v>
+      </c>
+      <c r="AB293">
+        <v>1.26</v>
+      </c>
+      <c r="AC293">
+        <v>0</v>
+      </c>
+      <c r="AD293">
+        <v>0</v>
+      </c>
+      <c r="AE293">
+        <v>0</v>
+      </c>
+      <c r="AF293">
+        <v>0</v>
+      </c>
+      <c r="AG293">
+        <v>1.44</v>
+      </c>
+      <c r="AH293">
+        <v>2.53</v>
+      </c>
+      <c r="AI293">
+        <v>0</v>
+      </c>
+      <c r="AJ293">
+        <v>0</v>
+      </c>
+      <c r="AK293">
+        <v>0</v>
+      </c>
+      <c r="AL293">
+        <v>0</v>
+      </c>
+      <c r="AM293">
+        <v>0</v>
+      </c>
+      <c r="AN293">
+        <v>1.56</v>
+      </c>
+      <c r="AO293">
+        <v>2.25</v>
+      </c>
+      <c r="AP293">
+        <v>1.47</v>
+      </c>
+      <c r="AQ293">
+        <v>2.29</v>
+      </c>
+      <c r="AR293">
+        <v>1.11</v>
+      </c>
+      <c r="AS293">
+        <v>1.4</v>
+      </c>
+      <c r="AT293">
+        <v>2.51</v>
+      </c>
+      <c r="AU293">
+        <v>2</v>
+      </c>
+      <c r="AV293">
+        <v>2</v>
+      </c>
+      <c r="AW293">
+        <v>1</v>
+      </c>
+      <c r="AX293">
+        <v>3</v>
+      </c>
+      <c r="AY293">
+        <v>3</v>
+      </c>
+      <c r="AZ293">
+        <v>5</v>
+      </c>
+      <c r="BA293">
+        <v>0</v>
+      </c>
+      <c r="BB293">
+        <v>2</v>
+      </c>
+      <c r="BC293">
+        <v>2</v>
+      </c>
+      <c r="BD293">
+        <v>0</v>
+      </c>
+      <c r="BE293">
+        <v>0</v>
+      </c>
+      <c r="BF293">
+        <v>0</v>
+      </c>
+      <c r="BG293">
+        <v>0</v>
+      </c>
+      <c r="BH293">
+        <v>0</v>
+      </c>
+      <c r="BI293">
+        <v>0</v>
+      </c>
+      <c r="BJ293">
+        <v>0</v>
+      </c>
+      <c r="BK293">
+        <v>0</v>
+      </c>
+      <c r="BL293">
+        <v>0</v>
+      </c>
+      <c r="BM293">
+        <v>0</v>
+      </c>
+      <c r="BN293">
+        <v>0</v>
+      </c>
+      <c r="BO293">
+        <v>0</v>
+      </c>
+      <c r="BP293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7025237</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45423.6875</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>80</v>
+      </c>
+      <c r="H294" t="s">
+        <v>70</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>2</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>3</v>
+      </c>
+      <c r="N294">
+        <v>5</v>
+      </c>
+      <c r="O294" t="s">
+        <v>275</v>
+      </c>
+      <c r="P294" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <v>0</v>
+      </c>
+      <c r="S294">
+        <v>0</v>
+      </c>
+      <c r="T294">
+        <v>0</v>
+      </c>
+      <c r="U294">
+        <v>0</v>
+      </c>
+      <c r="V294">
+        <v>0</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>3.3</v>
+      </c>
+      <c r="AA294">
+        <v>3.45</v>
+      </c>
+      <c r="AB294">
+        <v>2.01</v>
+      </c>
+      <c r="AC294">
+        <v>0</v>
+      </c>
+      <c r="AD294">
+        <v>0</v>
+      </c>
+      <c r="AE294">
+        <v>0</v>
+      </c>
+      <c r="AF294">
+        <v>0</v>
+      </c>
+      <c r="AG294">
+        <v>1.65</v>
+      </c>
+      <c r="AH294">
+        <v>2.06</v>
+      </c>
+      <c r="AI294">
+        <v>0</v>
+      </c>
+      <c r="AJ294">
+        <v>0</v>
+      </c>
+      <c r="AK294">
+        <v>0</v>
+      </c>
+      <c r="AL294">
+        <v>0</v>
+      </c>
+      <c r="AM294">
+        <v>0</v>
+      </c>
+      <c r="AN294">
+        <v>2.19</v>
+      </c>
+      <c r="AO294">
+        <v>2</v>
+      </c>
+      <c r="AP294">
+        <v>2.06</v>
+      </c>
+      <c r="AQ294">
+        <v>2.06</v>
+      </c>
+      <c r="AR294">
+        <v>1.43</v>
+      </c>
+      <c r="AS294">
+        <v>1.33</v>
+      </c>
+      <c r="AT294">
+        <v>2.76</v>
+      </c>
+      <c r="AU294">
+        <v>3</v>
+      </c>
+      <c r="AV294">
+        <v>6</v>
+      </c>
+      <c r="AW294">
+        <v>5</v>
+      </c>
+      <c r="AX294">
+        <v>1</v>
+      </c>
+      <c r="AY294">
+        <v>8</v>
+      </c>
+      <c r="AZ294">
+        <v>7</v>
+      </c>
+      <c r="BA294">
+        <v>6</v>
+      </c>
+      <c r="BB294">
+        <v>8</v>
+      </c>
+      <c r="BC294">
+        <v>14</v>
+      </c>
+      <c r="BD294">
+        <v>0</v>
+      </c>
+      <c r="BE294">
+        <v>0</v>
+      </c>
+      <c r="BF294">
+        <v>0</v>
+      </c>
+      <c r="BG294">
+        <v>0</v>
+      </c>
+      <c r="BH294">
+        <v>0</v>
+      </c>
+      <c r="BI294">
+        <v>0</v>
+      </c>
+      <c r="BJ294">
+        <v>0</v>
+      </c>
+      <c r="BK294">
+        <v>0</v>
+      </c>
+      <c r="BL294">
+        <v>0</v>
+      </c>
+      <c r="BM294">
+        <v>0</v>
+      </c>
+      <c r="BN294">
+        <v>0</v>
+      </c>
+      <c r="BO294">
+        <v>0</v>
+      </c>
+      <c r="BP294">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="411">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -844,6 +844,15 @@
     <t>['10', '80']</t>
   </si>
   <si>
+    <t>['17', '19']</t>
+  </si>
+  <si>
+    <t>['25', '32', '42', '46', '77']</t>
+  </si>
+  <si>
+    <t>['81', '90+8']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1236,6 +1245,9 @@
   <si>
     <t>['24', '75', '90+3']</t>
   </si>
+  <si>
+    <t>['60']</t>
+  </si>
 </sst>
 </file>
 
@@ -1596,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP294"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1855,7 +1867,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2139,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ3">
         <v>0.88</v>
@@ -2267,7 +2279,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2473,7 +2485,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2885,7 +2897,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3091,7 +3103,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3297,7 +3309,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3503,7 +3515,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3709,7 +3721,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3787,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ11">
         <v>2.29</v>
@@ -4121,7 +4133,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4327,7 +4339,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4408,7 +4420,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4611,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -4945,7 +4957,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5023,10 +5035,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ17">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5151,7 +5163,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5232,7 +5244,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ18">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5438,7 +5450,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5563,7 +5575,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5769,7 +5781,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6181,7 +6193,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6259,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -6387,7 +6399,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -7005,7 +7017,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7495,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ29">
         <v>0.65</v>
@@ -7910,7 +7922,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
         <v>0.83</v>
@@ -8113,7 +8125,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ32">
         <v>1.56</v>
@@ -8241,7 +8253,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8322,7 +8334,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR33">
         <v>0.85</v>
@@ -8447,7 +8459,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8528,7 +8540,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8731,10 +8743,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>2.63</v>
@@ -8859,7 +8871,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9065,7 +9077,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9271,7 +9283,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9889,7 +9901,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10301,7 +10313,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10379,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -10507,7 +10519,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10794,7 +10806,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR45">
         <v>1.8</v>
@@ -11206,7 +11218,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -11412,7 +11424,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>0.91</v>
@@ -11537,7 +11549,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11821,7 +11833,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ50">
         <v>1.56</v>
@@ -12027,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ51">
         <v>0.6899999999999999</v>
@@ -12155,7 +12167,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12361,7 +12373,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12567,7 +12579,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12648,7 +12660,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12979,7 +12991,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13263,7 +13275,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -13391,7 +13403,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13597,7 +13609,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13803,7 +13815,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -14215,7 +14227,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14421,7 +14433,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14502,7 +14514,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14705,7 +14717,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ64">
         <v>1.31</v>
@@ -14833,7 +14845,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14914,7 +14926,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -15039,7 +15051,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15451,7 +15463,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15863,7 +15875,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -16147,7 +16159,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ71">
         <v>0.71</v>
@@ -16353,7 +16365,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ72">
         <v>0.88</v>
@@ -16562,7 +16574,7 @@
         <v>3</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
         <v>1.69</v>
@@ -16687,7 +16699,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -16768,7 +16780,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -17177,7 +17189,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ76">
         <v>1.31</v>
@@ -17511,7 +17523,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17589,7 +17601,7 @@
         <v>2.25</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78">
         <v>2.06</v>
@@ -17717,7 +17729,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17798,7 +17810,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR79">
         <v>1.24</v>
@@ -18129,7 +18141,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18335,7 +18347,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18541,7 +18553,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18619,7 +18631,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ83">
         <v>0.5</v>
@@ -18747,7 +18759,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18953,7 +18965,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19649,7 +19661,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ88">
         <v>0.6899999999999999</v>
@@ -19858,7 +19870,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ89">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR89">
         <v>1.22</v>
@@ -19983,7 +19995,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20270,7 +20282,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR91">
         <v>1.41</v>
@@ -20888,7 +20900,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR94">
         <v>1.45</v>
@@ -21219,7 +21231,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21503,7 +21515,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ97">
         <v>0.65</v>
@@ -21631,7 +21643,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21712,7 +21724,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ98">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR98">
         <v>0.89</v>
@@ -22121,7 +22133,7 @@
         <v>2.5</v>
       </c>
       <c r="AP100">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ100">
         <v>2.29</v>
@@ -22455,7 +22467,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22867,7 +22879,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -23151,7 +23163,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ105">
         <v>0.88</v>
@@ -23279,7 +23291,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23691,7 +23703,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23772,7 +23784,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ108">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR108">
         <v>0.97</v>
@@ -24103,7 +24115,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24387,10 +24399,10 @@
         <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
         <v>2.02</v>
@@ -24721,7 +24733,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24927,7 +24939,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25005,7 +25017,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ114">
         <v>1.31</v>
@@ -25214,7 +25226,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR115">
         <v>1.29</v>
@@ -25339,7 +25351,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25751,7 +25763,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -25829,10 +25841,10 @@
         <v>2.17</v>
       </c>
       <c r="AP118">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR118">
         <v>1.13</v>
@@ -26575,7 +26587,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26781,7 +26793,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26987,7 +26999,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27193,7 +27205,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27399,7 +27411,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -28098,7 +28110,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR129">
         <v>1.5</v>
@@ -28223,7 +28235,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28304,7 +28316,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ130">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR130">
         <v>1.05</v>
@@ -28507,7 +28519,7 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ131">
         <v>1.06</v>
@@ -28713,7 +28725,7 @@
         <v>0.43</v>
       </c>
       <c r="AP132">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ132">
         <v>0.63</v>
@@ -28919,10 +28931,10 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR133">
         <v>1.14</v>
@@ -29128,7 +29140,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ134">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR134">
         <v>1.3</v>
@@ -29253,7 +29265,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29331,7 +29343,7 @@
         <v>2.29</v>
       </c>
       <c r="AP135">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ135">
         <v>2.06</v>
@@ -29459,7 +29471,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -30489,7 +30501,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30695,7 +30707,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -31107,7 +31119,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31313,7 +31325,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31600,7 +31612,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ146">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -31725,7 +31737,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31803,7 +31815,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ147">
         <v>1.06</v>
@@ -31931,7 +31943,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -32137,7 +32149,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32218,7 +32230,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR149">
         <v>1.28</v>
@@ -32421,7 +32433,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
         <v>0.71</v>
@@ -32627,7 +32639,7 @@
         <v>0.43</v>
       </c>
       <c r="AP151">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ151">
         <v>0.65</v>
@@ -32755,7 +32767,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -32836,7 +32848,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ152">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR152">
         <v>1.42</v>
@@ -33039,7 +33051,7 @@
         <v>2.38</v>
       </c>
       <c r="AP153">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ153">
         <v>2.06</v>
@@ -33248,7 +33260,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ154">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR154">
         <v>1.33</v>
@@ -33373,7 +33385,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33579,7 +33591,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -33863,10 +33875,10 @@
         <v>1.25</v>
       </c>
       <c r="AP157">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ157">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR157">
         <v>2.26</v>
@@ -33991,7 +34003,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34072,7 +34084,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR158">
         <v>1.29</v>
@@ -34197,7 +34209,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34275,10 +34287,10 @@
         <v>0.88</v>
       </c>
       <c r="AP159">
+        <v>0.82</v>
+      </c>
+      <c r="AQ159">
         <v>0.88</v>
-      </c>
-      <c r="AQ159">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR159">
         <v>1.05</v>
@@ -34481,10 +34493,10 @@
         <v>2</v>
       </c>
       <c r="AP160">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR160">
         <v>1.89</v>
@@ -34609,7 +34621,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -35227,7 +35239,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35639,7 +35651,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -36129,7 +36141,7 @@
         <v>1.5</v>
       </c>
       <c r="AP168">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
         <v>1.56</v>
@@ -36257,7 +36269,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -37081,7 +37093,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37162,7 +37174,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ173">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR173">
         <v>1.16</v>
@@ -37365,7 +37377,7 @@
         <v>0.44</v>
       </c>
       <c r="AP174">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ174">
         <v>0.65</v>
@@ -37574,7 +37586,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR175">
         <v>1.26</v>
@@ -37699,7 +37711,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -37983,7 +37995,7 @@
         <v>0.33</v>
       </c>
       <c r="AP177">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ177">
         <v>0.6899999999999999</v>
@@ -38398,7 +38410,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ179">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR179">
         <v>1.89</v>
@@ -38601,10 +38613,10 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ180">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR180">
         <v>1.16</v>
@@ -38935,7 +38947,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39347,7 +39359,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39965,7 +39977,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40171,7 +40183,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40455,7 +40467,7 @@
         <v>0.78</v>
       </c>
       <c r="AP189">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ189">
         <v>0.6899999999999999</v>
@@ -40870,7 +40882,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ191">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR191">
         <v>1.19</v>
@@ -40995,7 +41007,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41279,7 +41291,7 @@
         <v>0.8</v>
       </c>
       <c r="AP193">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ193">
         <v>0.71</v>
@@ -41485,10 +41497,10 @@
         <v>1.4</v>
       </c>
       <c r="AP194">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ194">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR194">
         <v>1.12</v>
@@ -41691,7 +41703,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ195">
         <v>0.6899999999999999</v>
@@ -41819,7 +41831,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -42106,7 +42118,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ197">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR197">
         <v>1.85</v>
@@ -42231,7 +42243,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42437,7 +42449,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42724,7 +42736,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ200">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR200">
         <v>1.29</v>
@@ -43055,7 +43067,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43261,7 +43273,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43545,7 +43557,7 @@
         <v>0.91</v>
       </c>
       <c r="AP204">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ204">
         <v>0.88</v>
@@ -43751,7 +43763,7 @@
         <v>2</v>
       </c>
       <c r="AP205">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ205">
         <v>2</v>
@@ -43879,7 +43891,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -44085,7 +44097,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44291,7 +44303,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44372,7 +44384,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ208">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR208">
         <v>1.16</v>
@@ -44703,7 +44715,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -45193,7 +45205,7 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ212">
         <v>0.6899999999999999</v>
@@ -45527,7 +45539,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45608,7 +45620,7 @@
         <v>3</v>
       </c>
       <c r="AQ214">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -45811,7 +45823,7 @@
         <v>2.36</v>
       </c>
       <c r="AP215">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ215">
         <v>2</v>
@@ -46020,7 +46032,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ216">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR216">
         <v>1.39</v>
@@ -46145,7 +46157,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46638,7 +46650,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ219">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR219">
         <v>1.4</v>
@@ -47050,7 +47062,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ221">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR221">
         <v>1.03</v>
@@ -47381,7 +47393,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47587,7 +47599,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -47665,7 +47677,7 @@
         <v>0.5</v>
       </c>
       <c r="AP224">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ224">
         <v>0.5</v>
@@ -47871,7 +47883,7 @@
         <v>0.5</v>
       </c>
       <c r="AP225">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ225">
         <v>0.63</v>
@@ -48411,7 +48423,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48901,7 +48913,7 @@
         <v>0.92</v>
       </c>
       <c r="AP230">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ230">
         <v>0.6899999999999999</v>
@@ -49110,7 +49122,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ231">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR231">
         <v>1.15</v>
@@ -49235,7 +49247,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49519,7 +49531,7 @@
         <v>2.17</v>
       </c>
       <c r="AP233">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ233">
         <v>2</v>
@@ -49647,7 +49659,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49728,7 +49740,7 @@
         <v>3</v>
       </c>
       <c r="AQ234">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR234">
         <v>1.49</v>
@@ -49853,7 +49865,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -49931,7 +49943,7 @@
         <v>0.85</v>
       </c>
       <c r="AP235">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ235">
         <v>1.06</v>
@@ -50137,7 +50149,7 @@
         <v>0.54</v>
       </c>
       <c r="AP236">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ236">
         <v>0.63</v>
@@ -50265,7 +50277,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -50552,7 +50564,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ238">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR238">
         <v>1.45</v>
@@ -50758,7 +50770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ239">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR239">
         <v>1.25</v>
@@ -51295,7 +51307,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51501,7 +51513,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51788,7 +51800,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ244">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR244">
         <v>1.25</v>
@@ -51913,7 +51925,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -52325,7 +52337,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52406,7 +52418,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ247">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR247">
         <v>1.82</v>
@@ -52531,7 +52543,7 @@
         <v>249</v>
       </c>
       <c r="P248" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -52737,7 +52749,7 @@
         <v>250</v>
       </c>
       <c r="P249" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -52943,7 +52955,7 @@
         <v>251</v>
       </c>
       <c r="P250" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -53149,7 +53161,7 @@
         <v>147</v>
       </c>
       <c r="P251" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -53227,7 +53239,7 @@
         <v>1.69</v>
       </c>
       <c r="AP251">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ251">
         <v>1.56</v>
@@ -53433,7 +53445,7 @@
         <v>0.46</v>
       </c>
       <c r="AP252">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ252">
         <v>0.5</v>
@@ -53561,7 +53573,7 @@
         <v>90</v>
       </c>
       <c r="P253" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -53639,7 +53651,7 @@
         <v>2.23</v>
       </c>
       <c r="AP253">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ253">
         <v>2.29</v>
@@ -53848,7 +53860,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ254">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR254">
         <v>1.43</v>
@@ -53973,7 +53985,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -54051,7 +54063,7 @@
         <v>1</v>
       </c>
       <c r="AP255">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ255">
         <v>1.06</v>
@@ -54385,7 +54397,7 @@
         <v>254</v>
       </c>
       <c r="P257" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -54591,7 +54603,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -54797,7 +54809,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -54878,7 +54890,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ259">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR259">
         <v>1.37</v>
@@ -55081,10 +55093,10 @@
         <v>1.5</v>
       </c>
       <c r="AP260">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ260">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR260">
         <v>2</v>
@@ -55209,7 +55221,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -55415,7 +55427,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55621,7 +55633,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -55702,7 +55714,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ263">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR263">
         <v>1.11</v>
@@ -56033,7 +56045,7 @@
         <v>213</v>
       </c>
       <c r="P265" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -56239,7 +56251,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -56445,7 +56457,7 @@
         <v>260</v>
       </c>
       <c r="P267" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q267">
         <v>0</v>
@@ -56651,7 +56663,7 @@
         <v>261</v>
       </c>
       <c r="P268" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q268">
         <v>0</v>
@@ -56857,7 +56869,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q269">
         <v>0</v>
@@ -56935,7 +56947,7 @@
         <v>1.86</v>
       </c>
       <c r="AP269">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ269">
         <v>2</v>
@@ -57269,7 +57281,7 @@
         <v>242</v>
       </c>
       <c r="P271" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q271">
         <v>0</v>
@@ -57475,7 +57487,7 @@
         <v>264</v>
       </c>
       <c r="P272" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q272">
         <v>0</v>
@@ -57553,10 +57565,10 @@
         <v>1.4</v>
       </c>
       <c r="AP272">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ272">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR272">
         <v>1.12</v>
@@ -57681,7 +57693,7 @@
         <v>265</v>
       </c>
       <c r="P273" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57759,7 +57771,7 @@
         <v>0.67</v>
       </c>
       <c r="AP273">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ273">
         <v>0.63</v>
@@ -57887,7 +57899,7 @@
         <v>262</v>
       </c>
       <c r="P274" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q274">
         <v>0</v>
@@ -58171,7 +58183,7 @@
         <v>2.13</v>
       </c>
       <c r="AP275">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ275">
         <v>2.06</v>
@@ -58380,7 +58392,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ276">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR276">
         <v>1.46</v>
@@ -58505,7 +58517,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q277">
         <v>0</v>
@@ -58586,7 +58598,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ277">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR277">
         <v>1.13</v>
@@ -58917,7 +58929,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q279">
         <v>0</v>
@@ -58995,7 +59007,7 @@
         <v>2.33</v>
       </c>
       <c r="AP279">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ279">
         <v>2.29</v>
@@ -59123,7 +59135,7 @@
         <v>90</v>
       </c>
       <c r="P280" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -59204,7 +59216,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ280">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR280">
         <v>1.06</v>
@@ -60153,7 +60165,7 @@
         <v>90</v>
       </c>
       <c r="P285" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q285">
         <v>0</v>
@@ -60359,7 +60371,7 @@
         <v>271</v>
       </c>
       <c r="P286" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q286">
         <v>0</v>
@@ -60771,7 +60783,7 @@
         <v>272</v>
       </c>
       <c r="P288" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q288">
         <v>0</v>
@@ -61183,7 +61195,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q290">
         <v>0</v>
@@ -61389,7 +61401,7 @@
         <v>273</v>
       </c>
       <c r="P291" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q291">
         <v>0</v>
@@ -61688,31 +61700,31 @@
         <v>2.41</v>
       </c>
       <c r="AU292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW292">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY292">
+        <v>9</v>
+      </c>
+      <c r="AZ292">
+        <v>6</v>
+      </c>
+      <c r="BA292">
+        <v>4</v>
+      </c>
+      <c r="BB292">
         <v>7</v>
       </c>
-      <c r="AZ292">
-        <v>3</v>
-      </c>
-      <c r="BA292">
-        <v>2</v>
-      </c>
-      <c r="BB292">
-        <v>2</v>
-      </c>
       <c r="BC292">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BD292">
         <v>0</v>
@@ -61897,28 +61909,28 @@
         <v>2</v>
       </c>
       <c r="AV293">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX293">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY293">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ293">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB293">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC293">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BD293">
         <v>0</v>
@@ -62007,7 +62019,7 @@
         <v>275</v>
       </c>
       <c r="P294" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q294">
         <v>0</v>
@@ -62163,6 +62175,830 @@
         <v>0</v>
       </c>
       <c r="BP294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7025233</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45424.47916666666</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>71</v>
+      </c>
+      <c r="H295" t="s">
+        <v>72</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
+      <c r="L295">
+        <v>2</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" t="s">
+        <v>276</v>
+      </c>
+      <c r="P295" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="R295">
+        <v>0</v>
+      </c>
+      <c r="S295">
+        <v>0</v>
+      </c>
+      <c r="T295">
+        <v>0</v>
+      </c>
+      <c r="U295">
+        <v>0</v>
+      </c>
+      <c r="V295">
+        <v>0</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
+      <c r="Z295">
+        <v>2.01</v>
+      </c>
+      <c r="AA295">
+        <v>3.6</v>
+      </c>
+      <c r="AB295">
+        <v>3.6</v>
+      </c>
+      <c r="AC295">
+        <v>0</v>
+      </c>
+      <c r="AD295">
+        <v>0</v>
+      </c>
+      <c r="AE295">
+        <v>0</v>
+      </c>
+      <c r="AF295">
+        <v>0</v>
+      </c>
+      <c r="AG295">
+        <v>1.8</v>
+      </c>
+      <c r="AH295">
+        <v>2</v>
+      </c>
+      <c r="AI295">
+        <v>0</v>
+      </c>
+      <c r="AJ295">
+        <v>0</v>
+      </c>
+      <c r="AK295">
+        <v>0</v>
+      </c>
+      <c r="AL295">
+        <v>0</v>
+      </c>
+      <c r="AM295">
+        <v>0</v>
+      </c>
+      <c r="AN295">
+        <v>1.38</v>
+      </c>
+      <c r="AO295">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP295">
+        <v>1.47</v>
+      </c>
+      <c r="AQ295">
+        <v>0.88</v>
+      </c>
+      <c r="AR295">
+        <v>1.1</v>
+      </c>
+      <c r="AS295">
+        <v>1.02</v>
+      </c>
+      <c r="AT295">
+        <v>2.12</v>
+      </c>
+      <c r="AU295">
+        <v>3</v>
+      </c>
+      <c r="AV295">
+        <v>4</v>
+      </c>
+      <c r="AW295">
+        <v>5</v>
+      </c>
+      <c r="AX295">
+        <v>8</v>
+      </c>
+      <c r="AY295">
+        <v>8</v>
+      </c>
+      <c r="AZ295">
+        <v>12</v>
+      </c>
+      <c r="BA295">
+        <v>4</v>
+      </c>
+      <c r="BB295">
+        <v>4</v>
+      </c>
+      <c r="BC295">
+        <v>8</v>
+      </c>
+      <c r="BD295">
+        <v>0</v>
+      </c>
+      <c r="BE295">
+        <v>0</v>
+      </c>
+      <c r="BF295">
+        <v>0</v>
+      </c>
+      <c r="BG295">
+        <v>0</v>
+      </c>
+      <c r="BH295">
+        <v>0</v>
+      </c>
+      <c r="BI295">
+        <v>0</v>
+      </c>
+      <c r="BJ295">
+        <v>0</v>
+      </c>
+      <c r="BK295">
+        <v>0</v>
+      </c>
+      <c r="BL295">
+        <v>0</v>
+      </c>
+      <c r="BM295">
+        <v>0</v>
+      </c>
+      <c r="BN295">
+        <v>0</v>
+      </c>
+      <c r="BO295">
+        <v>0</v>
+      </c>
+      <c r="BP295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7025236</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45424.58333333334</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>83</v>
+      </c>
+      <c r="H296" t="s">
+        <v>76</v>
+      </c>
+      <c r="I296">
+        <v>3</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>3</v>
+      </c>
+      <c r="L296">
+        <v>5</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>5</v>
+      </c>
+      <c r="O296" t="s">
+        <v>277</v>
+      </c>
+      <c r="P296" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>0</v>
+      </c>
+      <c r="S296">
+        <v>0</v>
+      </c>
+      <c r="T296">
+        <v>0</v>
+      </c>
+      <c r="U296">
+        <v>0</v>
+      </c>
+      <c r="V296">
+        <v>0</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>0</v>
+      </c>
+      <c r="Z296">
+        <v>1.26</v>
+      </c>
+      <c r="AA296">
+        <v>6.45</v>
+      </c>
+      <c r="AB296">
+        <v>9.6</v>
+      </c>
+      <c r="AC296">
+        <v>0</v>
+      </c>
+      <c r="AD296">
+        <v>0</v>
+      </c>
+      <c r="AE296">
+        <v>0</v>
+      </c>
+      <c r="AF296">
+        <v>0</v>
+      </c>
+      <c r="AG296">
+        <v>1.35</v>
+      </c>
+      <c r="AH296">
+        <v>2.94</v>
+      </c>
+      <c r="AI296">
+        <v>0</v>
+      </c>
+      <c r="AJ296">
+        <v>0</v>
+      </c>
+      <c r="AK296">
+        <v>0</v>
+      </c>
+      <c r="AL296">
+        <v>0</v>
+      </c>
+      <c r="AM296">
+        <v>0</v>
+      </c>
+      <c r="AN296">
+        <v>2.75</v>
+      </c>
+      <c r="AO296">
+        <v>1.38</v>
+      </c>
+      <c r="AP296">
+        <v>2.76</v>
+      </c>
+      <c r="AQ296">
+        <v>1.29</v>
+      </c>
+      <c r="AR296">
+        <v>1.92</v>
+      </c>
+      <c r="AS296">
+        <v>1.12</v>
+      </c>
+      <c r="AT296">
+        <v>3.04</v>
+      </c>
+      <c r="AU296">
+        <v>6</v>
+      </c>
+      <c r="AV296">
+        <v>3</v>
+      </c>
+      <c r="AW296">
+        <v>5</v>
+      </c>
+      <c r="AX296">
+        <v>3</v>
+      </c>
+      <c r="AY296">
+        <v>11</v>
+      </c>
+      <c r="AZ296">
+        <v>6</v>
+      </c>
+      <c r="BA296">
+        <v>3</v>
+      </c>
+      <c r="BB296">
+        <v>3</v>
+      </c>
+      <c r="BC296">
+        <v>6</v>
+      </c>
+      <c r="BD296">
+        <v>0</v>
+      </c>
+      <c r="BE296">
+        <v>0</v>
+      </c>
+      <c r="BF296">
+        <v>0</v>
+      </c>
+      <c r="BG296">
+        <v>0</v>
+      </c>
+      <c r="BH296">
+        <v>0</v>
+      </c>
+      <c r="BI296">
+        <v>0</v>
+      </c>
+      <c r="BJ296">
+        <v>0</v>
+      </c>
+      <c r="BK296">
+        <v>0</v>
+      </c>
+      <c r="BL296">
+        <v>0</v>
+      </c>
+      <c r="BM296">
+        <v>0</v>
+      </c>
+      <c r="BN296">
+        <v>0</v>
+      </c>
+      <c r="BO296">
+        <v>0</v>
+      </c>
+      <c r="BP296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7025234</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45424.58333333334</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>79</v>
+      </c>
+      <c r="H297" t="s">
+        <v>77</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>1</v>
+      </c>
+      <c r="O297" t="s">
+        <v>90</v>
+      </c>
+      <c r="P297" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>0</v>
+      </c>
+      <c r="S297">
+        <v>0</v>
+      </c>
+      <c r="T297">
+        <v>0</v>
+      </c>
+      <c r="U297">
+        <v>0</v>
+      </c>
+      <c r="V297">
+        <v>0</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>0</v>
+      </c>
+      <c r="Z297">
+        <v>2.59</v>
+      </c>
+      <c r="AA297">
+        <v>3.13</v>
+      </c>
+      <c r="AB297">
+        <v>2.88</v>
+      </c>
+      <c r="AC297">
+        <v>0</v>
+      </c>
+      <c r="AD297">
+        <v>0</v>
+      </c>
+      <c r="AE297">
+        <v>0</v>
+      </c>
+      <c r="AF297">
+        <v>0</v>
+      </c>
+      <c r="AG297">
+        <v>2.49</v>
+      </c>
+      <c r="AH297">
+        <v>1.54</v>
+      </c>
+      <c r="AI297">
+        <v>0</v>
+      </c>
+      <c r="AJ297">
+        <v>0</v>
+      </c>
+      <c r="AK297">
+        <v>0</v>
+      </c>
+      <c r="AL297">
+        <v>0</v>
+      </c>
+      <c r="AM297">
+        <v>0</v>
+      </c>
+      <c r="AN297">
+        <v>0.88</v>
+      </c>
+      <c r="AO297">
+        <v>1.5</v>
+      </c>
+      <c r="AP297">
+        <v>0.82</v>
+      </c>
+      <c r="AQ297">
+        <v>1.59</v>
+      </c>
+      <c r="AR297">
+        <v>1.12</v>
+      </c>
+      <c r="AS297">
+        <v>1.01</v>
+      </c>
+      <c r="AT297">
+        <v>2.13</v>
+      </c>
+      <c r="AU297">
+        <v>2</v>
+      </c>
+      <c r="AV297">
+        <v>5</v>
+      </c>
+      <c r="AW297">
+        <v>5</v>
+      </c>
+      <c r="AX297">
+        <v>3</v>
+      </c>
+      <c r="AY297">
+        <v>7</v>
+      </c>
+      <c r="AZ297">
+        <v>8</v>
+      </c>
+      <c r="BA297">
+        <v>5</v>
+      </c>
+      <c r="BB297">
+        <v>1</v>
+      </c>
+      <c r="BC297">
+        <v>6</v>
+      </c>
+      <c r="BD297">
+        <v>0</v>
+      </c>
+      <c r="BE297">
+        <v>0</v>
+      </c>
+      <c r="BF297">
+        <v>0</v>
+      </c>
+      <c r="BG297">
+        <v>0</v>
+      </c>
+      <c r="BH297">
+        <v>0</v>
+      </c>
+      <c r="BI297">
+        <v>0</v>
+      </c>
+      <c r="BJ297">
+        <v>0</v>
+      </c>
+      <c r="BK297">
+        <v>0</v>
+      </c>
+      <c r="BL297">
+        <v>0</v>
+      </c>
+      <c r="BM297">
+        <v>0</v>
+      </c>
+      <c r="BN297">
+        <v>0</v>
+      </c>
+      <c r="BO297">
+        <v>0</v>
+      </c>
+      <c r="BP297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7025238</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45424.6875</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>85</v>
+      </c>
+      <c r="H298" t="s">
+        <v>78</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>2</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>3</v>
+      </c>
+      <c r="O298" t="s">
+        <v>278</v>
+      </c>
+      <c r="P298" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>0</v>
+      </c>
+      <c r="S298">
+        <v>0</v>
+      </c>
+      <c r="T298">
+        <v>0</v>
+      </c>
+      <c r="U298">
+        <v>0</v>
+      </c>
+      <c r="V298">
+        <v>0</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>0</v>
+      </c>
+      <c r="Z298">
+        <v>1.19</v>
+      </c>
+      <c r="AA298">
+        <v>7</v>
+      </c>
+      <c r="AB298">
+        <v>13.5</v>
+      </c>
+      <c r="AC298">
+        <v>0</v>
+      </c>
+      <c r="AD298">
+        <v>0</v>
+      </c>
+      <c r="AE298">
+        <v>0</v>
+      </c>
+      <c r="AF298">
+        <v>0</v>
+      </c>
+      <c r="AG298">
+        <v>1.47</v>
+      </c>
+      <c r="AH298">
+        <v>2.5</v>
+      </c>
+      <c r="AI298">
+        <v>0</v>
+      </c>
+      <c r="AJ298">
+        <v>0</v>
+      </c>
+      <c r="AK298">
+        <v>0</v>
+      </c>
+      <c r="AL298">
+        <v>0</v>
+      </c>
+      <c r="AM298">
+        <v>0</v>
+      </c>
+      <c r="AN298">
+        <v>2.13</v>
+      </c>
+      <c r="AO298">
+        <v>0.75</v>
+      </c>
+      <c r="AP298">
+        <v>2.18</v>
+      </c>
+      <c r="AQ298">
+        <v>0.71</v>
+      </c>
+      <c r="AR298">
+        <v>1.87</v>
+      </c>
+      <c r="AS298">
+        <v>0.98</v>
+      </c>
+      <c r="AT298">
+        <v>2.85</v>
+      </c>
+      <c r="AU298">
+        <v>0</v>
+      </c>
+      <c r="AV298">
+        <v>2</v>
+      </c>
+      <c r="AW298">
+        <v>2</v>
+      </c>
+      <c r="AX298">
+        <v>1</v>
+      </c>
+      <c r="AY298">
+        <v>2</v>
+      </c>
+      <c r="AZ298">
+        <v>3</v>
+      </c>
+      <c r="BA298">
+        <v>3</v>
+      </c>
+      <c r="BB298">
+        <v>2</v>
+      </c>
+      <c r="BC298">
+        <v>5</v>
+      </c>
+      <c r="BD298">
+        <v>0</v>
+      </c>
+      <c r="BE298">
+        <v>0</v>
+      </c>
+      <c r="BF298">
+        <v>0</v>
+      </c>
+      <c r="BG298">
+        <v>0</v>
+      </c>
+      <c r="BH298">
+        <v>0</v>
+      </c>
+      <c r="BI298">
+        <v>0</v>
+      </c>
+      <c r="BJ298">
+        <v>0</v>
+      </c>
+      <c r="BK298">
+        <v>0</v>
+      </c>
+      <c r="BL298">
+        <v>0</v>
+      </c>
+      <c r="BM298">
+        <v>0</v>
+      </c>
+      <c r="BN298">
+        <v>0</v>
+      </c>
+      <c r="BO298">
+        <v>0</v>
+      </c>
+      <c r="BP298">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -62936,31 +62936,31 @@
         <v>2.85</v>
       </c>
       <c r="AU298">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV298">
         <v>2</v>
       </c>
       <c r="AW298">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX298">
         <v>1</v>
       </c>
       <c r="AY298">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AZ298">
         <v>3</v>
       </c>
       <c r="BA298">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB298">
         <v>2</v>
       </c>
       <c r="BC298">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD298">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -853,6 +853,9 @@
     <t>['81', '90+8']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1216,9 +1219,6 @@
     <t>['65']</t>
   </si>
   <si>
-    <t>['4']</t>
-  </si>
-  <si>
     <t>['76', '90+4']</t>
   </si>
   <si>
@@ -1247,6 +1247,12 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['22', '56']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1867,7 +1873,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2279,7 +2285,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2360,7 +2366,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2485,7 +2491,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2769,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2897,7 +2903,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3103,7 +3109,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3309,7 +3315,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3515,7 +3521,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3596,7 +3602,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3721,7 +3727,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4133,7 +4139,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4339,7 +4345,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4957,7 +4963,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5163,7 +5169,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5447,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ19">
         <v>1.59</v>
@@ -5575,7 +5581,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5781,7 +5787,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6193,7 +6199,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6274,7 +6280,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR23">
         <v>0.57</v>
@@ -6399,7 +6405,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6480,7 +6486,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ24">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR24">
         <v>0.57</v>
@@ -7017,7 +7023,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7095,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -7919,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ31">
         <v>0.88</v>
@@ -8253,7 +8259,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8459,7 +8465,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8871,7 +8877,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9077,7 +9083,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9283,7 +9289,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9567,7 +9573,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ39">
         <v>1.06</v>
@@ -9901,7 +9907,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -9982,7 +9988,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -10188,7 +10194,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -10313,7 +10319,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10519,7 +10525,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -11215,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ47">
         <v>1.29</v>
@@ -11549,7 +11555,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -12167,7 +12173,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12373,7 +12379,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12454,7 +12460,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -12579,7 +12585,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12991,7 +12997,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13403,7 +13409,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13609,7 +13615,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13815,7 +13821,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -14227,7 +14233,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14433,7 +14439,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14511,7 +14517,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ63">
         <v>1.59</v>
@@ -14720,7 +14726,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ64">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR64">
         <v>0.96</v>
@@ -14845,7 +14851,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -15051,7 +15057,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15463,7 +15469,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15750,7 +15756,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR69">
         <v>1.28</v>
@@ -15875,7 +15881,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -15953,7 +15959,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ70">
         <v>1.56</v>
@@ -16699,7 +16705,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -17192,7 +17198,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ76">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR76">
         <v>2.21</v>
@@ -17523,7 +17529,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17729,7 +17735,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -17807,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ79">
         <v>0.88</v>
@@ -18141,7 +18147,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18347,7 +18353,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18553,7 +18559,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18759,7 +18765,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18840,7 +18846,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
         <v>1.39</v>
@@ -18965,7 +18971,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19043,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ85">
         <v>0.6899999999999999</v>
@@ -19867,7 +19873,7 @@
         <v>1.75</v>
       </c>
       <c r="AP89">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ89">
         <v>0.71</v>
@@ -19995,7 +20001,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20488,7 +20494,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ92">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR92">
         <v>1.32</v>
@@ -21231,7 +21237,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21643,7 +21649,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -22467,7 +22473,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22751,7 +22757,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ103">
         <v>0.71</v>
@@ -22879,7 +22885,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -22957,7 +22963,7 @@
         <v>2.5</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ104">
         <v>2</v>
@@ -23291,7 +23297,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23578,7 +23584,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR107">
         <v>1.15</v>
@@ -23703,7 +23709,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -24115,7 +24121,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24733,7 +24739,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24939,7 +24945,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25020,7 +25026,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ114">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR114">
         <v>2.14</v>
@@ -25351,7 +25357,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25763,7 +25769,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26253,7 +26259,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ120">
         <v>0.6899999999999999</v>
@@ -26587,7 +26593,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26793,7 +26799,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26999,7 +27005,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27080,7 +27086,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ124">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR124">
         <v>1.24</v>
@@ -27205,7 +27211,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27283,7 +27289,7 @@
         <v>0.43</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ125">
         <v>0.5</v>
@@ -27411,7 +27417,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27492,7 +27498,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR126">
         <v>1.81</v>
@@ -28235,7 +28241,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -29265,7 +29271,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29471,7 +29477,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -30501,7 +30507,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30582,7 +30588,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ141">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR141">
         <v>1.37</v>
@@ -30707,7 +30713,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30991,7 +30997,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ143">
         <v>0.88</v>
@@ -31119,7 +31125,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31197,7 +31203,7 @@
         <v>0.38</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ144">
         <v>0.63</v>
@@ -31325,7 +31331,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31406,7 +31412,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ145">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR145">
         <v>1.11</v>
@@ -31737,7 +31743,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31943,7 +31949,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -32149,7 +32155,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32767,7 +32773,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -33385,7 +33391,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33463,7 +33469,7 @@
         <v>2.11</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ155">
         <v>2.06</v>
@@ -33591,7 +33597,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -34003,7 +34009,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34209,7 +34215,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34621,7 +34627,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -35239,7 +35245,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35651,7 +35657,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -36269,7 +36275,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36350,7 +36356,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ169">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR169">
         <v>0.99</v>
@@ -36556,7 +36562,7 @@
         <v>3</v>
       </c>
       <c r="AQ170">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR170">
         <v>1.61</v>
@@ -36759,7 +36765,7 @@
         <v>0.44</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ171">
         <v>0.5</v>
@@ -37093,7 +37099,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37711,7 +37717,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -38947,7 +38953,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39359,7 +39365,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39643,10 +39649,10 @@
         <v>1.4</v>
       </c>
       <c r="AP185">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ185">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR185">
         <v>1.14</v>
@@ -39977,7 +39983,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40058,7 +40064,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ187">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
         <v>1.36</v>
@@ -40183,7 +40189,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40673,7 +40679,7 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ190">
         <v>0.65</v>
@@ -41007,7 +41013,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41831,7 +41837,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -42243,7 +42249,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42449,7 +42455,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -43067,7 +43073,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43148,7 +43154,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ202">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR202">
         <v>1.35</v>
@@ -43273,7 +43279,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43891,7 +43897,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -43969,7 +43975,7 @@
         <v>2.2</v>
       </c>
       <c r="AP206">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ206">
         <v>2.29</v>
@@ -44097,7 +44103,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44303,7 +44309,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44715,7 +44721,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -45539,7 +45545,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -45826,7 +45832,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ215">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR215">
         <v>1.91</v>
@@ -46029,7 +46035,7 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ216">
         <v>0.71</v>
@@ -46157,7 +46163,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46444,7 +46450,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ218">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR218">
         <v>1.05</v>
@@ -46853,7 +46859,7 @@
         <v>2.08</v>
       </c>
       <c r="AP220">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ220">
         <v>2.06</v>
@@ -47393,7 +47399,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47599,7 +47605,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -48295,7 +48301,7 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ227">
         <v>0.71</v>
@@ -48423,7 +48429,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -49247,7 +49253,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49534,7 +49540,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ233">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR233">
         <v>1.12</v>
@@ -49659,7 +49665,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49865,7 +49871,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50277,7 +50283,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -51307,7 +51313,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51388,7 +51394,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ242">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR242">
         <v>1.39</v>
@@ -51513,7 +51519,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51925,7 +51931,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -52003,7 +52009,7 @@
         <v>0.85</v>
       </c>
       <c r="AP245">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ245">
         <v>0.6899999999999999</v>
@@ -52209,7 +52215,7 @@
         <v>0.54</v>
       </c>
       <c r="AP246">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ246">
         <v>0.6899999999999999</v>
@@ -52337,7 +52343,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52543,7 +52549,7 @@
         <v>249</v>
       </c>
       <c r="P248" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -52624,7 +52630,7 @@
         <v>3</v>
       </c>
       <c r="AQ248">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR248">
         <v>1.53</v>
@@ -52749,7 +52755,7 @@
         <v>250</v>
       </c>
       <c r="P249" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -52955,7 +52961,7 @@
         <v>251</v>
       </c>
       <c r="P250" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -53161,7 +53167,7 @@
         <v>147</v>
       </c>
       <c r="P251" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -53573,7 +53579,7 @@
         <v>90</v>
       </c>
       <c r="P253" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -53985,7 +53991,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -54397,7 +54403,7 @@
         <v>254</v>
       </c>
       <c r="P257" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -54603,7 +54609,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -54684,7 +54690,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ258">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR258">
         <v>1.15</v>
@@ -54809,7 +54815,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -55221,7 +55227,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -55427,7 +55433,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55505,7 +55511,7 @@
         <v>2.29</v>
       </c>
       <c r="AP262">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ262">
         <v>2.29</v>
@@ -55633,7 +55639,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -55711,7 +55717,7 @@
         <v>1.43</v>
       </c>
       <c r="AP263">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ263">
         <v>1.29</v>
@@ -56045,7 +56051,7 @@
         <v>213</v>
       </c>
       <c r="P265" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -56251,7 +56257,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -56457,7 +56463,7 @@
         <v>260</v>
       </c>
       <c r="P267" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q267">
         <v>0</v>
@@ -56663,7 +56669,7 @@
         <v>261</v>
       </c>
       <c r="P268" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q268">
         <v>0</v>
@@ -56741,7 +56747,7 @@
         <v>0.93</v>
       </c>
       <c r="AP268">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ268">
         <v>0.88</v>
@@ -56869,7 +56875,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q269">
         <v>0</v>
@@ -57281,7 +57287,7 @@
         <v>242</v>
       </c>
       <c r="P271" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q271">
         <v>0</v>
@@ -57362,7 +57368,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ271">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR271">
         <v>1.27</v>
@@ -57487,7 +57493,7 @@
         <v>264</v>
       </c>
       <c r="P272" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q272">
         <v>0</v>
@@ -57693,7 +57699,7 @@
         <v>265</v>
       </c>
       <c r="P273" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57899,7 +57905,7 @@
         <v>262</v>
       </c>
       <c r="P274" t="s">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="Q274">
         <v>0</v>
@@ -59625,7 +59631,7 @@
         <v>1.67</v>
       </c>
       <c r="AP282">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ282">
         <v>1.56</v>
@@ -60864,7 +60870,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ288">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR288">
         <v>1.86</v>
@@ -61067,10 +61073,10 @@
         <v>2.13</v>
       </c>
       <c r="AP289">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ289">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR289">
         <v>1.3</v>
@@ -62637,7 +62643,7 @@
         <v>90</v>
       </c>
       <c r="P297" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -62999,6 +63005,418 @@
         <v>0</v>
       </c>
       <c r="BP298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7025243</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45429.61458333334</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>87</v>
+      </c>
+      <c r="H299" t="s">
+        <v>79</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299">
+        <v>2</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299">
+        <v>2</v>
+      </c>
+      <c r="N299">
+        <v>3</v>
+      </c>
+      <c r="O299" t="s">
+        <v>279</v>
+      </c>
+      <c r="P299" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <v>0</v>
+      </c>
+      <c r="S299">
+        <v>0</v>
+      </c>
+      <c r="T299">
+        <v>0</v>
+      </c>
+      <c r="U299">
+        <v>0</v>
+      </c>
+      <c r="V299">
+        <v>0</v>
+      </c>
+      <c r="W299">
+        <v>0</v>
+      </c>
+      <c r="X299">
+        <v>0</v>
+      </c>
+      <c r="Y299">
+        <v>0</v>
+      </c>
+      <c r="Z299">
+        <v>1.85</v>
+      </c>
+      <c r="AA299">
+        <v>3.3</v>
+      </c>
+      <c r="AB299">
+        <v>3.75</v>
+      </c>
+      <c r="AC299">
+        <v>0</v>
+      </c>
+      <c r="AD299">
+        <v>0</v>
+      </c>
+      <c r="AE299">
+        <v>0</v>
+      </c>
+      <c r="AF299">
+        <v>0</v>
+      </c>
+      <c r="AG299">
+        <v>2</v>
+      </c>
+      <c r="AH299">
+        <v>1.73</v>
+      </c>
+      <c r="AI299">
+        <v>0</v>
+      </c>
+      <c r="AJ299">
+        <v>0</v>
+      </c>
+      <c r="AK299">
+        <v>0</v>
+      </c>
+      <c r="AL299">
+        <v>0</v>
+      </c>
+      <c r="AM299">
+        <v>0</v>
+      </c>
+      <c r="AN299">
+        <v>1.5</v>
+      </c>
+      <c r="AO299">
+        <v>1.31</v>
+      </c>
+      <c r="AP299">
+        <v>1.41</v>
+      </c>
+      <c r="AQ299">
+        <v>1.41</v>
+      </c>
+      <c r="AR299">
+        <v>1.27</v>
+      </c>
+      <c r="AS299">
+        <v>1.04</v>
+      </c>
+      <c r="AT299">
+        <v>2.31</v>
+      </c>
+      <c r="AU299">
+        <v>6</v>
+      </c>
+      <c r="AV299">
+        <v>4</v>
+      </c>
+      <c r="AW299">
+        <v>9</v>
+      </c>
+      <c r="AX299">
+        <v>2</v>
+      </c>
+      <c r="AY299">
+        <v>15</v>
+      </c>
+      <c r="AZ299">
+        <v>6</v>
+      </c>
+      <c r="BA299">
+        <v>3</v>
+      </c>
+      <c r="BB299">
+        <v>5</v>
+      </c>
+      <c r="BC299">
+        <v>8</v>
+      </c>
+      <c r="BD299">
+        <v>0</v>
+      </c>
+      <c r="BE299">
+        <v>0</v>
+      </c>
+      <c r="BF299">
+        <v>0</v>
+      </c>
+      <c r="BG299">
+        <v>0</v>
+      </c>
+      <c r="BH299">
+        <v>0</v>
+      </c>
+      <c r="BI299">
+        <v>0</v>
+      </c>
+      <c r="BJ299">
+        <v>0</v>
+      </c>
+      <c r="BK299">
+        <v>0</v>
+      </c>
+      <c r="BL299">
+        <v>0</v>
+      </c>
+      <c r="BM299">
+        <v>0</v>
+      </c>
+      <c r="BN299">
+        <v>0</v>
+      </c>
+      <c r="BO299">
+        <v>0</v>
+      </c>
+      <c r="BP299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7025244</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45429.69791666666</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>74</v>
+      </c>
+      <c r="H300" t="s">
+        <v>83</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" t="s">
+        <v>178</v>
+      </c>
+      <c r="P300" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="R300">
+        <v>0</v>
+      </c>
+      <c r="S300">
+        <v>0</v>
+      </c>
+      <c r="T300">
+        <v>0</v>
+      </c>
+      <c r="U300">
+        <v>0</v>
+      </c>
+      <c r="V300">
+        <v>0</v>
+      </c>
+      <c r="W300">
+        <v>0</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>0</v>
+      </c>
+      <c r="Z300">
+        <v>7.5</v>
+      </c>
+      <c r="AA300">
+        <v>4.8</v>
+      </c>
+      <c r="AB300">
+        <v>1.33</v>
+      </c>
+      <c r="AC300">
+        <v>0</v>
+      </c>
+      <c r="AD300">
+        <v>0</v>
+      </c>
+      <c r="AE300">
+        <v>0</v>
+      </c>
+      <c r="AF300">
+        <v>0</v>
+      </c>
+      <c r="AG300">
+        <v>1.57</v>
+      </c>
+      <c r="AH300">
+        <v>2.25</v>
+      </c>
+      <c r="AI300">
+        <v>0</v>
+      </c>
+      <c r="AJ300">
+        <v>0</v>
+      </c>
+      <c r="AK300">
+        <v>0</v>
+      </c>
+      <c r="AL300">
+        <v>0</v>
+      </c>
+      <c r="AM300">
+        <v>0</v>
+      </c>
+      <c r="AN300">
+        <v>1.56</v>
+      </c>
+      <c r="AO300">
+        <v>2</v>
+      </c>
+      <c r="AP300">
+        <v>1.53</v>
+      </c>
+      <c r="AQ300">
+        <v>1.94</v>
+      </c>
+      <c r="AR300">
+        <v>1.06</v>
+      </c>
+      <c r="AS300">
+        <v>1.49</v>
+      </c>
+      <c r="AT300">
+        <v>2.55</v>
+      </c>
+      <c r="AU300">
+        <v>2</v>
+      </c>
+      <c r="AV300">
+        <v>4</v>
+      </c>
+      <c r="AW300">
+        <v>2</v>
+      </c>
+      <c r="AX300">
+        <v>2</v>
+      </c>
+      <c r="AY300">
+        <v>4</v>
+      </c>
+      <c r="AZ300">
+        <v>6</v>
+      </c>
+      <c r="BA300">
+        <v>1</v>
+      </c>
+      <c r="BB300">
+        <v>3</v>
+      </c>
+      <c r="BC300">
+        <v>4</v>
+      </c>
+      <c r="BD300">
+        <v>0</v>
+      </c>
+      <c r="BE300">
+        <v>0</v>
+      </c>
+      <c r="BF300">
+        <v>0</v>
+      </c>
+      <c r="BG300">
+        <v>0</v>
+      </c>
+      <c r="BH300">
+        <v>0</v>
+      </c>
+      <c r="BI300">
+        <v>0</v>
+      </c>
+      <c r="BJ300">
+        <v>0</v>
+      </c>
+      <c r="BK300">
+        <v>0</v>
+      </c>
+      <c r="BL300">
+        <v>0</v>
+      </c>
+      <c r="BM300">
+        <v>0</v>
+      </c>
+      <c r="BN300">
+        <v>0</v>
+      </c>
+      <c r="BO300">
+        <v>0</v>
+      </c>
+      <c r="BP300">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="417">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -856,6 +856,15 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['53', '90+11']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -863,9 +872,6 @@
   </si>
   <si>
     <t>['75', '77']</t>
-  </si>
-  <si>
-    <t>['24']</t>
   </si>
   <si>
     <t>['10', '49', '70']</t>
@@ -968,9 +974,6 @@
   </si>
   <si>
     <t>['1', '45+4', '77']</t>
-  </si>
-  <si>
-    <t>['39']</t>
   </si>
   <si>
     <t>['71', '78', '82']</t>
@@ -1253,6 +1256,15 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['30', '61']</t>
+  </si>
+  <si>
+    <t>['11', '32', '90+7']</t>
+  </si>
+  <si>
+    <t>['50', '53', '62']</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP300"/>
+  <dimension ref="A1:BP304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1873,7 +1885,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2160,7 +2172,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ3">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2285,7 +2297,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2363,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
         <v>1.41</v>
@@ -2491,7 +2503,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2572,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2903,7 +2915,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2981,10 +2993,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ7">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3109,7 +3121,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3187,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3315,7 +3327,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3521,7 +3533,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3599,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10">
         <v>1.94</v>
@@ -3727,7 +3739,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4014,7 +4026,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ12">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4139,7 +4151,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4345,7 +4357,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4963,7 +4975,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5169,7 +5181,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5581,7 +5593,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5659,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5787,7 +5799,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5865,10 +5877,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0.73</v>
@@ -6071,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
         <v>0.63</v>
@@ -6199,7 +6211,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6405,7 +6417,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -6483,7 +6495,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ24">
         <v>1.41</v>
@@ -6692,7 +6704,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ25">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR25">
         <v>1.36</v>
@@ -7023,7 +7035,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7310,7 +7322,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ28">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR28">
         <v>1.77</v>
@@ -8134,7 +8146,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ32">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR32">
         <v>2.86</v>
@@ -8259,7 +8271,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8465,7 +8477,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8877,7 +8889,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9083,7 +9095,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9289,7 +9301,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9367,7 +9379,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -9779,7 +9791,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ40">
         <v>2.06</v>
@@ -9907,7 +9919,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10191,7 +10203,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ42">
         <v>1.41</v>
@@ -10319,7 +10331,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10525,7 +10537,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10606,7 +10618,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ44">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.13</v>
@@ -11015,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ46">
         <v>0.63</v>
@@ -11555,7 +11567,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -11636,7 +11648,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11842,7 +11854,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ50">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -12048,7 +12060,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ51">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR51">
         <v>2.12</v>
@@ -12173,7 +12185,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12379,7 +12391,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12585,7 +12597,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12997,7 +13009,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13075,7 +13087,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ56">
         <v>2.06</v>
@@ -13409,7 +13421,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13490,7 +13502,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.52</v>
@@ -13615,7 +13627,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13693,7 +13705,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ59">
         <v>1.06</v>
@@ -13821,7 +13833,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -13899,7 +13911,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
         <v>2.29</v>
@@ -14105,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ61">
         <v>0.63</v>
@@ -14233,7 +14245,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14439,7 +14451,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14851,7 +14863,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -15057,7 +15069,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15138,7 +15150,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ66">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -15341,10 +15353,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15469,7 +15481,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15881,7 +15893,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -15962,7 +15974,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ70">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR70">
         <v>1.22</v>
@@ -16374,7 +16386,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>2.15</v>
@@ -16705,7 +16717,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -16783,7 +16795,7 @@
         <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ74">
         <v>1.59</v>
@@ -17529,7 +17541,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17735,7 +17747,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -18019,7 +18031,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ80">
         <v>1.06</v>
@@ -18147,7 +18159,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18353,7 +18365,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18431,7 +18443,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ82">
         <v>2.29</v>
@@ -18559,7 +18571,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18765,7 +18777,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18971,7 +18983,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19052,7 +19064,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ85">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -19258,7 +19270,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ86">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.83</v>
@@ -19464,7 +19476,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR87">
         <v>1.19</v>
@@ -19670,7 +19682,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ88">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -20001,7 +20013,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20285,7 +20297,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ91">
         <v>1.29</v>
@@ -20903,7 +20915,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ94">
         <v>1.59</v>
@@ -21237,7 +21249,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21649,7 +21661,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -21727,7 +21739,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ98">
         <v>0.88</v>
@@ -21933,7 +21945,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ99">
         <v>2.06</v>
@@ -22348,7 +22360,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ101">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR101">
         <v>1.24</v>
@@ -22473,7 +22485,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22551,10 +22563,10 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR102">
         <v>1.32</v>
@@ -22885,7 +22897,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -23172,7 +23184,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.16</v>
@@ -23297,7 +23309,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23709,7 +23721,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -23787,7 +23799,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ108">
         <v>1.29</v>
@@ -23996,7 +24008,7 @@
         <v>3</v>
       </c>
       <c r="AQ109">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -24121,7 +24133,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24739,7 +24751,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24945,7 +24957,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25229,7 +25241,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ115">
         <v>0.71</v>
@@ -25357,7 +25369,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25435,7 +25447,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ116">
         <v>0.65</v>
@@ -25769,7 +25781,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26053,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ119">
         <v>0.71</v>
@@ -26262,7 +26274,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ120">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR120">
         <v>1.15</v>
@@ -26465,10 +26477,10 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ121">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR121">
         <v>1.42</v>
@@ -26593,7 +26605,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26671,10 +26683,10 @@
         <v>1.67</v>
       </c>
       <c r="AP122">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ122">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR122">
         <v>1.01</v>
@@ -26799,7 +26811,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26880,7 +26892,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.11</v>
@@ -27005,7 +27017,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27211,7 +27223,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27417,7 +27429,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -28241,7 +28253,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28319,7 +28331,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ130">
         <v>1.29</v>
@@ -29271,7 +29283,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29477,7 +29489,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29967,7 +29979,7 @@
         <v>2.25</v>
       </c>
       <c r="AP138">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ138">
         <v>2</v>
@@ -30173,10 +30185,10 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ139">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR139">
         <v>1.23</v>
@@ -30379,10 +30391,10 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ140">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR140">
         <v>0.99</v>
@@ -30507,7 +30519,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30585,7 +30597,7 @@
         <v>2.38</v>
       </c>
       <c r="AP141">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ141">
         <v>1.94</v>
@@ -30713,7 +30725,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30794,7 +30806,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ142">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR142">
         <v>1.87</v>
@@ -31000,7 +31012,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ143">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.17</v>
@@ -31125,7 +31137,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31331,7 +31343,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31743,7 +31755,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31949,7 +31961,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -32155,7 +32167,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32773,7 +32785,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -33391,7 +33403,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33597,7 +33609,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -34009,7 +34021,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34215,7 +34227,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34627,7 +34639,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -34708,7 +34720,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ161">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -35245,7 +35257,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35323,10 +35335,10 @@
         <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ164">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>0.98</v>
@@ -35657,7 +35669,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35735,7 +35747,7 @@
         <v>2.11</v>
       </c>
       <c r="AP166">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ166">
         <v>2</v>
@@ -35941,10 +35953,10 @@
         <v>0.88</v>
       </c>
       <c r="AP167">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ167">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -36150,7 +36162,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR168">
         <v>1.11</v>
@@ -36275,7 +36287,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36353,7 +36365,7 @@
         <v>2.44</v>
       </c>
       <c r="AP169">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ169">
         <v>1.94</v>
@@ -37099,7 +37111,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37717,7 +37729,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -37798,7 +37810,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ176">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR176">
         <v>1.46</v>
@@ -38004,7 +38016,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ177">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR177">
         <v>2.27</v>
@@ -38825,10 +38837,10 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ181">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.01</v>
@@ -38953,7 +38965,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39031,7 +39043,7 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ182">
         <v>1.06</v>
@@ -39365,7 +39377,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39443,7 +39455,7 @@
         <v>0.5</v>
       </c>
       <c r="AP184">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ184">
         <v>0.5</v>
@@ -39983,7 +39995,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40189,7 +40201,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40267,7 +40279,7 @@
         <v>2.2</v>
       </c>
       <c r="AP188">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ188">
         <v>2</v>
@@ -40476,7 +40488,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ189">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR189">
         <v>1.09</v>
@@ -41013,7 +41025,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41094,7 +41106,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ192">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR192">
         <v>1.15</v>
@@ -41712,7 +41724,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ195">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR195">
         <v>2.17</v>
@@ -41837,7 +41849,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -41918,7 +41930,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ196">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR196">
         <v>1.28</v>
@@ -42249,7 +42261,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42455,7 +42467,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42533,7 +42545,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ199">
         <v>1.06</v>
@@ -42739,7 +42751,7 @@
         <v>1.64</v>
       </c>
       <c r="AP200">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ200">
         <v>1.59</v>
@@ -42945,7 +42957,7 @@
         <v>0.45</v>
       </c>
       <c r="AP201">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ201">
         <v>0.63</v>
@@ -43073,7 +43085,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43279,7 +43291,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43566,7 +43578,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ204">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR204">
         <v>2.06</v>
@@ -43897,7 +43909,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -44103,7 +44115,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44181,7 +44193,7 @@
         <v>2</v>
       </c>
       <c r="AP207">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ207">
         <v>2.06</v>
@@ -44309,7 +44321,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44721,7 +44733,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -44802,7 +44814,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ210">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR210">
         <v>1.26</v>
@@ -45214,7 +45226,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ212">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR212">
         <v>1.11</v>
@@ -45420,7 +45432,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ213">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR213">
         <v>1.19</v>
@@ -45545,7 +45557,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -46163,7 +46175,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46447,7 +46459,7 @@
         <v>1.42</v>
       </c>
       <c r="AP218">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ218">
         <v>1.41</v>
@@ -47065,7 +47077,7 @@
         <v>1.75</v>
       </c>
       <c r="AP221">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ221">
         <v>1.59</v>
@@ -47399,7 +47411,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47477,7 +47489,7 @@
         <v>2.09</v>
       </c>
       <c r="AP223">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ223">
         <v>2.29</v>
@@ -47605,7 +47617,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -48098,7 +48110,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ226">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR226">
         <v>1.26</v>
@@ -48429,7 +48441,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48507,7 +48519,7 @@
         <v>0.5</v>
       </c>
       <c r="AP228">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ228">
         <v>0.65</v>
@@ -48716,7 +48728,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ229">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR229">
         <v>1.86</v>
@@ -48922,7 +48934,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ230">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR230">
         <v>1.86</v>
@@ -49253,7 +49265,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49334,7 +49346,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ232">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR232">
         <v>1.18</v>
@@ -49665,7 +49677,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49871,7 +49883,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50283,7 +50295,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -50361,7 +50373,7 @@
         <v>2.17</v>
       </c>
       <c r="AP237">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ237">
         <v>2.29</v>
@@ -50773,7 +50785,7 @@
         <v>0.85</v>
       </c>
       <c r="AP239">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ239">
         <v>0.88</v>
@@ -50979,7 +50991,7 @@
         <v>0.54</v>
       </c>
       <c r="AP240">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ240">
         <v>0.65</v>
@@ -51313,7 +51325,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51519,7 +51531,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51803,7 +51815,7 @@
         <v>0.92</v>
       </c>
       <c r="AP244">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ244">
         <v>0.71</v>
@@ -51931,7 +51943,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -52012,7 +52024,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ245">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR245">
         <v>1.34</v>
@@ -52218,7 +52230,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ246">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR246">
         <v>1.1</v>
@@ -52343,7 +52355,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52549,7 +52561,7 @@
         <v>249</v>
       </c>
       <c r="P248" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -52755,7 +52767,7 @@
         <v>250</v>
       </c>
       <c r="P249" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -52836,7 +52848,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ249">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR249">
         <v>1.15</v>
@@ -52961,7 +52973,7 @@
         <v>251</v>
       </c>
       <c r="P250" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -53167,7 +53179,7 @@
         <v>147</v>
       </c>
       <c r="P251" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -53248,7 +53260,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ251">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR251">
         <v>1.93</v>
@@ -53579,7 +53591,7 @@
         <v>90</v>
       </c>
       <c r="P253" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -53991,7 +54003,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -54403,7 +54415,7 @@
         <v>254</v>
       </c>
       <c r="P257" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -54481,7 +54493,7 @@
         <v>0.57</v>
       </c>
       <c r="AP257">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ257">
         <v>0.65</v>
@@ -54609,7 +54621,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -54815,7 +54827,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -54893,7 +54905,7 @@
         <v>0.86</v>
       </c>
       <c r="AP259">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ259">
         <v>0.71</v>
@@ -55227,7 +55239,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -55433,7 +55445,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55639,7 +55651,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -55926,7 +55938,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ264">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR264">
         <v>1.11</v>
@@ -56051,7 +56063,7 @@
         <v>213</v>
       </c>
       <c r="P265" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -56129,7 +56141,7 @@
         <v>0.71</v>
       </c>
       <c r="AP265">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ265">
         <v>0.71</v>
@@ -56257,7 +56269,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -56338,7 +56350,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ266">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR266">
         <v>1.85</v>
@@ -56463,7 +56475,7 @@
         <v>260</v>
       </c>
       <c r="P267" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q267">
         <v>0</v>
@@ -56669,7 +56681,7 @@
         <v>261</v>
       </c>
       <c r="P268" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q268">
         <v>0</v>
@@ -56750,7 +56762,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ268">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR268">
         <v>1.31</v>
@@ -56875,7 +56887,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q269">
         <v>0</v>
@@ -57162,7 +57174,7 @@
         <v>3</v>
       </c>
       <c r="AQ270">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR270">
         <v>1.54</v>
@@ -57287,7 +57299,7 @@
         <v>242</v>
       </c>
       <c r="P271" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q271">
         <v>0</v>
@@ -57365,7 +57377,7 @@
         <v>2.07</v>
       </c>
       <c r="AP271">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ271">
         <v>1.94</v>
@@ -57493,7 +57505,7 @@
         <v>264</v>
       </c>
       <c r="P272" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q272">
         <v>0</v>
@@ -57699,7 +57711,7 @@
         <v>265</v>
       </c>
       <c r="P273" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -58523,7 +58535,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q277">
         <v>0</v>
@@ -58935,7 +58947,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q279">
         <v>0</v>
@@ -59141,7 +59153,7 @@
         <v>90</v>
       </c>
       <c r="P280" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -59219,7 +59231,7 @@
         <v>0.8</v>
       </c>
       <c r="AP280">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ280">
         <v>0.88</v>
@@ -59428,7 +59440,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ281">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR281">
         <v>1.14</v>
@@ -59634,7 +59646,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ282">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR282">
         <v>1.09</v>
@@ -59837,10 +59849,10 @@
         <v>0.67</v>
       </c>
       <c r="AP283">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ283">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR283">
         <v>1.05</v>
@@ -60046,7 +60058,7 @@
         <v>3</v>
       </c>
       <c r="AQ284">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR284">
         <v>1.51</v>
@@ -60171,7 +60183,7 @@
         <v>90</v>
       </c>
       <c r="P285" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q285">
         <v>0</v>
@@ -60377,7 +60389,7 @@
         <v>271</v>
       </c>
       <c r="P286" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q286">
         <v>0</v>
@@ -60455,7 +60467,7 @@
         <v>0.53</v>
       </c>
       <c r="AP286">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ286">
         <v>0.5</v>
@@ -60661,7 +60673,7 @@
         <v>0.73</v>
       </c>
       <c r="AP287">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ287">
         <v>0.71</v>
@@ -60789,7 +60801,7 @@
         <v>272</v>
       </c>
       <c r="P288" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q288">
         <v>0</v>
@@ -61201,7 +61213,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q290">
         <v>0</v>
@@ -61407,7 +61419,7 @@
         <v>273</v>
       </c>
       <c r="P291" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q291">
         <v>0</v>
@@ -62025,7 +62037,7 @@
         <v>275</v>
       </c>
       <c r="P294" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q294">
         <v>0</v>
@@ -62643,7 +62655,7 @@
         <v>90</v>
       </c>
       <c r="P297" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -62849,7 +62861,7 @@
         <v>278</v>
       </c>
       <c r="P298" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q298">
         <v>0</v>
@@ -63055,7 +63067,7 @@
         <v>279</v>
       </c>
       <c r="P299" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q299">
         <v>0</v>
@@ -63261,7 +63273,7 @@
         <v>178</v>
       </c>
       <c r="P300" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q300">
         <v>0</v>
@@ -63417,6 +63429,830 @@
         <v>0</v>
       </c>
       <c r="BP300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7025239</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45430.47916666666</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>78</v>
+      </c>
+      <c r="H301" t="s">
+        <v>86</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301">
+        <v>2</v>
+      </c>
+      <c r="M301">
+        <v>2</v>
+      </c>
+      <c r="N301">
+        <v>4</v>
+      </c>
+      <c r="O301" t="s">
+        <v>280</v>
+      </c>
+      <c r="P301" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>0</v>
+      </c>
+      <c r="S301">
+        <v>0</v>
+      </c>
+      <c r="T301">
+        <v>0</v>
+      </c>
+      <c r="U301">
+        <v>0</v>
+      </c>
+      <c r="V301">
+        <v>0</v>
+      </c>
+      <c r="W301">
+        <v>0</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>0</v>
+      </c>
+      <c r="Z301">
+        <v>1.54</v>
+      </c>
+      <c r="AA301">
+        <v>3.65</v>
+      </c>
+      <c r="AB301">
+        <v>4.75</v>
+      </c>
+      <c r="AC301">
+        <v>0</v>
+      </c>
+      <c r="AD301">
+        <v>0</v>
+      </c>
+      <c r="AE301">
+        <v>0</v>
+      </c>
+      <c r="AF301">
+        <v>0</v>
+      </c>
+      <c r="AG301">
+        <v>1.75</v>
+      </c>
+      <c r="AH301">
+        <v>1.95</v>
+      </c>
+      <c r="AI301">
+        <v>0</v>
+      </c>
+      <c r="AJ301">
+        <v>0</v>
+      </c>
+      <c r="AK301">
+        <v>0</v>
+      </c>
+      <c r="AL301">
+        <v>0</v>
+      </c>
+      <c r="AM301">
+        <v>0</v>
+      </c>
+      <c r="AN301">
+        <v>1.19</v>
+      </c>
+      <c r="AO301">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP301">
+        <v>1.18</v>
+      </c>
+      <c r="AQ301">
+        <v>0.71</v>
+      </c>
+      <c r="AR301">
+        <v>1.03</v>
+      </c>
+      <c r="AS301">
+        <v>1.04</v>
+      </c>
+      <c r="AT301">
+        <v>2.07</v>
+      </c>
+      <c r="AU301">
+        <v>4</v>
+      </c>
+      <c r="AV301">
+        <v>3</v>
+      </c>
+      <c r="AW301">
+        <v>4</v>
+      </c>
+      <c r="AX301">
+        <v>4</v>
+      </c>
+      <c r="AY301">
+        <v>8</v>
+      </c>
+      <c r="AZ301">
+        <v>7</v>
+      </c>
+      <c r="BA301">
+        <v>9</v>
+      </c>
+      <c r="BB301">
+        <v>2</v>
+      </c>
+      <c r="BC301">
+        <v>11</v>
+      </c>
+      <c r="BD301">
+        <v>0</v>
+      </c>
+      <c r="BE301">
+        <v>0</v>
+      </c>
+      <c r="BF301">
+        <v>0</v>
+      </c>
+      <c r="BG301">
+        <v>0</v>
+      </c>
+      <c r="BH301">
+        <v>0</v>
+      </c>
+      <c r="BI301">
+        <v>0</v>
+      </c>
+      <c r="BJ301">
+        <v>0</v>
+      </c>
+      <c r="BK301">
+        <v>0</v>
+      </c>
+      <c r="BL301">
+        <v>0</v>
+      </c>
+      <c r="BM301">
+        <v>0</v>
+      </c>
+      <c r="BN301">
+        <v>0</v>
+      </c>
+      <c r="BO301">
+        <v>0</v>
+      </c>
+      <c r="BP301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7025240</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45430.47916666666</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>75</v>
+      </c>
+      <c r="H302" t="s">
+        <v>71</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>1</v>
+      </c>
+      <c r="O302" t="s">
+        <v>281</v>
+      </c>
+      <c r="P302" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>0</v>
+      </c>
+      <c r="S302">
+        <v>0</v>
+      </c>
+      <c r="T302">
+        <v>0</v>
+      </c>
+      <c r="U302">
+        <v>0</v>
+      </c>
+      <c r="V302">
+        <v>0</v>
+      </c>
+      <c r="W302">
+        <v>0</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>0</v>
+      </c>
+      <c r="Z302">
+        <v>1.58</v>
+      </c>
+      <c r="AA302">
+        <v>3.75</v>
+      </c>
+      <c r="AB302">
+        <v>4.3</v>
+      </c>
+      <c r="AC302">
+        <v>0</v>
+      </c>
+      <c r="AD302">
+        <v>0</v>
+      </c>
+      <c r="AE302">
+        <v>0</v>
+      </c>
+      <c r="AF302">
+        <v>0</v>
+      </c>
+      <c r="AG302">
+        <v>1.68</v>
+      </c>
+      <c r="AH302">
+        <v>2.05</v>
+      </c>
+      <c r="AI302">
+        <v>0</v>
+      </c>
+      <c r="AJ302">
+        <v>0</v>
+      </c>
+      <c r="AK302">
+        <v>0</v>
+      </c>
+      <c r="AL302">
+        <v>0</v>
+      </c>
+      <c r="AM302">
+        <v>0</v>
+      </c>
+      <c r="AN302">
+        <v>1.13</v>
+      </c>
+      <c r="AO302">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP302">
+        <v>1.24</v>
+      </c>
+      <c r="AQ302">
+        <v>0.65</v>
+      </c>
+      <c r="AR302">
+        <v>1.16</v>
+      </c>
+      <c r="AS302">
+        <v>1.08</v>
+      </c>
+      <c r="AT302">
+        <v>2.24</v>
+      </c>
+      <c r="AU302">
+        <v>2</v>
+      </c>
+      <c r="AV302">
+        <v>4</v>
+      </c>
+      <c r="AW302">
+        <v>6</v>
+      </c>
+      <c r="AX302">
+        <v>4</v>
+      </c>
+      <c r="AY302">
+        <v>8</v>
+      </c>
+      <c r="AZ302">
+        <v>8</v>
+      </c>
+      <c r="BA302">
+        <v>4</v>
+      </c>
+      <c r="BB302">
+        <v>3</v>
+      </c>
+      <c r="BC302">
+        <v>7</v>
+      </c>
+      <c r="BD302">
+        <v>0</v>
+      </c>
+      <c r="BE302">
+        <v>0</v>
+      </c>
+      <c r="BF302">
+        <v>0</v>
+      </c>
+      <c r="BG302">
+        <v>0</v>
+      </c>
+      <c r="BH302">
+        <v>0</v>
+      </c>
+      <c r="BI302">
+        <v>0</v>
+      </c>
+      <c r="BJ302">
+        <v>0</v>
+      </c>
+      <c r="BK302">
+        <v>0</v>
+      </c>
+      <c r="BL302">
+        <v>0</v>
+      </c>
+      <c r="BM302">
+        <v>0</v>
+      </c>
+      <c r="BN302">
+        <v>0</v>
+      </c>
+      <c r="BO302">
+        <v>0</v>
+      </c>
+      <c r="BP302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7025241</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45430.47916666666</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>72</v>
+      </c>
+      <c r="H303" t="s">
+        <v>82</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>2</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303">
+        <v>3</v>
+      </c>
+      <c r="N303">
+        <v>4</v>
+      </c>
+      <c r="O303" t="s">
+        <v>166</v>
+      </c>
+      <c r="P303" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <v>0</v>
+      </c>
+      <c r="S303">
+        <v>0</v>
+      </c>
+      <c r="T303">
+        <v>0</v>
+      </c>
+      <c r="U303">
+        <v>0</v>
+      </c>
+      <c r="V303">
+        <v>0</v>
+      </c>
+      <c r="W303">
+        <v>0</v>
+      </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
+      <c r="Y303">
+        <v>0</v>
+      </c>
+      <c r="Z303">
+        <v>2.53</v>
+      </c>
+      <c r="AA303">
+        <v>3.35</v>
+      </c>
+      <c r="AB303">
+        <v>2.28</v>
+      </c>
+      <c r="AC303">
+        <v>0</v>
+      </c>
+      <c r="AD303">
+        <v>0</v>
+      </c>
+      <c r="AE303">
+        <v>0</v>
+      </c>
+      <c r="AF303">
+        <v>0</v>
+      </c>
+      <c r="AG303">
+        <v>1.69</v>
+      </c>
+      <c r="AH303">
+        <v>2.04</v>
+      </c>
+      <c r="AI303">
+        <v>0</v>
+      </c>
+      <c r="AJ303">
+        <v>0</v>
+      </c>
+      <c r="AK303">
+        <v>0</v>
+      </c>
+      <c r="AL303">
+        <v>0</v>
+      </c>
+      <c r="AM303">
+        <v>0</v>
+      </c>
+      <c r="AN303">
+        <v>1.38</v>
+      </c>
+      <c r="AO303">
+        <v>0.88</v>
+      </c>
+      <c r="AP303">
+        <v>1.29</v>
+      </c>
+      <c r="AQ303">
+        <v>1</v>
+      </c>
+      <c r="AR303">
+        <v>1.25</v>
+      </c>
+      <c r="AS303">
+        <v>1.01</v>
+      </c>
+      <c r="AT303">
+        <v>2.26</v>
+      </c>
+      <c r="AU303">
+        <v>2</v>
+      </c>
+      <c r="AV303">
+        <v>3</v>
+      </c>
+      <c r="AW303">
+        <v>2</v>
+      </c>
+      <c r="AX303">
+        <v>1</v>
+      </c>
+      <c r="AY303">
+        <v>4</v>
+      </c>
+      <c r="AZ303">
+        <v>4</v>
+      </c>
+      <c r="BA303">
+        <v>2</v>
+      </c>
+      <c r="BB303">
+        <v>2</v>
+      </c>
+      <c r="BC303">
+        <v>4</v>
+      </c>
+      <c r="BD303">
+        <v>0</v>
+      </c>
+      <c r="BE303">
+        <v>0</v>
+      </c>
+      <c r="BF303">
+        <v>0</v>
+      </c>
+      <c r="BG303">
+        <v>0</v>
+      </c>
+      <c r="BH303">
+        <v>0</v>
+      </c>
+      <c r="BI303">
+        <v>0</v>
+      </c>
+      <c r="BJ303">
+        <v>0</v>
+      </c>
+      <c r="BK303">
+        <v>0</v>
+      </c>
+      <c r="BL303">
+        <v>0</v>
+      </c>
+      <c r="BM303">
+        <v>0</v>
+      </c>
+      <c r="BN303">
+        <v>0</v>
+      </c>
+      <c r="BO303">
+        <v>0</v>
+      </c>
+      <c r="BP303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7025242</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45430.47916666666</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>76</v>
+      </c>
+      <c r="H304" t="s">
+        <v>80</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>3</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304" t="s">
+        <v>282</v>
+      </c>
+      <c r="P304" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>0</v>
+      </c>
+      <c r="S304">
+        <v>0</v>
+      </c>
+      <c r="T304">
+        <v>0</v>
+      </c>
+      <c r="U304">
+        <v>0</v>
+      </c>
+      <c r="V304">
+        <v>0</v>
+      </c>
+      <c r="W304">
+        <v>0</v>
+      </c>
+      <c r="X304">
+        <v>0</v>
+      </c>
+      <c r="Y304">
+        <v>0</v>
+      </c>
+      <c r="Z304">
+        <v>2.5</v>
+      </c>
+      <c r="AA304">
+        <v>3.35</v>
+      </c>
+      <c r="AB304">
+        <v>2.3</v>
+      </c>
+      <c r="AC304">
+        <v>0</v>
+      </c>
+      <c r="AD304">
+        <v>0</v>
+      </c>
+      <c r="AE304">
+        <v>0</v>
+      </c>
+      <c r="AF304">
+        <v>0</v>
+      </c>
+      <c r="AG304">
+        <v>1.7</v>
+      </c>
+      <c r="AH304">
+        <v>2.02</v>
+      </c>
+      <c r="AI304">
+        <v>0</v>
+      </c>
+      <c r="AJ304">
+        <v>0</v>
+      </c>
+      <c r="AK304">
+        <v>0</v>
+      </c>
+      <c r="AL304">
+        <v>0</v>
+      </c>
+      <c r="AM304">
+        <v>0</v>
+      </c>
+      <c r="AN304">
+        <v>1.5</v>
+      </c>
+      <c r="AO304">
+        <v>1.56</v>
+      </c>
+      <c r="AP304">
+        <v>1.41</v>
+      </c>
+      <c r="AQ304">
+        <v>1.65</v>
+      </c>
+      <c r="AR304">
+        <v>1.35</v>
+      </c>
+      <c r="AS304">
+        <v>1.22</v>
+      </c>
+      <c r="AT304">
+        <v>2.57</v>
+      </c>
+      <c r="AU304">
+        <v>2</v>
+      </c>
+      <c r="AV304">
+        <v>3</v>
+      </c>
+      <c r="AW304">
+        <v>1</v>
+      </c>
+      <c r="AX304">
+        <v>2</v>
+      </c>
+      <c r="AY304">
+        <v>3</v>
+      </c>
+      <c r="AZ304">
+        <v>5</v>
+      </c>
+      <c r="BA304">
+        <v>2</v>
+      </c>
+      <c r="BB304">
+        <v>6</v>
+      </c>
+      <c r="BC304">
+        <v>8</v>
+      </c>
+      <c r="BD304">
+        <v>0</v>
+      </c>
+      <c r="BE304">
+        <v>0</v>
+      </c>
+      <c r="BF304">
+        <v>0</v>
+      </c>
+      <c r="BG304">
+        <v>0</v>
+      </c>
+      <c r="BH304">
+        <v>0</v>
+      </c>
+      <c r="BI304">
+        <v>0</v>
+      </c>
+      <c r="BJ304">
+        <v>0</v>
+      </c>
+      <c r="BK304">
+        <v>0</v>
+      </c>
+      <c r="BL304">
+        <v>0</v>
+      </c>
+      <c r="BM304">
+        <v>0</v>
+      </c>
+      <c r="BN304">
+        <v>0</v>
+      </c>
+      <c r="BO304">
+        <v>0</v>
+      </c>
+      <c r="BP304">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="419">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -865,6 +865,12 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['5', '66']</t>
+  </si>
+  <si>
+    <t>['23', '37', '55']</t>
+  </si>
+  <si>
     <t>['67', '90+5']</t>
   </si>
   <si>
@@ -1626,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP304"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1885,7 +1891,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1963,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ2">
         <v>1.06</v>
@@ -2297,7 +2303,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2503,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2790,7 +2796,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ6">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3121,7 +3127,7 @@
         <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3202,7 +3208,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3327,7 +3333,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3405,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3533,7 +3539,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3739,7 +3745,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4151,7 +4157,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4357,7 +4363,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4975,7 +4981,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5181,7 +5187,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5593,7 +5599,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5674,7 +5680,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5799,7 +5805,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6086,7 +6092,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ22">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR22">
         <v>1.69</v>
@@ -6211,7 +6217,7 @@
         <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6417,7 +6423,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -7035,7 +7041,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7116,7 +7122,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR27">
         <v>2.48</v>
@@ -8271,7 +8277,7 @@
         <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -8477,7 +8483,7 @@
         <v>117</v>
       </c>
       <c r="P34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8889,7 +8895,7 @@
         <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8967,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ36">
         <v>2.29</v>
@@ -9095,7 +9101,7 @@
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -9173,7 +9179,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ37">
         <v>2.06</v>
@@ -9301,7 +9307,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -9382,7 +9388,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9919,7 +9925,7 @@
         <v>123</v>
       </c>
       <c r="P41" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -10331,7 +10337,7 @@
         <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -10412,7 +10418,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR43">
         <v>0.9399999999999999</v>
@@ -10537,7 +10543,7 @@
         <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -11030,7 +11036,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ46">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -11439,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ48">
         <v>0.88</v>
@@ -11567,7 +11573,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -12185,7 +12191,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -12391,7 +12397,7 @@
         <v>111</v>
       </c>
       <c r="P53" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12597,7 +12603,7 @@
         <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -12675,7 +12681,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ54">
         <v>0.71</v>
@@ -13009,7 +13015,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -13296,7 +13302,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13421,7 +13427,7 @@
         <v>136</v>
       </c>
       <c r="P58" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -13627,7 +13633,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13833,7 +13839,7 @@
         <v>138</v>
       </c>
       <c r="P60" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -14120,7 +14126,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ61">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR61">
         <v>1.43</v>
@@ -14245,7 +14251,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14326,7 +14332,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR62">
         <v>1.27</v>
@@ -14451,7 +14457,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -14863,7 +14869,7 @@
         <v>141</v>
       </c>
       <c r="P65" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -14941,7 +14947,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -15069,7 +15075,7 @@
         <v>142</v>
       </c>
       <c r="P66" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -15481,7 +15487,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15559,7 +15565,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ68">
         <v>0.65</v>
@@ -15893,7 +15899,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -17004,7 +17010,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -17416,7 +17422,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ77">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17541,7 +17547,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -17747,7 +17753,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -18159,7 +18165,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -18240,7 +18246,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -18365,7 +18371,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -18571,7 +18577,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -18652,7 +18658,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR83">
         <v>2.11</v>
@@ -18777,7 +18783,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -18983,7 +18989,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19267,7 +19273,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19473,7 +19479,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ87">
         <v>1.65</v>
@@ -20013,7 +20019,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -20712,7 +20718,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ93">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR93">
         <v>1.36</v>
@@ -21249,7 +21255,7 @@
         <v>125</v>
       </c>
       <c r="P96" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -21330,7 +21336,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR96">
         <v>1.41</v>
@@ -21661,7 +21667,7 @@
         <v>161</v>
       </c>
       <c r="P98" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -22485,7 +22491,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22897,7 +22903,7 @@
         <v>90</v>
       </c>
       <c r="P104" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -22978,7 +22984,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR104">
         <v>1.23</v>
@@ -23387,10 +23393,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ106">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR106">
         <v>1.85</v>
@@ -23593,7 +23599,7 @@
         <v>2.5</v>
       </c>
       <c r="AP107">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ107">
         <v>1.94</v>
@@ -23721,7 +23727,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -24133,7 +24139,7 @@
         <v>117</v>
       </c>
       <c r="P110" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -24751,7 +24757,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -24957,7 +24963,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -25369,7 +25375,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -25656,7 +25662,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ117">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR117">
         <v>1.28</v>
@@ -25781,7 +25787,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -26605,7 +26611,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -26811,7 +26817,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -26889,7 +26895,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -27017,7 +27023,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -27223,7 +27229,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -27304,7 +27310,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR125">
         <v>1.27</v>
@@ -27429,7 +27435,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -27507,7 +27513,7 @@
         <v>2.29</v>
       </c>
       <c r="AP126">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ126">
         <v>1.94</v>
@@ -27716,7 +27722,7 @@
         <v>3</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR127">
         <v>1.65</v>
@@ -28253,7 +28259,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -28746,7 +28752,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ132">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR132">
         <v>2.01</v>
@@ -29283,7 +29289,7 @@
         <v>151</v>
       </c>
       <c r="P135" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -29489,7 +29495,7 @@
         <v>187</v>
       </c>
       <c r="P136" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29776,7 +29782,7 @@
         <v>3</v>
       </c>
       <c r="AQ137">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR137">
         <v>1.61</v>
@@ -29982,7 +29988,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ138">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR138">
         <v>1.03</v>
@@ -30519,7 +30525,7 @@
         <v>90</v>
       </c>
       <c r="P141" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30725,7 +30731,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -30803,7 +30809,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ142">
         <v>1.65</v>
@@ -31137,7 +31143,7 @@
         <v>192</v>
       </c>
       <c r="P144" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -31218,7 +31224,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ144">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR144">
         <v>1.24</v>
@@ -31343,7 +31349,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q145">
         <v>0</v>
@@ -31421,7 +31427,7 @@
         <v>1.38</v>
       </c>
       <c r="AP145">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ145">
         <v>1.41</v>
@@ -31755,7 +31761,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -31961,7 +31967,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -32167,7 +32173,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -32785,7 +32791,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -33403,7 +33409,7 @@
         <v>199</v>
       </c>
       <c r="P155" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33609,7 +33615,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -34021,7 +34027,7 @@
         <v>202</v>
       </c>
       <c r="P158" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -34227,7 +34233,7 @@
         <v>196</v>
       </c>
       <c r="P159" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -34639,7 +34645,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -35257,7 +35263,7 @@
         <v>135</v>
       </c>
       <c r="P164" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35541,7 +35547,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ165">
         <v>1.06</v>
@@ -35669,7 +35675,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -35750,7 +35756,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ166">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR166">
         <v>1.25</v>
@@ -36287,7 +36293,7 @@
         <v>128</v>
       </c>
       <c r="P169" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -36780,7 +36786,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR171">
         <v>1.16</v>
@@ -36983,10 +36989,10 @@
         <v>0.44</v>
       </c>
       <c r="AP172">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ172">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR172">
         <v>1.78</v>
@@ -37111,7 +37117,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -37729,7 +37735,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -38425,7 +38431,7 @@
         <v>1.8</v>
       </c>
       <c r="AP179">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
         <v>1.59</v>
@@ -38965,7 +38971,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -39249,10 +39255,10 @@
         <v>0.5</v>
       </c>
       <c r="AP183">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ183">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR183">
         <v>1.13</v>
@@ -39377,7 +39383,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -39458,7 +39464,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ184">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR184">
         <v>1.07</v>
@@ -39995,7 +40001,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -40201,7 +40207,7 @@
         <v>219</v>
       </c>
       <c r="P188" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -40282,7 +40288,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ188">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR188">
         <v>1.35</v>
@@ -41025,7 +41031,7 @@
         <v>114</v>
       </c>
       <c r="P192" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -41849,7 +41855,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -42133,7 +42139,7 @@
         <v>1.1</v>
       </c>
       <c r="AP197">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ197">
         <v>0.88</v>
@@ -42261,7 +42267,7 @@
         <v>90</v>
       </c>
       <c r="P198" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -42339,7 +42345,7 @@
         <v>2.11</v>
       </c>
       <c r="AP198">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ198">
         <v>2.29</v>
@@ -42467,7 +42473,7 @@
         <v>226</v>
       </c>
       <c r="P199" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42960,7 +42966,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ201">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR201">
         <v>1.01</v>
@@ -43085,7 +43091,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -43291,7 +43297,7 @@
         <v>228</v>
       </c>
       <c r="P203" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -43372,7 +43378,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ203">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR203">
         <v>1.42</v>
@@ -43784,7 +43790,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ205">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR205">
         <v>1.16</v>
@@ -43909,7 +43915,7 @@
         <v>231</v>
       </c>
       <c r="P206" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -44115,7 +44121,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -44321,7 +44327,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -44605,7 +44611,7 @@
         <v>0.45</v>
       </c>
       <c r="AP209">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ209">
         <v>0.65</v>
@@ -44733,7 +44739,7 @@
         <v>187</v>
       </c>
       <c r="P210" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -45017,7 +45023,7 @@
         <v>0.73</v>
       </c>
       <c r="AP211">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ211">
         <v>0.71</v>
@@ -45557,7 +45563,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -46175,7 +46181,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -46256,7 +46262,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ217">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR217">
         <v>1.18</v>
@@ -47411,7 +47417,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -47617,7 +47623,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -47698,7 +47704,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ224">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR224">
         <v>2.07</v>
@@ -47904,7 +47910,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ225">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR225">
         <v>1.11</v>
@@ -48441,7 +48447,7 @@
         <v>146</v>
       </c>
       <c r="P228" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -48725,7 +48731,7 @@
         <v>0.58</v>
       </c>
       <c r="AP229">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ229">
         <v>0.65</v>
@@ -49137,7 +49143,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ231">
         <v>1.29</v>
@@ -49265,7 +49271,7 @@
         <v>242</v>
       </c>
       <c r="P232" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q232">
         <v>0</v>
@@ -49677,7 +49683,7 @@
         <v>243</v>
       </c>
       <c r="P234" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -49883,7 +49889,7 @@
         <v>117</v>
       </c>
       <c r="P235" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -50170,7 +50176,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ236">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR236">
         <v>1.99</v>
@@ -50295,7 +50301,7 @@
         <v>232</v>
       </c>
       <c r="P237" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -51200,7 +51206,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ241">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR241">
         <v>1.23</v>
@@ -51325,7 +51331,7 @@
         <v>90</v>
       </c>
       <c r="P242" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -51531,7 +51537,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -51943,7 +51949,7 @@
         <v>247</v>
       </c>
       <c r="P245" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -52355,7 +52361,7 @@
         <v>90</v>
       </c>
       <c r="P247" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -52433,7 +52439,7 @@
         <v>1.31</v>
       </c>
       <c r="AP247">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ247">
         <v>1.29</v>
@@ -52561,7 +52567,7 @@
         <v>249</v>
       </c>
       <c r="P248" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -52767,7 +52773,7 @@
         <v>250</v>
       </c>
       <c r="P249" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -52973,7 +52979,7 @@
         <v>251</v>
       </c>
       <c r="P250" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -53051,7 +53057,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ250">
         <v>0.71</v>
@@ -53179,7 +53185,7 @@
         <v>147</v>
       </c>
       <c r="P251" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -53466,7 +53472,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ252">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR252">
         <v>1.12</v>
@@ -53591,7 +53597,7 @@
         <v>90</v>
       </c>
       <c r="P253" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -54003,7 +54009,7 @@
         <v>253</v>
       </c>
       <c r="P255" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -54415,7 +54421,7 @@
         <v>254</v>
       </c>
       <c r="P257" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -54621,7 +54627,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -54827,7 +54833,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -55239,7 +55245,7 @@
         <v>90</v>
       </c>
       <c r="P261" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -55320,7 +55326,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ261">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR261">
         <v>1.4</v>
@@ -55445,7 +55451,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55651,7 +55657,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -55935,7 +55941,7 @@
         <v>0.5</v>
       </c>
       <c r="AP264">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ264">
         <v>0.65</v>
@@ -56063,7 +56069,7 @@
         <v>213</v>
       </c>
       <c r="P265" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -56269,7 +56275,7 @@
         <v>259</v>
       </c>
       <c r="P266" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -56347,7 +56353,7 @@
         <v>0.79</v>
       </c>
       <c r="AP266">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ266">
         <v>0.71</v>
@@ -56475,7 +56481,7 @@
         <v>260</v>
       </c>
       <c r="P267" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q267">
         <v>0</v>
@@ -56556,7 +56562,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ267">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR267">
         <v>1.13</v>
@@ -56681,7 +56687,7 @@
         <v>261</v>
       </c>
       <c r="P268" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q268">
         <v>0</v>
@@ -56887,7 +56893,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q269">
         <v>0</v>
@@ -56968,7 +56974,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ269">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR269">
         <v>1.13</v>
@@ -57299,7 +57305,7 @@
         <v>242</v>
       </c>
       <c r="P271" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q271">
         <v>0</v>
@@ -57505,7 +57511,7 @@
         <v>264</v>
       </c>
       <c r="P272" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q272">
         <v>0</v>
@@ -57711,7 +57717,7 @@
         <v>265</v>
       </c>
       <c r="P273" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57792,7 +57798,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ273">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR273">
         <v>1.12</v>
@@ -58535,7 +58541,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q277">
         <v>0</v>
@@ -58947,7 +58953,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q279">
         <v>0</v>
@@ -59153,7 +59159,7 @@
         <v>90</v>
       </c>
       <c r="P280" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -59437,7 +59443,7 @@
         <v>0.73</v>
       </c>
       <c r="AP281">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ281">
         <v>0.71</v>
@@ -60183,7 +60189,7 @@
         <v>90</v>
       </c>
       <c r="P285" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q285">
         <v>0</v>
@@ -60264,7 +60270,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ285">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR285">
         <v>1.13</v>
@@ -60389,7 +60395,7 @@
         <v>271</v>
       </c>
       <c r="P286" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q286">
         <v>0</v>
@@ -60470,7 +60476,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ286">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR286">
         <v>1.27</v>
@@ -60801,7 +60807,7 @@
         <v>272</v>
       </c>
       <c r="P288" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q288">
         <v>0</v>
@@ -60879,7 +60885,7 @@
         <v>1.4</v>
       </c>
       <c r="AP288">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ288">
         <v>1.41</v>
@@ -61213,7 +61219,7 @@
         <v>90</v>
       </c>
       <c r="P290" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q290">
         <v>0</v>
@@ -61419,7 +61425,7 @@
         <v>273</v>
       </c>
       <c r="P291" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q291">
         <v>0</v>
@@ -62037,7 +62043,7 @@
         <v>275</v>
       </c>
       <c r="P294" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q294">
         <v>0</v>
@@ -62655,7 +62661,7 @@
         <v>90</v>
       </c>
       <c r="P297" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q297">
         <v>0</v>
@@ -62861,7 +62867,7 @@
         <v>278</v>
       </c>
       <c r="P298" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q298">
         <v>0</v>
@@ -63067,7 +63073,7 @@
         <v>279</v>
       </c>
       <c r="P299" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q299">
         <v>0</v>
@@ -63273,7 +63279,7 @@
         <v>178</v>
       </c>
       <c r="P300" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q300">
         <v>0</v>
@@ -63369,28 +63375,28 @@
         <v>2</v>
       </c>
       <c r="AV300">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW300">
         <v>2</v>
       </c>
       <c r="AX300">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY300">
         <v>4</v>
       </c>
       <c r="AZ300">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB300">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC300">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD300">
         <v>0</v>
@@ -63479,7 +63485,7 @@
         <v>280</v>
       </c>
       <c r="P301" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q301">
         <v>0</v>
@@ -63891,7 +63897,7 @@
         <v>166</v>
       </c>
       <c r="P303" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q303">
         <v>0</v>
@@ -64097,7 +64103,7 @@
         <v>282</v>
       </c>
       <c r="P304" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q304">
         <v>0</v>
@@ -64253,6 +64259,624 @@
         <v>0</v>
       </c>
       <c r="BP304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7025246</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45430.58333333334</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>77</v>
+      </c>
+      <c r="H305" t="s">
+        <v>84</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>2</v>
+      </c>
+      <c r="M305">
+        <v>1</v>
+      </c>
+      <c r="N305">
+        <v>3</v>
+      </c>
+      <c r="O305" t="s">
+        <v>283</v>
+      </c>
+      <c r="P305" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>0</v>
+      </c>
+      <c r="S305">
+        <v>0</v>
+      </c>
+      <c r="T305">
+        <v>0</v>
+      </c>
+      <c r="U305">
+        <v>0</v>
+      </c>
+      <c r="V305">
+        <v>0</v>
+      </c>
+      <c r="W305">
+        <v>0</v>
+      </c>
+      <c r="X305">
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <v>0</v>
+      </c>
+      <c r="Z305">
+        <v>2.35</v>
+      </c>
+      <c r="AA305">
+        <v>3.35</v>
+      </c>
+      <c r="AB305">
+        <v>3.1</v>
+      </c>
+      <c r="AC305">
+        <v>0</v>
+      </c>
+      <c r="AD305">
+        <v>0</v>
+      </c>
+      <c r="AE305">
+        <v>0</v>
+      </c>
+      <c r="AF305">
+        <v>0</v>
+      </c>
+      <c r="AG305">
+        <v>1.95</v>
+      </c>
+      <c r="AH305">
+        <v>1.87</v>
+      </c>
+      <c r="AI305">
+        <v>0</v>
+      </c>
+      <c r="AJ305">
+        <v>0</v>
+      </c>
+      <c r="AK305">
+        <v>0</v>
+      </c>
+      <c r="AL305">
+        <v>0</v>
+      </c>
+      <c r="AM305">
+        <v>0</v>
+      </c>
+      <c r="AN305">
+        <v>1.56</v>
+      </c>
+      <c r="AO305">
+        <v>0.5</v>
+      </c>
+      <c r="AP305">
+        <v>1.65</v>
+      </c>
+      <c r="AQ305">
+        <v>0.47</v>
+      </c>
+      <c r="AR305">
+        <v>1.14</v>
+      </c>
+      <c r="AS305">
+        <v>1.19</v>
+      </c>
+      <c r="AT305">
+        <v>2.33</v>
+      </c>
+      <c r="AU305">
+        <v>0</v>
+      </c>
+      <c r="AV305">
+        <v>0</v>
+      </c>
+      <c r="AW305">
+        <v>4</v>
+      </c>
+      <c r="AX305">
+        <v>3</v>
+      </c>
+      <c r="AY305">
+        <v>4</v>
+      </c>
+      <c r="AZ305">
+        <v>3</v>
+      </c>
+      <c r="BA305">
+        <v>1</v>
+      </c>
+      <c r="BB305">
+        <v>5</v>
+      </c>
+      <c r="BC305">
+        <v>6</v>
+      </c>
+      <c r="BD305">
+        <v>0</v>
+      </c>
+      <c r="BE305">
+        <v>0</v>
+      </c>
+      <c r="BF305">
+        <v>0</v>
+      </c>
+      <c r="BG305">
+        <v>0</v>
+      </c>
+      <c r="BH305">
+        <v>0</v>
+      </c>
+      <c r="BI305">
+        <v>0</v>
+      </c>
+      <c r="BJ305">
+        <v>0</v>
+      </c>
+      <c r="BK305">
+        <v>0</v>
+      </c>
+      <c r="BL305">
+        <v>0</v>
+      </c>
+      <c r="BM305">
+        <v>0</v>
+      </c>
+      <c r="BN305">
+        <v>0</v>
+      </c>
+      <c r="BO305">
+        <v>0</v>
+      </c>
+      <c r="BP305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7025245</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45430.58333333334</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>73</v>
+      </c>
+      <c r="H306" t="s">
+        <v>81</v>
+      </c>
+      <c r="I306">
+        <v>2</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>2</v>
+      </c>
+      <c r="L306">
+        <v>3</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>3</v>
+      </c>
+      <c r="O306" t="s">
+        <v>284</v>
+      </c>
+      <c r="P306" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>0</v>
+      </c>
+      <c r="S306">
+        <v>0</v>
+      </c>
+      <c r="T306">
+        <v>0</v>
+      </c>
+      <c r="U306">
+        <v>0</v>
+      </c>
+      <c r="V306">
+        <v>0</v>
+      </c>
+      <c r="W306">
+        <v>0</v>
+      </c>
+      <c r="X306">
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <v>0</v>
+      </c>
+      <c r="Z306">
+        <v>1.08</v>
+      </c>
+      <c r="AA306">
+        <v>11</v>
+      </c>
+      <c r="AB306">
+        <v>26</v>
+      </c>
+      <c r="AC306">
+        <v>0</v>
+      </c>
+      <c r="AD306">
+        <v>0</v>
+      </c>
+      <c r="AE306">
+        <v>0</v>
+      </c>
+      <c r="AF306">
+        <v>0</v>
+      </c>
+      <c r="AG306">
+        <v>1.25</v>
+      </c>
+      <c r="AH306">
+        <v>3.5</v>
+      </c>
+      <c r="AI306">
+        <v>0</v>
+      </c>
+      <c r="AJ306">
+        <v>0</v>
+      </c>
+      <c r="AK306">
+        <v>0</v>
+      </c>
+      <c r="AL306">
+        <v>0</v>
+      </c>
+      <c r="AM306">
+        <v>0</v>
+      </c>
+      <c r="AN306">
+        <v>3</v>
+      </c>
+      <c r="AO306">
+        <v>0.63</v>
+      </c>
+      <c r="AP306">
+        <v>3</v>
+      </c>
+      <c r="AQ306">
+        <v>0.59</v>
+      </c>
+      <c r="AR306">
+        <v>1.54</v>
+      </c>
+      <c r="AS306">
+        <v>1.11</v>
+      </c>
+      <c r="AT306">
+        <v>2.65</v>
+      </c>
+      <c r="AU306">
+        <v>5</v>
+      </c>
+      <c r="AV306">
+        <v>0</v>
+      </c>
+      <c r="AW306">
+        <v>2</v>
+      </c>
+      <c r="AX306">
+        <v>5</v>
+      </c>
+      <c r="AY306">
+        <v>7</v>
+      </c>
+      <c r="AZ306">
+        <v>5</v>
+      </c>
+      <c r="BA306">
+        <v>4</v>
+      </c>
+      <c r="BB306">
+        <v>0</v>
+      </c>
+      <c r="BC306">
+        <v>4</v>
+      </c>
+      <c r="BD306">
+        <v>0</v>
+      </c>
+      <c r="BE306">
+        <v>0</v>
+      </c>
+      <c r="BF306">
+        <v>0</v>
+      </c>
+      <c r="BG306">
+        <v>0</v>
+      </c>
+      <c r="BH306">
+        <v>0</v>
+      </c>
+      <c r="BI306">
+        <v>0</v>
+      </c>
+      <c r="BJ306">
+        <v>0</v>
+      </c>
+      <c r="BK306">
+        <v>0</v>
+      </c>
+      <c r="BL306">
+        <v>0</v>
+      </c>
+      <c r="BM306">
+        <v>0</v>
+      </c>
+      <c r="BN306">
+        <v>0</v>
+      </c>
+      <c r="BO306">
+        <v>0</v>
+      </c>
+      <c r="BP306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7025247</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45430.6875</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>70</v>
+      </c>
+      <c r="H307" t="s">
+        <v>85</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>1</v>
+      </c>
+      <c r="O307" t="s">
+        <v>90</v>
+      </c>
+      <c r="P307" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="R307">
+        <v>0</v>
+      </c>
+      <c r="S307">
+        <v>0</v>
+      </c>
+      <c r="T307">
+        <v>0</v>
+      </c>
+      <c r="U307">
+        <v>0</v>
+      </c>
+      <c r="V307">
+        <v>0</v>
+      </c>
+      <c r="W307">
+        <v>0</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <v>0</v>
+      </c>
+      <c r="Z307">
+        <v>3.15</v>
+      </c>
+      <c r="AA307">
+        <v>3.5</v>
+      </c>
+      <c r="AB307">
+        <v>2.23</v>
+      </c>
+      <c r="AC307">
+        <v>0</v>
+      </c>
+      <c r="AD307">
+        <v>0</v>
+      </c>
+      <c r="AE307">
+        <v>0</v>
+      </c>
+      <c r="AF307">
+        <v>0</v>
+      </c>
+      <c r="AG307">
+        <v>1.61</v>
+      </c>
+      <c r="AH307">
+        <v>2.15</v>
+      </c>
+      <c r="AI307">
+        <v>0</v>
+      </c>
+      <c r="AJ307">
+        <v>0</v>
+      </c>
+      <c r="AK307">
+        <v>0</v>
+      </c>
+      <c r="AL307">
+        <v>0</v>
+      </c>
+      <c r="AM307">
+        <v>0</v>
+      </c>
+      <c r="AN307">
+        <v>2.06</v>
+      </c>
+      <c r="AO307">
+        <v>2</v>
+      </c>
+      <c r="AP307">
+        <v>1.94</v>
+      </c>
+      <c r="AQ307">
+        <v>2.06</v>
+      </c>
+      <c r="AR307">
+        <v>1.82</v>
+      </c>
+      <c r="AS307">
+        <v>1.28</v>
+      </c>
+      <c r="AT307">
+        <v>3.1</v>
+      </c>
+      <c r="AU307">
+        <v>0</v>
+      </c>
+      <c r="AV307">
+        <v>0</v>
+      </c>
+      <c r="AW307">
+        <v>0</v>
+      </c>
+      <c r="AX307">
+        <v>4</v>
+      </c>
+      <c r="AY307">
+        <v>0</v>
+      </c>
+      <c r="AZ307">
+        <v>4</v>
+      </c>
+      <c r="BA307">
+        <v>1</v>
+      </c>
+      <c r="BB307">
+        <v>1</v>
+      </c>
+      <c r="BC307">
+        <v>2</v>
+      </c>
+      <c r="BD307">
+        <v>0</v>
+      </c>
+      <c r="BE307">
+        <v>0</v>
+      </c>
+      <c r="BF307">
+        <v>0</v>
+      </c>
+      <c r="BG307">
+        <v>0</v>
+      </c>
+      <c r="BH307">
+        <v>0</v>
+      </c>
+      <c r="BI307">
+        <v>0</v>
+      </c>
+      <c r="BJ307">
+        <v>0</v>
+      </c>
+      <c r="BK307">
+        <v>0</v>
+      </c>
+      <c r="BL307">
+        <v>0</v>
+      </c>
+      <c r="BM307">
+        <v>0</v>
+      </c>
+      <c r="BN307">
+        <v>0</v>
+      </c>
+      <c r="BO307">
+        <v>0</v>
+      </c>
+      <c r="BP307">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -63993,28 +63993,28 @@
         <v>2</v>
       </c>
       <c r="AV303">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW303">
         <v>2</v>
       </c>
       <c r="AX303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY303">
         <v>4</v>
       </c>
       <c r="AZ303">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA303">
         <v>2</v>
       </c>
       <c r="BB303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC303">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD303">
         <v>0</v>
@@ -64205,22 +64205,22 @@
         <v>1</v>
       </c>
       <c r="AX304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY304">
         <v>3</v>
       </c>
       <c r="AZ304">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB304">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC304">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD304">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -64402,31 +64402,31 @@
         <v>2.33</v>
       </c>
       <c r="AU305">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW305">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX305">
         <v>3</v>
       </c>
       <c r="AY305">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AZ305">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB305">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC305">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD305">
         <v>0</v>
@@ -64608,31 +64608,31 @@
         <v>2.65</v>
       </c>
       <c r="AU306">
+        <v>7</v>
+      </c>
+      <c r="AV306">
+        <v>2</v>
+      </c>
+      <c r="AW306">
+        <v>6</v>
+      </c>
+      <c r="AX306">
+        <v>9</v>
+      </c>
+      <c r="AY306">
+        <v>13</v>
+      </c>
+      <c r="AZ306">
+        <v>11</v>
+      </c>
+      <c r="BA306">
         <v>5</v>
       </c>
-      <c r="AV306">
-        <v>0</v>
-      </c>
-      <c r="AW306">
-        <v>2</v>
-      </c>
-      <c r="AX306">
-        <v>5</v>
-      </c>
-      <c r="AY306">
-        <v>7</v>
-      </c>
-      <c r="AZ306">
-        <v>5</v>
-      </c>
-      <c r="BA306">
-        <v>4</v>
-      </c>
       <c r="BB306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC306">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD306">
         <v>0</v>
@@ -64814,31 +64814,31 @@
         <v>3.1</v>
       </c>
       <c r="AU307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV307">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX307">
+        <v>7</v>
+      </c>
+      <c r="AY307">
+        <v>5</v>
+      </c>
+      <c r="AZ307">
+        <v>12</v>
+      </c>
+      <c r="BA307">
         <v>4</v>
       </c>
-      <c r="AY307">
-        <v>0</v>
-      </c>
-      <c r="AZ307">
-        <v>4</v>
-      </c>
-      <c r="BA307">
-        <v>1</v>
-      </c>
       <c r="BB307">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC307">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BD307">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Portugal Liga NOS_20232024.xlsx
@@ -64217,10 +64217,10 @@
         <v>3</v>
       </c>
       <c r="BB304">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC304">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD304">
         <v>0</v>
